--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{CFAED138-2BC5-4ADE-AA73-6FD40757F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABC09B8B-6A6C-4F1F-B82F-7FA6FAB75074}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DD076A20-EBEF-45B7-A83B-072DAFD9DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24E2BB8-3462-4B60-93E2-BE2922844C09}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="22920" windowHeight="13360" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
-    <sheet name="filename" sheetId="5" r:id="rId2"/>
-    <sheet name="SWUTR-Issue List" sheetId="3" r:id="rId3"/>
+    <sheet name="SWUTR-Issue List" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">filename!$B$10:$AB$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SWUTR-Issue List'!$B$6:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SWUTR-Issue List'!$B$6:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unit_TC!$B$10:$AB$12</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'SWUTR-Issue List'!$B$2:$K$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'SWUTR-Issue List'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SWUTR-Issue List'!$B$2:$K$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'SWUTR-Issue List'!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="66">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -273,9 +270,14 @@
     <t>Todo</t>
   </si>
   <si>
-    <r>
-      <t>SWDDS</t>
-    </r>
+    <t>SWUTS.2.2.59_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDDS.2.2.59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -284,7 +286,8 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>상의 범위와 테스트 변수값의 범위가 차이가 있음</t>
+      <t xml:space="preserve">CT에서는 존재하지만 SWDDS에서는 존재하지 않는 코드
+</t>
     </r>
     <r>
       <rPr>
@@ -296,14 +299,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWDDS.1.2.4.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWUTS.1.2.4.4_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -505,20 +500,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -532,6 +513,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -772,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,10 +891,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,31 +940,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,39 +960,78 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,33 +1041,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,6 +1070,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1111,82 +1095,7 @@
     <cellStyle name="표준 7 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="하이퍼링크 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF009900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFD9DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1430,22 +1339,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>46182</xdr:colOff>
+      <xdr:colOff>5218545</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>400244</xdr:rowOff>
+      <xdr:rowOff>15394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5564910</xdr:colOff>
+      <xdr:colOff>7238068</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1363385</xdr:rowOff>
+      <xdr:rowOff>2327049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAE46D6-6581-4DF5-8AA3-9022512CBD91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F5AE1E-358D-4220-8D6F-784EC939DCDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1467,58 +1376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4256424" y="1677940"/>
-          <a:ext cx="5518728" cy="963141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>61577</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1493214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5511033</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2144696</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3770D93D-0C2D-43E0-86AB-55F45584A9A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4271819" y="2770910"/>
-          <a:ext cx="5449456" cy="651482"/>
+          <a:off x="9428787" y="1293090"/>
+          <a:ext cx="2019523" cy="2311655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,8 +1655,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:ADU72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
@@ -1808,7 +1667,7 @@
     <col min="4" max="4" width="12.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.109375" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.109375" style="58" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.71875" style="13" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="13" customWidth="1"/>
     <col min="10" max="10" width="22.71875" style="13" customWidth="1"/>
@@ -1840,9 +1699,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G1" s="36"/>
       <c r="L1" s="36"/>
     </row>
     <row r="2" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G2" s="36"/>
       <c r="J2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1855,6 +1716,7 @@
       </c>
     </row>
     <row r="3" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G3" s="36"/>
       <c r="J3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,6 +1729,7 @@
       </c>
     </row>
     <row r="4" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G4" s="36"/>
       <c r="K4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1876,6 +1739,7 @@
       </c>
     </row>
     <row r="5" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G5" s="36"/>
       <c r="K5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1885,87 +1749,90 @@
       </c>
     </row>
     <row r="6" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G6" s="36"/>
       <c r="L6" s="36"/>
       <c r="O6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G7" s="36"/>
       <c r="L7" s="36"/>
       <c r="O7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="G8" s="36"/>
       <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:801" s="1" customFormat="1" ht="12.7">
       <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="76" t="s">
+      <c r="N10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="76" t="s">
+      <c r="O10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="87" t="s">
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="88" t="s">
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="89" t="s">
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="76" t="s">
+      <c r="AA10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="83" t="s">
+      <c r="AB10" s="73" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -2137,25 +2004,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="76" t="s">
+      <c r="P11" s="69" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -2170,7 +2037,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="85" t="s">
+      <c r="U11" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -2182,12 +2049,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="87" t="s">
+      <c r="Y11" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="84"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="74"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -2357,21 +2224,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="75"/>
       <c r="K12" s="75"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="75"/>
-      <c r="P12" s="74"/>
+      <c r="P12" s="76"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -2380,31 +2247,31 @@
         <f>IFERROR(S12/T12,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="S12" s="63" t="e">
+      <c r="S12" s="55" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="T12" s="38" t="e">
+      <c r="T12" s="37" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="86"/>
+      <c r="U12" s="78"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="W12" s="38" t="e">
+      <c r="W12" s="37" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="X12" s="38" t="e">
+      <c r="X12" s="37" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="84"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="74"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -2574,26 +2441,26 @@
       <c r="ADU12" s="3"/>
     </row>
     <row r="13" spans="2:801" s="2" customFormat="1" ht="17" thickTop="1">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="64" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="56" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="58"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
         <v>.xls</v>
@@ -2602,22 +2469,22 @@
         <f>$B13&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="53"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="52"/>
       <c r="XB13" s="3"/>
       <c r="XC13" s="3"/>
       <c r="XD13" s="3"/>
@@ -2787,12 +2654,12 @@
       <c r="ADU13" s="3"/>
     </row>
     <row r="14" spans="2:801" s="2" customFormat="1">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="68"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="9" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2673,7 @@
       <c r="K14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="58"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="10" t="str">
         <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
         <v>.xls</v>
@@ -2818,19 +2685,19 @@
       <c r="O14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="53"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="52"/>
       <c r="XB14" s="3"/>
       <c r="XC14" s="3"/>
       <c r="XD14" s="3"/>
@@ -3000,12 +2867,12 @@
       <c r="ADU14" s="3"/>
     </row>
     <row r="15" spans="2:801" s="2" customFormat="1">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="68"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="9" t="s">
         <v>60</v>
       </c>
@@ -3019,7 +2886,7 @@
       <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="58"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3031,19 +2898,19 @@
       <c r="O15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="53"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="52"/>
       <c r="XB15" s="3"/>
       <c r="XC15" s="3"/>
       <c r="XD15" s="3"/>
@@ -3213,12 +3080,12 @@
       <c r="ADU15" s="3"/>
     </row>
     <row r="16" spans="2:801" s="2" customFormat="1">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="68"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="9" t="s">
         <v>60</v>
       </c>
@@ -3232,7 +3099,7 @@
       <c r="K16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="58"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3244,19 +3111,19 @@
       <c r="O16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="53"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="52"/>
       <c r="XB16" s="3"/>
       <c r="XC16" s="3"/>
       <c r="XD16" s="3"/>
@@ -3426,12 +3293,12 @@
       <c r="ADU16" s="3"/>
     </row>
     <row r="17" spans="1:801" s="2" customFormat="1">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="9" t="s">
         <v>60</v>
       </c>
@@ -3445,7 +3312,7 @@
       <c r="K17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="58"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3457,19 +3324,19 @@
       <c r="O17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="53"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="52"/>
       <c r="XB17" s="3"/>
       <c r="XC17" s="3"/>
       <c r="XD17" s="3"/>
@@ -3639,13 +3506,13 @@
       <c r="ADU17" s="3"/>
     </row>
     <row r="18" spans="1:801" s="8" customFormat="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="69"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="9" t="s">
         <v>60</v>
       </c>
@@ -3659,7 +3526,7 @@
       <c r="K18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="58"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3671,19 +3538,19 @@
       <c r="O18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="45"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="44"/>
       <c r="XB18" s="12"/>
       <c r="XC18" s="12"/>
       <c r="XD18" s="12"/>
@@ -3853,13 +3720,13 @@
       <c r="ADU18" s="12"/>
     </row>
     <row r="19" spans="1:801" s="8" customFormat="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="69"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="9" t="s">
         <v>60</v>
       </c>
@@ -3873,7 +3740,7 @@
       <c r="K19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="58"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3885,19 +3752,19 @@
       <c r="O19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="45"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="44"/>
       <c r="XB19" s="12"/>
       <c r="XC19" s="12"/>
       <c r="XD19" s="12"/>
@@ -4068,12 +3935,12 @@
     </row>
     <row r="20" spans="1:801">
       <c r="A20" s="14"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="69"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="9" t="s">
         <v>60</v>
       </c>
@@ -4087,7 +3954,7 @@
       <c r="K20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="58"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4099,26 +3966,26 @@
       <c r="O20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="62"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="67"/>
     </row>
     <row r="21" spans="1:801">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="9" t="s">
         <v>60</v>
       </c>
@@ -4132,7 +3999,7 @@
       <c r="K21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="58"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4144,26 +4011,26 @@
       <c r="O21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="62"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="67"/>
     </row>
     <row r="22" spans="1:801">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="9" t="s">
         <v>60</v>
       </c>
@@ -4177,7 +4044,7 @@
       <c r="K22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="58"/>
+      <c r="L22" s="96"/>
       <c r="M22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4189,26 +4056,26 @@
       <c r="O22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="62"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="67"/>
     </row>
     <row r="23" spans="1:801">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="9" t="s">
         <v>60</v>
       </c>
@@ -4222,7 +4089,7 @@
       <c r="K23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="58"/>
+      <c r="L23" s="96"/>
       <c r="M23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4234,26 +4101,26 @@
       <c r="O23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="62"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="67"/>
     </row>
     <row r="24" spans="1:801">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="69"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="9" t="s">
         <v>60</v>
       </c>
@@ -4267,7 +4134,7 @@
       <c r="K24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="58"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4279,26 +4146,26 @@
       <c r="O24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="62"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="67"/>
     </row>
     <row r="25" spans="1:801">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="9" t="s">
         <v>60</v>
       </c>
@@ -4312,7 +4179,7 @@
       <c r="K25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="58"/>
+      <c r="L25" s="96"/>
       <c r="M25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4324,26 +4191,26 @@
       <c r="O25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="62"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="67"/>
     </row>
     <row r="26" spans="1:801">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="69"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="9" t="s">
         <v>60</v>
       </c>
@@ -4357,7 +4224,7 @@
       <c r="K26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="58"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4369,26 +4236,26 @@
       <c r="O26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="62"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="67"/>
     </row>
     <row r="27" spans="1:801">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="69"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="9" t="s">
         <v>60</v>
       </c>
@@ -4402,7 +4269,7 @@
       <c r="K27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="58"/>
+      <c r="L27" s="96"/>
       <c r="M27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4414,26 +4281,26 @@
       <c r="O27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="62"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="67"/>
     </row>
     <row r="28" spans="1:801">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="69"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="9" t="s">
         <v>60</v>
       </c>
@@ -4447,7 +4314,7 @@
       <c r="K28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="96"/>
       <c r="M28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4459,26 +4326,26 @@
       <c r="O28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="62"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="67"/>
     </row>
     <row r="29" spans="1:801">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="69"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="9" t="s">
         <v>60</v>
       </c>
@@ -4492,7 +4359,7 @@
       <c r="K29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="58"/>
+      <c r="L29" s="96"/>
       <c r="M29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4504,26 +4371,26 @@
       <c r="O29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="62"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="67"/>
     </row>
     <row r="30" spans="1:801">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="69"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="9" t="s">
         <v>60</v>
       </c>
@@ -4537,7 +4404,7 @@
       <c r="K30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="96"/>
       <c r="M30" s="10" t="str">
         <f t="shared" ref="M30:N45" si="2">$B30&amp;".xls"</f>
         <v>.xls</v>
@@ -4549,26 +4416,26 @@
       <c r="O30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="62"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="67"/>
     </row>
     <row r="31" spans="1:801">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="69"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="9" t="s">
         <v>60</v>
       </c>
@@ -4582,7 +4449,7 @@
       <c r="K31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="58"/>
+      <c r="L31" s="96"/>
       <c r="M31" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4594,26 +4461,26 @@
       <c r="O31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="62"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="67"/>
     </row>
     <row r="32" spans="1:801">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="69"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="9" t="s">
         <v>60</v>
       </c>
@@ -4627,7 +4494,7 @@
       <c r="K32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="58"/>
+      <c r="L32" s="96"/>
       <c r="M32" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4639,26 +4506,26 @@
       <c r="O32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="62"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="67"/>
     </row>
     <row r="33" spans="2:801">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="69"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="9" t="s">
         <v>60</v>
       </c>
@@ -4672,7 +4539,7 @@
       <c r="K33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="58"/>
+      <c r="L33" s="96"/>
       <c r="M33" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4684,26 +4551,26 @@
       <c r="O33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="62"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="67"/>
     </row>
     <row r="34" spans="2:801">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="69"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="9" t="s">
         <v>60</v>
       </c>
@@ -4717,7 +4584,7 @@
       <c r="K34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="58"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4729,26 +4596,26 @@
       <c r="O34" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="62"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="67"/>
     </row>
     <row r="35" spans="2:801">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="69"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="9" t="s">
         <v>60</v>
       </c>
@@ -4762,7 +4629,7 @@
       <c r="K35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="58"/>
+      <c r="L35" s="96"/>
       <c r="M35" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4774,26 +4641,26 @@
       <c r="O35" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="62"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="67"/>
     </row>
     <row r="36" spans="2:801">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="69"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="9" t="s">
         <v>60</v>
       </c>
@@ -4807,7 +4674,7 @@
       <c r="K36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="58"/>
+      <c r="L36" s="96"/>
       <c r="M36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4819,26 +4686,26 @@
       <c r="O36" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="62"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="67"/>
     </row>
     <row r="37" spans="2:801">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="69"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="9" t="s">
         <v>60</v>
       </c>
@@ -4852,7 +4719,7 @@
       <c r="K37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="58"/>
+      <c r="L37" s="96"/>
       <c r="M37" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4864,26 +4731,26 @@
       <c r="O37" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="62"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="67"/>
     </row>
     <row r="38" spans="2:801">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="69"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="9" t="s">
         <v>60</v>
       </c>
@@ -4897,7 +4764,7 @@
       <c r="K38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="58"/>
+      <c r="L38" s="96"/>
       <c r="M38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4909,26 +4776,26 @@
       <c r="O38" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="62"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="67"/>
     </row>
     <row r="39" spans="2:801">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="69"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="9" t="s">
         <v>60</v>
       </c>
@@ -4942,7 +4809,7 @@
       <c r="K39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="58"/>
+      <c r="L39" s="96"/>
       <c r="M39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4954,26 +4821,26 @@
       <c r="O39" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="62"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="67"/>
     </row>
     <row r="40" spans="2:801">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="69"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="9" t="s">
         <v>60</v>
       </c>
@@ -4987,7 +4854,7 @@
       <c r="K40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="58"/>
+      <c r="L40" s="96"/>
       <c r="M40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4999,26 +4866,26 @@
       <c r="O40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="62"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="67"/>
     </row>
     <row r="41" spans="2:801">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="69"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="9" t="s">
         <v>60</v>
       </c>
@@ -5032,7 +4899,7 @@
       <c r="K41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="58"/>
+      <c r="L41" s="96"/>
       <c r="M41" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -5044,26 +4911,26 @@
       <c r="O41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="62"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="67"/>
     </row>
     <row r="42" spans="2:801">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="69"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="9" t="s">
         <v>60</v>
       </c>
@@ -5077,7 +4944,7 @@
       <c r="K42" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="58"/>
+      <c r="L42" s="96"/>
       <c r="M42" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -5089,26 +4956,26 @@
       <c r="O42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="62"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="67"/>
     </row>
     <row r="43" spans="2:801">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="69"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="9" t="s">
         <v>60</v>
       </c>
@@ -5122,7 +4989,7 @@
       <c r="K43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L43" s="58"/>
+      <c r="L43" s="96"/>
       <c r="M43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -5134,26 +5001,26 @@
       <c r="O43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="62"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="67"/>
     </row>
     <row r="44" spans="2:801">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="69"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="9" t="s">
         <v>60</v>
       </c>
@@ -5167,7 +5034,7 @@
       <c r="K44" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="58"/>
+      <c r="L44" s="96"/>
       <c r="M44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -5179,18 +5046,18 @@
       <c r="O44" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="62"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="67"/>
       <c r="WA44" s="14"/>
       <c r="WB44" s="14"/>
       <c r="WC44" s="14"/>
@@ -5259,12 +5126,12 @@
       <c r="ADU44" s="13"/>
     </row>
     <row r="45" spans="2:801">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="69"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="9" t="s">
         <v>60</v>
       </c>
@@ -5278,7 +5145,7 @@
       <c r="K45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="58"/>
+      <c r="L45" s="96"/>
       <c r="M45" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -5290,18 +5157,18 @@
       <c r="O45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="56"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="61"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="56"/>
-      <c r="X45" s="56"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="62"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="67"/>
       <c r="WA45" s="14"/>
       <c r="WB45" s="14"/>
       <c r="WC45" s="14"/>
@@ -5370,12 +5237,12 @@
       <c r="ADU45" s="13"/>
     </row>
     <row r="46" spans="2:801">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="69"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="9" t="s">
         <v>60</v>
       </c>
@@ -5389,7 +5256,7 @@
       <c r="K46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L46" s="58"/>
+      <c r="L46" s="96"/>
       <c r="M46" s="10" t="str">
         <f t="shared" ref="M46:N61" si="3">$B46&amp;".xls"</f>
         <v>.xls</v>
@@ -5401,18 +5268,18 @@
       <c r="O46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="61"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="62"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="67"/>
       <c r="WA46" s="14"/>
       <c r="WB46" s="14"/>
       <c r="WC46" s="14"/>
@@ -5481,12 +5348,12 @@
       <c r="ADU46" s="13"/>
     </row>
     <row r="47" spans="2:801">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="69"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="9" t="s">
         <v>60</v>
       </c>
@@ -5500,7 +5367,7 @@
       <c r="K47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="58"/>
+      <c r="L47" s="96"/>
       <c r="M47" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -5512,18 +5379,18 @@
       <c r="O47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="62"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="66"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="63"/>
+      <c r="AA47" s="67"/>
       <c r="WA47" s="14"/>
       <c r="WB47" s="14"/>
       <c r="WC47" s="14"/>
@@ -5592,12 +5459,12 @@
       <c r="ADU47" s="13"/>
     </row>
     <row r="48" spans="2:801">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="69"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="9" t="s">
         <v>60</v>
       </c>
@@ -5611,7 +5478,7 @@
       <c r="K48" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="58"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -5623,18 +5490,18 @@
       <c r="O48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="56"/>
-      <c r="X48" s="56"/>
-      <c r="Y48" s="59"/>
-      <c r="Z48" s="59"/>
-      <c r="AA48" s="62"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="67"/>
       <c r="WA48" s="14"/>
       <c r="WB48" s="14"/>
       <c r="WC48" s="14"/>
@@ -5703,12 +5570,12 @@
       <c r="ADU48" s="13"/>
     </row>
     <row r="49" spans="2:801">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="69"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="9" t="s">
         <v>60</v>
       </c>
@@ -5722,7 +5589,7 @@
       <c r="K49" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L49" s="58"/>
+      <c r="L49" s="96"/>
       <c r="M49" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -5734,18 +5601,18 @@
       <c r="O49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
-      <c r="AA49" s="62"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="65"/>
+      <c r="X49" s="65"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="67"/>
       <c r="WA49" s="14"/>
       <c r="WB49" s="14"/>
       <c r="WC49" s="14"/>
@@ -5814,12 +5681,12 @@
       <c r="ADU49" s="13"/>
     </row>
     <row r="50" spans="2:801">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="69"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="9" t="s">
         <v>60</v>
       </c>
@@ -5833,7 +5700,7 @@
       <c r="K50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="58"/>
+      <c r="L50" s="96"/>
       <c r="M50" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -5845,18 +5712,18 @@
       <c r="O50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="56"/>
-      <c r="X50" s="56"/>
-      <c r="Y50" s="59"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="62"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="65"/>
+      <c r="X50" s="65"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="67"/>
       <c r="WA50" s="14"/>
       <c r="WB50" s="14"/>
       <c r="WC50" s="14"/>
@@ -5925,12 +5792,12 @@
       <c r="ADU50" s="13"/>
     </row>
     <row r="51" spans="2:801">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="69"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="9" t="s">
         <v>60</v>
       </c>
@@ -5944,7 +5811,7 @@
       <c r="K51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L51" s="58"/>
+      <c r="L51" s="96"/>
       <c r="M51" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -5956,26 +5823,26 @@
       <c r="O51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="61"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="62"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="65"/>
+      <c r="X51" s="65"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="67"/>
     </row>
     <row r="52" spans="2:801">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="69"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="68"/>
       <c r="H52" s="9" t="s">
         <v>60</v>
       </c>
@@ -5989,7 +5856,7 @@
       <c r="K52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L52" s="58"/>
+      <c r="L52" s="96"/>
       <c r="M52" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6001,26 +5868,26 @@
       <c r="O52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="62"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="67"/>
     </row>
     <row r="53" spans="2:801">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="69"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="9" t="s">
         <v>60</v>
       </c>
@@ -6034,7 +5901,7 @@
       <c r="K53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L53" s="58"/>
+      <c r="L53" s="96"/>
       <c r="M53" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6046,26 +5913,26 @@
       <c r="O53" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="62"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="65"/>
+      <c r="X53" s="65"/>
+      <c r="Y53" s="63"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="67"/>
     </row>
     <row r="54" spans="2:801">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="69"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="9" t="s">
         <v>60</v>
       </c>
@@ -6079,7 +5946,7 @@
       <c r="K54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L54" s="58"/>
+      <c r="L54" s="96"/>
       <c r="M54" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6091,26 +5958,26 @@
       <c r="O54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="62"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="65"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="63"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="67"/>
     </row>
     <row r="55" spans="2:801">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="69"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="9" t="s">
         <v>60</v>
       </c>
@@ -6124,7 +5991,7 @@
       <c r="K55" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="58"/>
+      <c r="L55" s="96"/>
       <c r="M55" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6136,26 +6003,26 @@
       <c r="O55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="59"/>
-      <c r="Z55" s="59"/>
-      <c r="AA55" s="62"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="65"/>
+      <c r="X55" s="65"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="67"/>
     </row>
     <row r="56" spans="2:801">
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="69"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="68"/>
       <c r="H56" s="9" t="s">
         <v>60</v>
       </c>
@@ -6169,7 +6036,7 @@
       <c r="K56" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L56" s="58"/>
+      <c r="L56" s="96"/>
       <c r="M56" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6181,26 +6048,26 @@
       <c r="O56" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="62"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="66"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="63"/>
+      <c r="Z56" s="63"/>
+      <c r="AA56" s="67"/>
     </row>
     <row r="57" spans="2:801">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="69"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="9" t="s">
         <v>60</v>
       </c>
@@ -6214,7 +6081,7 @@
       <c r="K57" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="58"/>
+      <c r="L57" s="96"/>
       <c r="M57" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6226,26 +6093,26 @@
       <c r="O57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="61"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="59"/>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="62"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="65"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="63"/>
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="67"/>
     </row>
     <row r="58" spans="2:801">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="69"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="9" t="s">
         <v>60</v>
       </c>
@@ -6259,7 +6126,7 @@
       <c r="K58" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L58" s="58"/>
+      <c r="L58" s="96"/>
       <c r="M58" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6271,26 +6138,26 @@
       <c r="O58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
-      <c r="AA58" s="62"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="65"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="63"/>
+      <c r="Z58" s="63"/>
+      <c r="AA58" s="67"/>
     </row>
     <row r="59" spans="2:801">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="69"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="9" t="s">
         <v>60</v>
       </c>
@@ -6304,7 +6171,7 @@
       <c r="K59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L59" s="58"/>
+      <c r="L59" s="96"/>
       <c r="M59" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6316,26 +6183,26 @@
       <c r="O59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="62"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="67"/>
     </row>
     <row r="60" spans="2:801">
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="69"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="9" t="s">
         <v>60</v>
       </c>
@@ -6349,7 +6216,7 @@
       <c r="K60" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L60" s="58"/>
+      <c r="L60" s="96"/>
       <c r="M60" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6361,26 +6228,26 @@
       <c r="O60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="62"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="66"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="63"/>
+      <c r="Z60" s="63"/>
+      <c r="AA60" s="67"/>
     </row>
     <row r="61" spans="2:801">
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="69"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="9" t="s">
         <v>60</v>
       </c>
@@ -6394,7 +6261,7 @@
       <c r="K61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L61" s="58"/>
+      <c r="L61" s="96"/>
       <c r="M61" s="10" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
@@ -6406,26 +6273,26 @@
       <c r="O61" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="61"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="62"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="66"/>
+      <c r="W61" s="65"/>
+      <c r="X61" s="65"/>
+      <c r="Y61" s="63"/>
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="67"/>
     </row>
     <row r="62" spans="2:801">
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="69"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="68"/>
       <c r="H62" s="9" t="s">
         <v>60</v>
       </c>
@@ -6439,7 +6306,7 @@
       <c r="K62" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L62" s="58"/>
+      <c r="L62" s="96"/>
       <c r="M62" s="10" t="str">
         <f t="shared" ref="M62:N72" si="4">$B62&amp;".xls"</f>
         <v>.xls</v>
@@ -6451,26 +6318,26 @@
       <c r="O62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
-      <c r="AA62" s="62"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="65"/>
+      <c r="X62" s="65"/>
+      <c r="Y62" s="63"/>
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="67"/>
     </row>
     <row r="63" spans="2:801">
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="69"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="9" t="s">
         <v>60</v>
       </c>
@@ -6484,7 +6351,7 @@
       <c r="K63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L63" s="58"/>
+      <c r="L63" s="96"/>
       <c r="M63" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6496,26 +6363,26 @@
       <c r="O63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="56"/>
-      <c r="X63" s="56"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="62"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="65"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="65"/>
+      <c r="T63" s="65"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="65"/>
+      <c r="X63" s="65"/>
+      <c r="Y63" s="63"/>
+      <c r="Z63" s="63"/>
+      <c r="AA63" s="67"/>
     </row>
     <row r="64" spans="2:801">
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="69"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="9" t="s">
         <v>60</v>
       </c>
@@ -6529,7 +6396,7 @@
       <c r="K64" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L64" s="58"/>
+      <c r="L64" s="96"/>
       <c r="M64" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6541,26 +6408,26 @@
       <c r="O64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="61"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="59"/>
-      <c r="Z64" s="59"/>
-      <c r="AA64" s="62"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="65"/>
+      <c r="X64" s="65"/>
+      <c r="Y64" s="63"/>
+      <c r="Z64" s="63"/>
+      <c r="AA64" s="67"/>
     </row>
     <row r="65" spans="2:27">
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="69"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="9" t="s">
         <v>60</v>
       </c>
@@ -6574,7 +6441,7 @@
       <c r="K65" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L65" s="58"/>
+      <c r="L65" s="96"/>
       <c r="M65" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6586,26 +6453,26 @@
       <c r="O65" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
-      <c r="AA65" s="62"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="65"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="65"/>
+      <c r="Y65" s="63"/>
+      <c r="Z65" s="63"/>
+      <c r="AA65" s="67"/>
     </row>
     <row r="66" spans="2:27">
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="69"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="68"/>
       <c r="H66" s="9" t="s">
         <v>60</v>
       </c>
@@ -6619,7 +6486,7 @@
       <c r="K66" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L66" s="58"/>
+      <c r="L66" s="96"/>
       <c r="M66" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6631,26 +6498,26 @@
       <c r="O66" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="59"/>
-      <c r="Z66" s="59"/>
-      <c r="AA66" s="62"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="65"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="65"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="66"/>
+      <c r="W66" s="65"/>
+      <c r="X66" s="65"/>
+      <c r="Y66" s="63"/>
+      <c r="Z66" s="63"/>
+      <c r="AA66" s="67"/>
     </row>
     <row r="67" spans="2:27">
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="69"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="9" t="s">
         <v>60</v>
       </c>
@@ -6664,7 +6531,7 @@
       <c r="K67" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L67" s="58"/>
+      <c r="L67" s="96"/>
       <c r="M67" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6676,26 +6543,26 @@
       <c r="O67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="57"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
-      <c r="AA67" s="62"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="65"/>
+      <c r="Y67" s="63"/>
+      <c r="Z67" s="63"/>
+      <c r="AA67" s="67"/>
     </row>
     <row r="68" spans="2:27">
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="69"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="9" t="s">
         <v>60</v>
       </c>
@@ -6709,7 +6576,7 @@
       <c r="K68" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L68" s="58"/>
+      <c r="L68" s="96"/>
       <c r="M68" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6721,26 +6588,26 @@
       <c r="O68" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="57"/>
-      <c r="S68" s="56"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="57"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="59"/>
-      <c r="Z68" s="59"/>
-      <c r="AA68" s="62"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="65"/>
+      <c r="Y68" s="63"/>
+      <c r="Z68" s="63"/>
+      <c r="AA68" s="67"/>
     </row>
     <row r="69" spans="2:27">
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="9" t="s">
         <v>60</v>
       </c>
@@ -6754,7 +6621,7 @@
       <c r="K69" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L69" s="58"/>
+      <c r="L69" s="96"/>
       <c r="M69" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6766,26 +6633,26 @@
       <c r="O69" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="56"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="56"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="57"/>
-      <c r="W69" s="56"/>
-      <c r="X69" s="56"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="62"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="65"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="65"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="66"/>
+      <c r="W69" s="65"/>
+      <c r="X69" s="65"/>
+      <c r="Y69" s="63"/>
+      <c r="Z69" s="63"/>
+      <c r="AA69" s="67"/>
     </row>
     <row r="70" spans="2:27">
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="69"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="68"/>
       <c r="H70" s="9" t="s">
         <v>60</v>
       </c>
@@ -6799,7 +6666,7 @@
       <c r="K70" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L70" s="58"/>
+      <c r="L70" s="96"/>
       <c r="M70" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6811,26 +6678,26 @@
       <c r="O70" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="56"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="57"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
-      <c r="AA70" s="62"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="65"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="65"/>
+      <c r="T70" s="65"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="65"/>
+      <c r="X70" s="65"/>
+      <c r="Y70" s="63"/>
+      <c r="Z70" s="63"/>
+      <c r="AA70" s="67"/>
     </row>
     <row r="71" spans="2:27">
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="69"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="9" t="s">
         <v>60</v>
       </c>
@@ -6844,7 +6711,7 @@
       <c r="K71" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L71" s="58"/>
+      <c r="L71" s="96"/>
       <c r="M71" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6856,26 +6723,26 @@
       <c r="O71" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="57"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="57"/>
-      <c r="W71" s="56"/>
-      <c r="X71" s="56"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="62"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="65"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="65"/>
+      <c r="T71" s="65"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="63"/>
+      <c r="Z71" s="63"/>
+      <c r="AA71" s="67"/>
     </row>
     <row r="72" spans="2:27">
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="69"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="9" t="s">
         <v>60</v>
       </c>
@@ -6889,7 +6756,7 @@
       <c r="K72" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L72" s="58"/>
+      <c r="L72" s="96"/>
       <c r="M72" s="10" t="str">
         <f t="shared" si="4"/>
         <v>.xls</v>
@@ -6901,24 +6768,34 @@
       <c r="O72" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="57"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="57"/>
-      <c r="W72" s="56"/>
-      <c r="X72" s="56"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="62"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="65"/>
+      <c r="T72" s="65"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="67"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:AA674">
     <sortCondition ref="B6"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
@@ -6932,71 +6809,61 @@
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Z10:Z12"/>
     <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="50" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="51" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="52" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O42">
-    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="45" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="49" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:O60">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:O60">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,3887 +6912,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57D1AE2-EF0B-4EC9-979F-3E53DA571A4D}">
-  <dimension ref="A1:ADU50"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
-  <cols>
-    <col min="1" max="1" width="7.609375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.71875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="22.71875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.38671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.5" style="15" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="10.609375" style="13" customWidth="1"/>
-    <col min="26" max="27" width="19.609375" style="13" customWidth="1"/>
-    <col min="28" max="28" width="66.109375" style="13" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" style="13" customWidth="1"/>
-    <col min="30" max="625" width="9.109375" style="13" hidden="1" customWidth="1"/>
-    <col min="626" max="692" width="9.109375" style="14" hidden="1" customWidth="1"/>
-    <col min="693" max="693" width="9.109375" style="13" hidden="1" customWidth="1"/>
-    <col min="694" max="726" width="9.109375" style="14" hidden="1" customWidth="1"/>
-    <col min="727" max="731" width="9.109375" style="13" hidden="1" customWidth="1"/>
-    <col min="732" max="732" width="9.5" style="14" customWidth="1"/>
-    <col min="733" max="733" width="48.109375" style="14" customWidth="1"/>
-    <col min="734" max="735" width="9.109375" style="14" customWidth="1"/>
-    <col min="736" max="760" width="9.109375" style="14" hidden="1" customWidth="1"/>
-    <col min="761" max="770" width="9.109375" style="14" customWidth="1"/>
-    <col min="771" max="795" width="9.109375" style="14" hidden="1" customWidth="1"/>
-    <col min="796" max="797" width="9.109375" style="14" customWidth="1"/>
-    <col min="798" max="800" width="9.109375" style="13" customWidth="1"/>
-    <col min="801" max="801" width="9.109375" style="14" customWidth="1"/>
-    <col min="802" max="803" width="9.109375" style="13" customWidth="1"/>
-    <col min="804" max="16384" width="9.109375" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="L1" s="36"/>
-    </row>
-    <row r="2" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="O2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="36"/>
-      <c r="O3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="K4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="36"/>
-      <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="K5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="L6" s="36"/>
-      <c r="O6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="L7" s="36"/>
-      <c r="O7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="2:801" s="1" customFormat="1" ht="12.7">
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA10" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB10" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="XB10" s="3"/>
-      <c r="XC10" s="3"/>
-      <c r="XD10" s="3"/>
-      <c r="XE10" s="3"/>
-      <c r="XF10" s="3"/>
-      <c r="XG10" s="3"/>
-      <c r="XH10" s="3"/>
-      <c r="XI10" s="3"/>
-      <c r="XJ10" s="3"/>
-      <c r="XK10" s="3"/>
-      <c r="XL10" s="3"/>
-      <c r="XM10" s="3"/>
-      <c r="XN10" s="3"/>
-      <c r="XO10" s="3"/>
-      <c r="XP10" s="3"/>
-      <c r="XQ10" s="3"/>
-      <c r="XR10" s="3"/>
-      <c r="XS10" s="3"/>
-      <c r="XT10" s="3"/>
-      <c r="XU10" s="3"/>
-      <c r="XV10" s="3"/>
-      <c r="XW10" s="3"/>
-      <c r="XX10" s="3"/>
-      <c r="XY10" s="3"/>
-      <c r="XZ10" s="3"/>
-      <c r="YA10" s="3"/>
-      <c r="YB10" s="3"/>
-      <c r="YC10" s="3"/>
-      <c r="YD10" s="3"/>
-      <c r="YE10" s="3"/>
-      <c r="YF10" s="3"/>
-      <c r="YG10" s="3"/>
-      <c r="YH10" s="3"/>
-      <c r="YI10" s="3"/>
-      <c r="YJ10" s="3"/>
-      <c r="YK10" s="3"/>
-      <c r="YL10" s="3"/>
-      <c r="YM10" s="3"/>
-      <c r="YN10" s="3"/>
-      <c r="YO10" s="3"/>
-      <c r="YP10" s="3"/>
-      <c r="YQ10" s="3"/>
-      <c r="YR10" s="3"/>
-      <c r="YS10" s="3"/>
-      <c r="YT10" s="3"/>
-      <c r="YU10" s="3"/>
-      <c r="YV10" s="3"/>
-      <c r="YW10" s="3"/>
-      <c r="YX10" s="3"/>
-      <c r="YY10" s="3"/>
-      <c r="YZ10" s="3"/>
-      <c r="ZA10" s="3"/>
-      <c r="ZB10" s="3"/>
-      <c r="ZC10" s="3"/>
-      <c r="ZD10" s="3"/>
-      <c r="ZE10" s="3"/>
-      <c r="ZF10" s="3"/>
-      <c r="ZG10" s="3"/>
-      <c r="ZH10" s="3"/>
-      <c r="ZI10" s="3"/>
-      <c r="ZJ10" s="3"/>
-      <c r="ZK10" s="3"/>
-      <c r="ZL10" s="3"/>
-      <c r="ZM10" s="3"/>
-      <c r="ZN10" s="3"/>
-      <c r="ZO10" s="3"/>
-      <c r="ZP10" s="3"/>
-      <c r="ZR10" s="3"/>
-      <c r="ZS10" s="3"/>
-      <c r="ZT10" s="3"/>
-      <c r="ZU10" s="3"/>
-      <c r="ZV10" s="3"/>
-      <c r="ZW10" s="3"/>
-      <c r="ZX10" s="3"/>
-      <c r="ZY10" s="3"/>
-      <c r="ZZ10" s="3"/>
-      <c r="AAA10" s="3"/>
-      <c r="AAB10" s="3"/>
-      <c r="AAC10" s="3"/>
-      <c r="AAD10" s="3"/>
-      <c r="AAE10" s="3"/>
-      <c r="AAF10" s="3"/>
-      <c r="AAG10" s="3"/>
-      <c r="AAH10" s="3"/>
-      <c r="AAI10" s="3"/>
-      <c r="AAJ10" s="3"/>
-      <c r="AAK10" s="3"/>
-      <c r="AAL10" s="3"/>
-      <c r="AAM10" s="3"/>
-      <c r="AAN10" s="3"/>
-      <c r="AAO10" s="3"/>
-      <c r="AAP10" s="3"/>
-      <c r="AAQ10" s="3"/>
-      <c r="AAR10" s="3"/>
-      <c r="AAS10" s="3"/>
-      <c r="AAT10" s="3"/>
-      <c r="AAU10" s="3"/>
-      <c r="AAV10" s="3"/>
-      <c r="AAW10" s="3"/>
-      <c r="AAX10" s="3"/>
-      <c r="ABD10" s="3"/>
-      <c r="ABE10" s="3"/>
-      <c r="ABF10" s="3"/>
-      <c r="ABG10" s="3"/>
-      <c r="ABH10" s="3"/>
-      <c r="ABI10" s="3"/>
-      <c r="ABJ10" s="3"/>
-      <c r="ABK10" s="3"/>
-      <c r="ABL10" s="3"/>
-      <c r="ABM10" s="3"/>
-      <c r="ABN10" s="3"/>
-      <c r="ABO10" s="3"/>
-      <c r="ABP10" s="3"/>
-      <c r="ABQ10" s="3"/>
-      <c r="ABR10" s="3"/>
-      <c r="ABS10" s="3"/>
-      <c r="ABT10" s="3"/>
-      <c r="ABU10" s="3"/>
-      <c r="ABV10" s="3"/>
-      <c r="ABW10" s="3"/>
-      <c r="ABX10" s="3"/>
-      <c r="ABY10" s="3"/>
-      <c r="ABZ10" s="3"/>
-      <c r="ACA10" s="3"/>
-      <c r="ACB10" s="3"/>
-      <c r="ACC10" s="3"/>
-      <c r="ACD10" s="3"/>
-      <c r="ACE10" s="3"/>
-      <c r="ACF10" s="3"/>
-      <c r="ACG10" s="3"/>
-      <c r="ACH10" s="3"/>
-      <c r="ACI10" s="3"/>
-      <c r="ACJ10" s="3"/>
-      <c r="ACK10" s="3"/>
-      <c r="ACL10" s="3"/>
-      <c r="ACM10" s="3"/>
-      <c r="ACN10" s="3"/>
-      <c r="ACO10" s="3"/>
-      <c r="ACP10" s="3"/>
-      <c r="ACQ10" s="3"/>
-      <c r="ACR10" s="3"/>
-      <c r="ACS10" s="3"/>
-      <c r="ACT10" s="3"/>
-      <c r="ACU10" s="3"/>
-      <c r="ACV10" s="3"/>
-      <c r="ACW10" s="3"/>
-      <c r="ACX10" s="3"/>
-      <c r="ACY10" s="3"/>
-      <c r="ACZ10" s="3"/>
-      <c r="ADA10" s="3"/>
-      <c r="ADB10" s="3"/>
-      <c r="ADC10" s="3"/>
-      <c r="ADD10" s="3"/>
-      <c r="ADE10" s="3"/>
-      <c r="ADF10" s="3"/>
-      <c r="ADG10" s="3"/>
-      <c r="ADH10" s="3"/>
-      <c r="ADI10" s="3"/>
-      <c r="ADJ10" s="3"/>
-      <c r="ADK10" s="3"/>
-      <c r="ADL10" s="3"/>
-      <c r="ADM10" s="3"/>
-      <c r="ADN10" s="3"/>
-      <c r="ADO10" s="3"/>
-      <c r="ADP10" s="3"/>
-      <c r="ADQ10" s="3"/>
-      <c r="ADU10" s="3"/>
-    </row>
-    <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="84"/>
-      <c r="XB11" s="3"/>
-      <c r="XC11" s="3"/>
-      <c r="XD11" s="3"/>
-      <c r="XE11" s="3"/>
-      <c r="XF11" s="3"/>
-      <c r="XG11" s="3"/>
-      <c r="XH11" s="3"/>
-      <c r="XI11" s="3"/>
-      <c r="XJ11" s="3"/>
-      <c r="XK11" s="3"/>
-      <c r="XL11" s="3"/>
-      <c r="XM11" s="3"/>
-      <c r="XN11" s="3"/>
-      <c r="XO11" s="3"/>
-      <c r="XP11" s="3"/>
-      <c r="XQ11" s="3"/>
-      <c r="XR11" s="3"/>
-      <c r="XS11" s="3"/>
-      <c r="XT11" s="3"/>
-      <c r="XU11" s="3"/>
-      <c r="XV11" s="3"/>
-      <c r="XW11" s="3"/>
-      <c r="XX11" s="3"/>
-      <c r="XY11" s="3"/>
-      <c r="XZ11" s="3"/>
-      <c r="YA11" s="3"/>
-      <c r="YB11" s="3"/>
-      <c r="YC11" s="3"/>
-      <c r="YD11" s="3"/>
-      <c r="YE11" s="3"/>
-      <c r="YF11" s="3"/>
-      <c r="YG11" s="3"/>
-      <c r="YH11" s="3"/>
-      <c r="YI11" s="3"/>
-      <c r="YJ11" s="3"/>
-      <c r="YK11" s="3"/>
-      <c r="YL11" s="3"/>
-      <c r="YM11" s="3"/>
-      <c r="YN11" s="3"/>
-      <c r="YO11" s="3"/>
-      <c r="YP11" s="3"/>
-      <c r="YQ11" s="3"/>
-      <c r="YR11" s="3"/>
-      <c r="YS11" s="3"/>
-      <c r="YT11" s="3"/>
-      <c r="YU11" s="3"/>
-      <c r="YV11" s="3"/>
-      <c r="YW11" s="3"/>
-      <c r="YX11" s="3"/>
-      <c r="YY11" s="3"/>
-      <c r="YZ11" s="3"/>
-      <c r="ZA11" s="3"/>
-      <c r="ZB11" s="3"/>
-      <c r="ZC11" s="3"/>
-      <c r="ZD11" s="3"/>
-      <c r="ZE11" s="3"/>
-      <c r="ZF11" s="3"/>
-      <c r="ZG11" s="3"/>
-      <c r="ZH11" s="3"/>
-      <c r="ZI11" s="3"/>
-      <c r="ZJ11" s="3"/>
-      <c r="ZK11" s="3"/>
-      <c r="ZL11" s="3"/>
-      <c r="ZM11" s="3"/>
-      <c r="ZN11" s="3"/>
-      <c r="ZO11" s="3"/>
-      <c r="ZP11" s="3"/>
-      <c r="ZR11" s="3"/>
-      <c r="ZS11" s="3"/>
-      <c r="ZT11" s="3"/>
-      <c r="ZU11" s="3"/>
-      <c r="ZV11" s="3"/>
-      <c r="ZW11" s="3"/>
-      <c r="ZX11" s="3"/>
-      <c r="ZY11" s="3"/>
-      <c r="ZZ11" s="3"/>
-      <c r="AAA11" s="3"/>
-      <c r="AAB11" s="3"/>
-      <c r="AAC11" s="3"/>
-      <c r="AAD11" s="3"/>
-      <c r="AAE11" s="3"/>
-      <c r="AAF11" s="3"/>
-      <c r="AAG11" s="3"/>
-      <c r="AAH11" s="3"/>
-      <c r="AAI11" s="3"/>
-      <c r="AAJ11" s="3"/>
-      <c r="AAK11" s="3"/>
-      <c r="AAL11" s="3"/>
-      <c r="AAM11" s="3"/>
-      <c r="AAN11" s="3"/>
-      <c r="AAO11" s="3"/>
-      <c r="AAP11" s="3"/>
-      <c r="AAQ11" s="3"/>
-      <c r="AAR11" s="3"/>
-      <c r="AAS11" s="3"/>
-      <c r="AAT11" s="3"/>
-      <c r="AAU11" s="3"/>
-      <c r="AAV11" s="3"/>
-      <c r="AAW11" s="3"/>
-      <c r="AAX11" s="3"/>
-      <c r="ABD11" s="3"/>
-      <c r="ABE11" s="3"/>
-      <c r="ABF11" s="3"/>
-      <c r="ABG11" s="3"/>
-      <c r="ABH11" s="3"/>
-      <c r="ABI11" s="3"/>
-      <c r="ABJ11" s="3"/>
-      <c r="ABK11" s="3"/>
-      <c r="ABL11" s="3"/>
-      <c r="ABM11" s="3"/>
-      <c r="ABN11" s="3"/>
-      <c r="ABO11" s="3"/>
-      <c r="ABP11" s="3"/>
-      <c r="ABQ11" s="3"/>
-      <c r="ABR11" s="3"/>
-      <c r="ABS11" s="3"/>
-      <c r="ABT11" s="3"/>
-      <c r="ABU11" s="3"/>
-      <c r="ABV11" s="3"/>
-      <c r="ABW11" s="3"/>
-      <c r="ABX11" s="3"/>
-      <c r="ABY11" s="3"/>
-      <c r="ABZ11" s="3"/>
-      <c r="ACA11" s="3"/>
-      <c r="ACB11" s="3"/>
-      <c r="ACC11" s="3"/>
-      <c r="ACD11" s="3"/>
-      <c r="ACE11" s="3"/>
-      <c r="ACF11" s="3"/>
-      <c r="ACG11" s="3"/>
-      <c r="ACH11" s="3"/>
-      <c r="ACI11" s="3"/>
-      <c r="ACJ11" s="3"/>
-      <c r="ACK11" s="3"/>
-      <c r="ACL11" s="3"/>
-      <c r="ACM11" s="3"/>
-      <c r="ACN11" s="3"/>
-      <c r="ACO11" s="3"/>
-      <c r="ACP11" s="3"/>
-      <c r="ACQ11" s="3"/>
-      <c r="ACR11" s="3"/>
-      <c r="ACS11" s="3"/>
-      <c r="ACT11" s="3"/>
-      <c r="ACU11" s="3"/>
-      <c r="ACV11" s="3"/>
-      <c r="ACW11" s="3"/>
-      <c r="ACX11" s="3"/>
-      <c r="ACY11" s="3"/>
-      <c r="ACZ11" s="3"/>
-      <c r="ADA11" s="3"/>
-      <c r="ADB11" s="3"/>
-      <c r="ADC11" s="3"/>
-      <c r="ADD11" s="3"/>
-      <c r="ADE11" s="3"/>
-      <c r="ADF11" s="3"/>
-      <c r="ADG11" s="3"/>
-      <c r="ADH11" s="3"/>
-      <c r="ADI11" s="3"/>
-      <c r="ADJ11" s="3"/>
-      <c r="ADK11" s="3"/>
-      <c r="ADL11" s="3"/>
-      <c r="ADM11" s="3"/>
-      <c r="ADN11" s="3"/>
-      <c r="ADO11" s="3"/>
-      <c r="ADP11" s="3"/>
-      <c r="ADQ11" s="3"/>
-      <c r="ADU11" s="3"/>
-    </row>
-    <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="72">
-        <f>SUM(Q13:Q42)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="6" t="str">
-        <f>IFERROR(S12/T12,"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="S12" s="72" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T12" s="72" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U12" s="86"/>
-      <c r="V12" s="6" t="str">
-        <f>IFERROR(W12/X12,"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="W12" s="72" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X12" s="72" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="84"/>
-      <c r="XB12" s="3"/>
-      <c r="XC12" s="3"/>
-      <c r="XD12" s="3"/>
-      <c r="XE12" s="3"/>
-      <c r="XF12" s="3"/>
-      <c r="XG12" s="3"/>
-      <c r="XH12" s="3"/>
-      <c r="XI12" s="3"/>
-      <c r="XJ12" s="3"/>
-      <c r="XK12" s="3"/>
-      <c r="XL12" s="3"/>
-      <c r="XM12" s="3"/>
-      <c r="XN12" s="3"/>
-      <c r="XO12" s="3"/>
-      <c r="XP12" s="3"/>
-      <c r="XQ12" s="3"/>
-      <c r="XR12" s="3"/>
-      <c r="XS12" s="3"/>
-      <c r="XT12" s="3"/>
-      <c r="XU12" s="3"/>
-      <c r="XV12" s="3"/>
-      <c r="XW12" s="3"/>
-      <c r="XX12" s="3"/>
-      <c r="XY12" s="3"/>
-      <c r="XZ12" s="3"/>
-      <c r="YA12" s="3"/>
-      <c r="YB12" s="3"/>
-      <c r="YC12" s="3"/>
-      <c r="YD12" s="3"/>
-      <c r="YE12" s="3"/>
-      <c r="YF12" s="3"/>
-      <c r="YG12" s="3"/>
-      <c r="YH12" s="3"/>
-      <c r="YI12" s="3"/>
-      <c r="YJ12" s="3"/>
-      <c r="YK12" s="3"/>
-      <c r="YL12" s="3"/>
-      <c r="YM12" s="3"/>
-      <c r="YN12" s="3"/>
-      <c r="YO12" s="3"/>
-      <c r="YP12" s="3"/>
-      <c r="YQ12" s="3"/>
-      <c r="YR12" s="3"/>
-      <c r="YS12" s="3"/>
-      <c r="YT12" s="3"/>
-      <c r="YU12" s="3"/>
-      <c r="YV12" s="3"/>
-      <c r="YW12" s="3"/>
-      <c r="YX12" s="3"/>
-      <c r="YY12" s="3"/>
-      <c r="YZ12" s="3"/>
-      <c r="ZA12" s="3"/>
-      <c r="ZB12" s="3"/>
-      <c r="ZC12" s="3"/>
-      <c r="ZD12" s="3"/>
-      <c r="ZE12" s="3"/>
-      <c r="ZF12" s="3"/>
-      <c r="ZG12" s="3"/>
-      <c r="ZH12" s="3"/>
-      <c r="ZI12" s="3"/>
-      <c r="ZJ12" s="3"/>
-      <c r="ZK12" s="3"/>
-      <c r="ZL12" s="3"/>
-      <c r="ZM12" s="3"/>
-      <c r="ZN12" s="3"/>
-      <c r="ZO12" s="3"/>
-      <c r="ZP12" s="3"/>
-      <c r="ZR12" s="3"/>
-      <c r="ZS12" s="3"/>
-      <c r="ZT12" s="3"/>
-      <c r="ZU12" s="3"/>
-      <c r="ZV12" s="3"/>
-      <c r="ZW12" s="3"/>
-      <c r="ZX12" s="3"/>
-      <c r="ZY12" s="3"/>
-      <c r="ZZ12" s="3"/>
-      <c r="AAA12" s="3"/>
-      <c r="AAB12" s="3"/>
-      <c r="AAC12" s="3"/>
-      <c r="AAD12" s="3"/>
-      <c r="AAE12" s="3"/>
-      <c r="AAF12" s="3"/>
-      <c r="AAG12" s="3"/>
-      <c r="AAH12" s="3"/>
-      <c r="AAI12" s="3"/>
-      <c r="AAJ12" s="3"/>
-      <c r="AAK12" s="3"/>
-      <c r="AAL12" s="3"/>
-      <c r="AAM12" s="3"/>
-      <c r="AAN12" s="3"/>
-      <c r="AAO12" s="3"/>
-      <c r="AAP12" s="3"/>
-      <c r="AAQ12" s="3"/>
-      <c r="AAR12" s="3"/>
-      <c r="AAS12" s="3"/>
-      <c r="AAT12" s="3"/>
-      <c r="AAU12" s="3"/>
-      <c r="AAV12" s="3"/>
-      <c r="AAW12" s="3"/>
-      <c r="AAX12" s="3"/>
-      <c r="ABD12" s="3"/>
-      <c r="ABE12" s="3"/>
-      <c r="ABF12" s="3"/>
-      <c r="ABG12" s="3"/>
-      <c r="ABH12" s="3"/>
-      <c r="ABI12" s="3"/>
-      <c r="ABJ12" s="3"/>
-      <c r="ABK12" s="3"/>
-      <c r="ABL12" s="3"/>
-      <c r="ABM12" s="3"/>
-      <c r="ABN12" s="3"/>
-      <c r="ABO12" s="3"/>
-      <c r="ABP12" s="3"/>
-      <c r="ABQ12" s="3"/>
-      <c r="ABR12" s="3"/>
-      <c r="ABS12" s="3"/>
-      <c r="ABT12" s="3"/>
-      <c r="ABU12" s="3"/>
-      <c r="ABV12" s="3"/>
-      <c r="ABW12" s="3"/>
-      <c r="ABX12" s="3"/>
-      <c r="ABY12" s="3"/>
-      <c r="ABZ12" s="3"/>
-      <c r="ACA12" s="3"/>
-      <c r="ACB12" s="3"/>
-      <c r="ACC12" s="3"/>
-      <c r="ACD12" s="3"/>
-      <c r="ACE12" s="3"/>
-      <c r="ACF12" s="3"/>
-      <c r="ACG12" s="3"/>
-      <c r="ACH12" s="3"/>
-      <c r="ACI12" s="3"/>
-      <c r="ACJ12" s="3"/>
-      <c r="ACK12" s="3"/>
-      <c r="ACL12" s="3"/>
-      <c r="ACM12" s="3"/>
-      <c r="ACN12" s="3"/>
-      <c r="ACO12" s="3"/>
-      <c r="ACP12" s="3"/>
-      <c r="ACQ12" s="3"/>
-      <c r="ACR12" s="3"/>
-      <c r="ACS12" s="3"/>
-      <c r="ACT12" s="3"/>
-      <c r="ACU12" s="3"/>
-      <c r="ACV12" s="3"/>
-      <c r="ACW12" s="3"/>
-      <c r="ACX12" s="3"/>
-      <c r="ACY12" s="3"/>
-      <c r="ACZ12" s="3"/>
-      <c r="ADA12" s="3"/>
-      <c r="ADB12" s="3"/>
-      <c r="ADC12" s="3"/>
-      <c r="ADD12" s="3"/>
-      <c r="ADE12" s="3"/>
-      <c r="ADF12" s="3"/>
-      <c r="ADG12" s="3"/>
-      <c r="ADH12" s="3"/>
-      <c r="ADI12" s="3"/>
-      <c r="ADJ12" s="3"/>
-      <c r="ADK12" s="3"/>
-      <c r="ADL12" s="3"/>
-      <c r="ADM12" s="3"/>
-      <c r="ADN12" s="3"/>
-      <c r="ADO12" s="3"/>
-      <c r="ADP12" s="3"/>
-      <c r="ADQ12" s="3"/>
-      <c r="ADU12" s="3"/>
-    </row>
-    <row r="13" spans="2:801" s="2" customFormat="1" ht="17" thickTop="1">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f>$B13&amp;".xls"</f>
-        <v>.xls</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="10" t="str">
-        <f>$B13&amp;".xls"</f>
-        <v>.xls</v>
-      </c>
-      <c r="N13" s="10" t="str">
-        <f>$B13&amp;".xls"</f>
-        <v>.xls</v>
-      </c>
-      <c r="O13" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="53"/>
-      <c r="XB13" s="3"/>
-      <c r="XC13" s="3"/>
-      <c r="XD13" s="3"/>
-      <c r="XE13" s="3"/>
-      <c r="XF13" s="3"/>
-      <c r="XG13" s="3"/>
-      <c r="XH13" s="3"/>
-      <c r="XI13" s="3"/>
-      <c r="XJ13" s="3"/>
-      <c r="XK13" s="3"/>
-      <c r="XL13" s="3"/>
-      <c r="XM13" s="3"/>
-      <c r="XN13" s="3"/>
-      <c r="XO13" s="3"/>
-      <c r="XP13" s="3"/>
-      <c r="XQ13" s="3"/>
-      <c r="XR13" s="3"/>
-      <c r="XS13" s="3"/>
-      <c r="XT13" s="3"/>
-      <c r="XU13" s="3"/>
-      <c r="XV13" s="3"/>
-      <c r="XW13" s="3"/>
-      <c r="XX13" s="3"/>
-      <c r="XY13" s="3"/>
-      <c r="XZ13" s="3"/>
-      <c r="YA13" s="3"/>
-      <c r="YB13" s="3"/>
-      <c r="YC13" s="3"/>
-      <c r="YD13" s="3"/>
-      <c r="YE13" s="3"/>
-      <c r="YF13" s="3"/>
-      <c r="YG13" s="3"/>
-      <c r="YH13" s="3"/>
-      <c r="YI13" s="3"/>
-      <c r="YJ13" s="3"/>
-      <c r="YK13" s="3"/>
-      <c r="YL13" s="3"/>
-      <c r="YM13" s="3"/>
-      <c r="YN13" s="3"/>
-      <c r="YO13" s="3"/>
-      <c r="YP13" s="3"/>
-      <c r="YQ13" s="3"/>
-      <c r="YR13" s="3"/>
-      <c r="YS13" s="3"/>
-      <c r="YT13" s="3"/>
-      <c r="YU13" s="3"/>
-      <c r="YV13" s="3"/>
-      <c r="YW13" s="3"/>
-      <c r="YX13" s="3"/>
-      <c r="YY13" s="3"/>
-      <c r="YZ13" s="3"/>
-      <c r="ZA13" s="3"/>
-      <c r="ZB13" s="3"/>
-      <c r="ZC13" s="3"/>
-      <c r="ZD13" s="3"/>
-      <c r="ZE13" s="3"/>
-      <c r="ZF13" s="3"/>
-      <c r="ZG13" s="3"/>
-      <c r="ZH13" s="3"/>
-      <c r="ZI13" s="3"/>
-      <c r="ZJ13" s="3"/>
-      <c r="ZK13" s="3"/>
-      <c r="ZL13" s="3"/>
-      <c r="ZM13" s="3"/>
-      <c r="ZN13" s="3"/>
-      <c r="ZO13" s="3"/>
-      <c r="ZP13" s="3"/>
-      <c r="ZR13" s="3"/>
-      <c r="ZS13" s="3"/>
-      <c r="ZT13" s="3"/>
-      <c r="ZU13" s="3"/>
-      <c r="ZV13" s="3"/>
-      <c r="ZW13" s="3"/>
-      <c r="ZX13" s="3"/>
-      <c r="ZY13" s="3"/>
-      <c r="ZZ13" s="3"/>
-      <c r="AAA13" s="3"/>
-      <c r="AAB13" s="3"/>
-      <c r="AAC13" s="3"/>
-      <c r="AAD13" s="3"/>
-      <c r="AAE13" s="3"/>
-      <c r="AAF13" s="3"/>
-      <c r="AAG13" s="3"/>
-      <c r="AAH13" s="3"/>
-      <c r="AAI13" s="3"/>
-      <c r="AAJ13" s="3"/>
-      <c r="AAK13" s="3"/>
-      <c r="AAL13" s="3"/>
-      <c r="AAM13" s="3"/>
-      <c r="AAN13" s="3"/>
-      <c r="AAO13" s="3"/>
-      <c r="AAP13" s="3"/>
-      <c r="AAQ13" s="3"/>
-      <c r="AAR13" s="3"/>
-      <c r="AAS13" s="3"/>
-      <c r="AAT13" s="3"/>
-      <c r="AAU13" s="3"/>
-      <c r="AAV13" s="3"/>
-      <c r="AAW13" s="3"/>
-      <c r="AAX13" s="3"/>
-      <c r="ABD13" s="3"/>
-      <c r="ABE13" s="3"/>
-      <c r="ABF13" s="3"/>
-      <c r="ABG13" s="3"/>
-      <c r="ABH13" s="3"/>
-      <c r="ABI13" s="3"/>
-      <c r="ABJ13" s="3"/>
-      <c r="ABK13" s="3"/>
-      <c r="ABL13" s="3"/>
-      <c r="ABM13" s="3"/>
-      <c r="ABN13" s="3"/>
-      <c r="ABO13" s="3"/>
-      <c r="ABP13" s="3"/>
-      <c r="ABQ13" s="3"/>
-      <c r="ABR13" s="3"/>
-      <c r="ABS13" s="3"/>
-      <c r="ABT13" s="3"/>
-      <c r="ABU13" s="3"/>
-      <c r="ABV13" s="3"/>
-      <c r="ABW13" s="3"/>
-      <c r="ABX13" s="3"/>
-      <c r="ABY13" s="3"/>
-      <c r="ABZ13" s="3"/>
-      <c r="ACA13" s="3"/>
-      <c r="ACB13" s="3"/>
-      <c r="ACC13" s="3"/>
-      <c r="ACD13" s="3"/>
-      <c r="ACE13" s="3"/>
-      <c r="ACF13" s="3"/>
-      <c r="ACG13" s="3"/>
-      <c r="ACH13" s="3"/>
-      <c r="ACI13" s="3"/>
-      <c r="ACJ13" s="3"/>
-      <c r="ACK13" s="3"/>
-      <c r="ACL13" s="3"/>
-      <c r="ACM13" s="3"/>
-      <c r="ACN13" s="3"/>
-      <c r="ACO13" s="3"/>
-      <c r="ACP13" s="3"/>
-      <c r="ACQ13" s="3"/>
-      <c r="ACR13" s="3"/>
-      <c r="ACS13" s="3"/>
-      <c r="ACT13" s="3"/>
-      <c r="ACU13" s="3"/>
-      <c r="ACV13" s="3"/>
-      <c r="ACW13" s="3"/>
-      <c r="ACX13" s="3"/>
-      <c r="ACY13" s="3"/>
-      <c r="ACZ13" s="3"/>
-      <c r="ADA13" s="3"/>
-      <c r="ADB13" s="3"/>
-      <c r="ADC13" s="3"/>
-      <c r="ADD13" s="3"/>
-      <c r="ADE13" s="3"/>
-      <c r="ADF13" s="3"/>
-      <c r="ADG13" s="3"/>
-      <c r="ADH13" s="3"/>
-      <c r="ADI13" s="3"/>
-      <c r="ADJ13" s="3"/>
-      <c r="ADK13" s="3"/>
-      <c r="ADL13" s="3"/>
-      <c r="ADM13" s="3"/>
-      <c r="ADN13" s="3"/>
-      <c r="ADO13" s="3"/>
-      <c r="ADP13" s="3"/>
-      <c r="ADQ13" s="3"/>
-      <c r="ADU13" s="3"/>
-    </row>
-    <row r="14" spans="2:801" s="2" customFormat="1">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f t="shared" ref="I14:I42" si="0">$B14&amp;".xls"</f>
-        <v>.xls</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="10" t="str">
-        <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
-        <v>.xls</v>
-      </c>
-      <c r="N14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="53"/>
-      <c r="XB14" s="3"/>
-      <c r="XC14" s="3"/>
-      <c r="XD14" s="3"/>
-      <c r="XE14" s="3"/>
-      <c r="XF14" s="3"/>
-      <c r="XG14" s="3"/>
-      <c r="XH14" s="3"/>
-      <c r="XI14" s="3"/>
-      <c r="XJ14" s="3"/>
-      <c r="XK14" s="3"/>
-      <c r="XL14" s="3"/>
-      <c r="XM14" s="3"/>
-      <c r="XN14" s="3"/>
-      <c r="XO14" s="3"/>
-      <c r="XP14" s="3"/>
-      <c r="XQ14" s="3"/>
-      <c r="XR14" s="3"/>
-      <c r="XS14" s="3"/>
-      <c r="XT14" s="3"/>
-      <c r="XU14" s="3"/>
-      <c r="XV14" s="3"/>
-      <c r="XW14" s="3"/>
-      <c r="XX14" s="3"/>
-      <c r="XY14" s="3"/>
-      <c r="XZ14" s="3"/>
-      <c r="YA14" s="3"/>
-      <c r="YB14" s="3"/>
-      <c r="YC14" s="3"/>
-      <c r="YD14" s="3"/>
-      <c r="YE14" s="3"/>
-      <c r="YF14" s="3"/>
-      <c r="YG14" s="3"/>
-      <c r="YH14" s="3"/>
-      <c r="YI14" s="3"/>
-      <c r="YJ14" s="3"/>
-      <c r="YK14" s="3"/>
-      <c r="YL14" s="3"/>
-      <c r="YM14" s="3"/>
-      <c r="YN14" s="3"/>
-      <c r="YO14" s="3"/>
-      <c r="YP14" s="3"/>
-      <c r="YQ14" s="3"/>
-      <c r="YR14" s="3"/>
-      <c r="YS14" s="3"/>
-      <c r="YT14" s="3"/>
-      <c r="YU14" s="3"/>
-      <c r="YV14" s="3"/>
-      <c r="YW14" s="3"/>
-      <c r="YX14" s="3"/>
-      <c r="YY14" s="3"/>
-      <c r="YZ14" s="3"/>
-      <c r="ZA14" s="3"/>
-      <c r="ZB14" s="3"/>
-      <c r="ZC14" s="3"/>
-      <c r="ZD14" s="3"/>
-      <c r="ZE14" s="3"/>
-      <c r="ZF14" s="3"/>
-      <c r="ZG14" s="3"/>
-      <c r="ZH14" s="3"/>
-      <c r="ZI14" s="3"/>
-      <c r="ZJ14" s="3"/>
-      <c r="ZK14" s="3"/>
-      <c r="ZL14" s="3"/>
-      <c r="ZM14" s="3"/>
-      <c r="ZN14" s="3"/>
-      <c r="ZO14" s="3"/>
-      <c r="ZP14" s="3"/>
-      <c r="ZR14" s="3"/>
-      <c r="ZS14" s="3"/>
-      <c r="ZT14" s="3"/>
-      <c r="ZU14" s="3"/>
-      <c r="ZV14" s="3"/>
-      <c r="ZW14" s="3"/>
-      <c r="ZX14" s="3"/>
-      <c r="ZY14" s="3"/>
-      <c r="ZZ14" s="3"/>
-      <c r="AAA14" s="3"/>
-      <c r="AAB14" s="3"/>
-      <c r="AAC14" s="3"/>
-      <c r="AAD14" s="3"/>
-      <c r="AAE14" s="3"/>
-      <c r="AAF14" s="3"/>
-      <c r="AAG14" s="3"/>
-      <c r="AAH14" s="3"/>
-      <c r="AAI14" s="3"/>
-      <c r="AAJ14" s="3"/>
-      <c r="AAK14" s="3"/>
-      <c r="AAL14" s="3"/>
-      <c r="AAM14" s="3"/>
-      <c r="AAN14" s="3"/>
-      <c r="AAO14" s="3"/>
-      <c r="AAP14" s="3"/>
-      <c r="AAQ14" s="3"/>
-      <c r="AAR14" s="3"/>
-      <c r="AAS14" s="3"/>
-      <c r="AAT14" s="3"/>
-      <c r="AAU14" s="3"/>
-      <c r="AAV14" s="3"/>
-      <c r="AAW14" s="3"/>
-      <c r="AAX14" s="3"/>
-      <c r="ABD14" s="3"/>
-      <c r="ABE14" s="3"/>
-      <c r="ABF14" s="3"/>
-      <c r="ABG14" s="3"/>
-      <c r="ABH14" s="3"/>
-      <c r="ABI14" s="3"/>
-      <c r="ABJ14" s="3"/>
-      <c r="ABK14" s="3"/>
-      <c r="ABL14" s="3"/>
-      <c r="ABM14" s="3"/>
-      <c r="ABN14" s="3"/>
-      <c r="ABO14" s="3"/>
-      <c r="ABP14" s="3"/>
-      <c r="ABQ14" s="3"/>
-      <c r="ABR14" s="3"/>
-      <c r="ABS14" s="3"/>
-      <c r="ABT14" s="3"/>
-      <c r="ABU14" s="3"/>
-      <c r="ABV14" s="3"/>
-      <c r="ABW14" s="3"/>
-      <c r="ABX14" s="3"/>
-      <c r="ABY14" s="3"/>
-      <c r="ABZ14" s="3"/>
-      <c r="ACA14" s="3"/>
-      <c r="ACB14" s="3"/>
-      <c r="ACC14" s="3"/>
-      <c r="ACD14" s="3"/>
-      <c r="ACE14" s="3"/>
-      <c r="ACF14" s="3"/>
-      <c r="ACG14" s="3"/>
-      <c r="ACH14" s="3"/>
-      <c r="ACI14" s="3"/>
-      <c r="ACJ14" s="3"/>
-      <c r="ACK14" s="3"/>
-      <c r="ACL14" s="3"/>
-      <c r="ACM14" s="3"/>
-      <c r="ACN14" s="3"/>
-      <c r="ACO14" s="3"/>
-      <c r="ACP14" s="3"/>
-      <c r="ACQ14" s="3"/>
-      <c r="ACR14" s="3"/>
-      <c r="ACS14" s="3"/>
-      <c r="ACT14" s="3"/>
-      <c r="ACU14" s="3"/>
-      <c r="ACV14" s="3"/>
-      <c r="ACW14" s="3"/>
-      <c r="ACX14" s="3"/>
-      <c r="ACY14" s="3"/>
-      <c r="ACZ14" s="3"/>
-      <c r="ADA14" s="3"/>
-      <c r="ADB14" s="3"/>
-      <c r="ADC14" s="3"/>
-      <c r="ADD14" s="3"/>
-      <c r="ADE14" s="3"/>
-      <c r="ADF14" s="3"/>
-      <c r="ADG14" s="3"/>
-      <c r="ADH14" s="3"/>
-      <c r="ADI14" s="3"/>
-      <c r="ADJ14" s="3"/>
-      <c r="ADK14" s="3"/>
-      <c r="ADL14" s="3"/>
-      <c r="ADM14" s="3"/>
-      <c r="ADN14" s="3"/>
-      <c r="ADO14" s="3"/>
-      <c r="ADP14" s="3"/>
-      <c r="ADQ14" s="3"/>
-      <c r="ADU14" s="3"/>
-    </row>
-    <row r="15" spans="2:801" s="2" customFormat="1">
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="53"/>
-      <c r="XB15" s="3"/>
-      <c r="XC15" s="3"/>
-      <c r="XD15" s="3"/>
-      <c r="XE15" s="3"/>
-      <c r="XF15" s="3"/>
-      <c r="XG15" s="3"/>
-      <c r="XH15" s="3"/>
-      <c r="XI15" s="3"/>
-      <c r="XJ15" s="3"/>
-      <c r="XK15" s="3"/>
-      <c r="XL15" s="3"/>
-      <c r="XM15" s="3"/>
-      <c r="XN15" s="3"/>
-      <c r="XO15" s="3"/>
-      <c r="XP15" s="3"/>
-      <c r="XQ15" s="3"/>
-      <c r="XR15" s="3"/>
-      <c r="XS15" s="3"/>
-      <c r="XT15" s="3"/>
-      <c r="XU15" s="3"/>
-      <c r="XV15" s="3"/>
-      <c r="XW15" s="3"/>
-      <c r="XX15" s="3"/>
-      <c r="XY15" s="3"/>
-      <c r="XZ15" s="3"/>
-      <c r="YA15" s="3"/>
-      <c r="YB15" s="3"/>
-      <c r="YC15" s="3"/>
-      <c r="YD15" s="3"/>
-      <c r="YE15" s="3"/>
-      <c r="YF15" s="3"/>
-      <c r="YG15" s="3"/>
-      <c r="YH15" s="3"/>
-      <c r="YI15" s="3"/>
-      <c r="YJ15" s="3"/>
-      <c r="YK15" s="3"/>
-      <c r="YL15" s="3"/>
-      <c r="YM15" s="3"/>
-      <c r="YN15" s="3"/>
-      <c r="YO15" s="3"/>
-      <c r="YP15" s="3"/>
-      <c r="YQ15" s="3"/>
-      <c r="YR15" s="3"/>
-      <c r="YS15" s="3"/>
-      <c r="YT15" s="3"/>
-      <c r="YU15" s="3"/>
-      <c r="YV15" s="3"/>
-      <c r="YW15" s="3"/>
-      <c r="YX15" s="3"/>
-      <c r="YY15" s="3"/>
-      <c r="YZ15" s="3"/>
-      <c r="ZA15" s="3"/>
-      <c r="ZB15" s="3"/>
-      <c r="ZC15" s="3"/>
-      <c r="ZD15" s="3"/>
-      <c r="ZE15" s="3"/>
-      <c r="ZF15" s="3"/>
-      <c r="ZG15" s="3"/>
-      <c r="ZH15" s="3"/>
-      <c r="ZI15" s="3"/>
-      <c r="ZJ15" s="3"/>
-      <c r="ZK15" s="3"/>
-      <c r="ZL15" s="3"/>
-      <c r="ZM15" s="3"/>
-      <c r="ZN15" s="3"/>
-      <c r="ZO15" s="3"/>
-      <c r="ZP15" s="3"/>
-      <c r="ZR15" s="3"/>
-      <c r="ZS15" s="3"/>
-      <c r="ZT15" s="3"/>
-      <c r="ZU15" s="3"/>
-      <c r="ZV15" s="3"/>
-      <c r="ZW15" s="3"/>
-      <c r="ZX15" s="3"/>
-      <c r="ZY15" s="3"/>
-      <c r="ZZ15" s="3"/>
-      <c r="AAA15" s="3"/>
-      <c r="AAB15" s="3"/>
-      <c r="AAC15" s="3"/>
-      <c r="AAD15" s="3"/>
-      <c r="AAE15" s="3"/>
-      <c r="AAF15" s="3"/>
-      <c r="AAG15" s="3"/>
-      <c r="AAH15" s="3"/>
-      <c r="AAI15" s="3"/>
-      <c r="AAJ15" s="3"/>
-      <c r="AAK15" s="3"/>
-      <c r="AAL15" s="3"/>
-      <c r="AAM15" s="3"/>
-      <c r="AAN15" s="3"/>
-      <c r="AAO15" s="3"/>
-      <c r="AAP15" s="3"/>
-      <c r="AAQ15" s="3"/>
-      <c r="AAR15" s="3"/>
-      <c r="AAS15" s="3"/>
-      <c r="AAT15" s="3"/>
-      <c r="AAU15" s="3"/>
-      <c r="AAV15" s="3"/>
-      <c r="AAW15" s="3"/>
-      <c r="AAX15" s="3"/>
-      <c r="ABD15" s="3"/>
-      <c r="ABE15" s="3"/>
-      <c r="ABF15" s="3"/>
-      <c r="ABG15" s="3"/>
-      <c r="ABH15" s="3"/>
-      <c r="ABI15" s="3"/>
-      <c r="ABJ15" s="3"/>
-      <c r="ABK15" s="3"/>
-      <c r="ABL15" s="3"/>
-      <c r="ABM15" s="3"/>
-      <c r="ABN15" s="3"/>
-      <c r="ABO15" s="3"/>
-      <c r="ABP15" s="3"/>
-      <c r="ABQ15" s="3"/>
-      <c r="ABR15" s="3"/>
-      <c r="ABS15" s="3"/>
-      <c r="ABT15" s="3"/>
-      <c r="ABU15" s="3"/>
-      <c r="ABV15" s="3"/>
-      <c r="ABW15" s="3"/>
-      <c r="ABX15" s="3"/>
-      <c r="ABY15" s="3"/>
-      <c r="ABZ15" s="3"/>
-      <c r="ACA15" s="3"/>
-      <c r="ACB15" s="3"/>
-      <c r="ACC15" s="3"/>
-      <c r="ACD15" s="3"/>
-      <c r="ACE15" s="3"/>
-      <c r="ACF15" s="3"/>
-      <c r="ACG15" s="3"/>
-      <c r="ACH15" s="3"/>
-      <c r="ACI15" s="3"/>
-      <c r="ACJ15" s="3"/>
-      <c r="ACK15" s="3"/>
-      <c r="ACL15" s="3"/>
-      <c r="ACM15" s="3"/>
-      <c r="ACN15" s="3"/>
-      <c r="ACO15" s="3"/>
-      <c r="ACP15" s="3"/>
-      <c r="ACQ15" s="3"/>
-      <c r="ACR15" s="3"/>
-      <c r="ACS15" s="3"/>
-      <c r="ACT15" s="3"/>
-      <c r="ACU15" s="3"/>
-      <c r="ACV15" s="3"/>
-      <c r="ACW15" s="3"/>
-      <c r="ACX15" s="3"/>
-      <c r="ACY15" s="3"/>
-      <c r="ACZ15" s="3"/>
-      <c r="ADA15" s="3"/>
-      <c r="ADB15" s="3"/>
-      <c r="ADC15" s="3"/>
-      <c r="ADD15" s="3"/>
-      <c r="ADE15" s="3"/>
-      <c r="ADF15" s="3"/>
-      <c r="ADG15" s="3"/>
-      <c r="ADH15" s="3"/>
-      <c r="ADI15" s="3"/>
-      <c r="ADJ15" s="3"/>
-      <c r="ADK15" s="3"/>
-      <c r="ADL15" s="3"/>
-      <c r="ADM15" s="3"/>
-      <c r="ADN15" s="3"/>
-      <c r="ADO15" s="3"/>
-      <c r="ADP15" s="3"/>
-      <c r="ADQ15" s="3"/>
-      <c r="ADU15" s="3"/>
-    </row>
-    <row r="16" spans="2:801" s="2" customFormat="1">
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="53"/>
-      <c r="XB16" s="3"/>
-      <c r="XC16" s="3"/>
-      <c r="XD16" s="3"/>
-      <c r="XE16" s="3"/>
-      <c r="XF16" s="3"/>
-      <c r="XG16" s="3"/>
-      <c r="XH16" s="3"/>
-      <c r="XI16" s="3"/>
-      <c r="XJ16" s="3"/>
-      <c r="XK16" s="3"/>
-      <c r="XL16" s="3"/>
-      <c r="XM16" s="3"/>
-      <c r="XN16" s="3"/>
-      <c r="XO16" s="3"/>
-      <c r="XP16" s="3"/>
-      <c r="XQ16" s="3"/>
-      <c r="XR16" s="3"/>
-      <c r="XS16" s="3"/>
-      <c r="XT16" s="3"/>
-      <c r="XU16" s="3"/>
-      <c r="XV16" s="3"/>
-      <c r="XW16" s="3"/>
-      <c r="XX16" s="3"/>
-      <c r="XY16" s="3"/>
-      <c r="XZ16" s="3"/>
-      <c r="YA16" s="3"/>
-      <c r="YB16" s="3"/>
-      <c r="YC16" s="3"/>
-      <c r="YD16" s="3"/>
-      <c r="YE16" s="3"/>
-      <c r="YF16" s="3"/>
-      <c r="YG16" s="3"/>
-      <c r="YH16" s="3"/>
-      <c r="YI16" s="3"/>
-      <c r="YJ16" s="3"/>
-      <c r="YK16" s="3"/>
-      <c r="YL16" s="3"/>
-      <c r="YM16" s="3"/>
-      <c r="YN16" s="3"/>
-      <c r="YO16" s="3"/>
-      <c r="YP16" s="3"/>
-      <c r="YQ16" s="3"/>
-      <c r="YR16" s="3"/>
-      <c r="YS16" s="3"/>
-      <c r="YT16" s="3"/>
-      <c r="YU16" s="3"/>
-      <c r="YV16" s="3"/>
-      <c r="YW16" s="3"/>
-      <c r="YX16" s="3"/>
-      <c r="YY16" s="3"/>
-      <c r="YZ16" s="3"/>
-      <c r="ZA16" s="3"/>
-      <c r="ZB16" s="3"/>
-      <c r="ZC16" s="3"/>
-      <c r="ZD16" s="3"/>
-      <c r="ZE16" s="3"/>
-      <c r="ZF16" s="3"/>
-      <c r="ZG16" s="3"/>
-      <c r="ZH16" s="3"/>
-      <c r="ZI16" s="3"/>
-      <c r="ZJ16" s="3"/>
-      <c r="ZK16" s="3"/>
-      <c r="ZL16" s="3"/>
-      <c r="ZM16" s="3"/>
-      <c r="ZN16" s="3"/>
-      <c r="ZO16" s="3"/>
-      <c r="ZP16" s="3"/>
-      <c r="ZR16" s="3"/>
-      <c r="ZS16" s="3"/>
-      <c r="ZT16" s="3"/>
-      <c r="ZU16" s="3"/>
-      <c r="ZV16" s="3"/>
-      <c r="ZW16" s="3"/>
-      <c r="ZX16" s="3"/>
-      <c r="ZY16" s="3"/>
-      <c r="ZZ16" s="3"/>
-      <c r="AAA16" s="3"/>
-      <c r="AAB16" s="3"/>
-      <c r="AAC16" s="3"/>
-      <c r="AAD16" s="3"/>
-      <c r="AAE16" s="3"/>
-      <c r="AAF16" s="3"/>
-      <c r="AAG16" s="3"/>
-      <c r="AAH16" s="3"/>
-      <c r="AAI16" s="3"/>
-      <c r="AAJ16" s="3"/>
-      <c r="AAK16" s="3"/>
-      <c r="AAL16" s="3"/>
-      <c r="AAM16" s="3"/>
-      <c r="AAN16" s="3"/>
-      <c r="AAO16" s="3"/>
-      <c r="AAP16" s="3"/>
-      <c r="AAQ16" s="3"/>
-      <c r="AAR16" s="3"/>
-      <c r="AAS16" s="3"/>
-      <c r="AAT16" s="3"/>
-      <c r="AAU16" s="3"/>
-      <c r="AAV16" s="3"/>
-      <c r="AAW16" s="3"/>
-      <c r="AAX16" s="3"/>
-      <c r="ABD16" s="3"/>
-      <c r="ABE16" s="3"/>
-      <c r="ABF16" s="3"/>
-      <c r="ABG16" s="3"/>
-      <c r="ABH16" s="3"/>
-      <c r="ABI16" s="3"/>
-      <c r="ABJ16" s="3"/>
-      <c r="ABK16" s="3"/>
-      <c r="ABL16" s="3"/>
-      <c r="ABM16" s="3"/>
-      <c r="ABN16" s="3"/>
-      <c r="ABO16" s="3"/>
-      <c r="ABP16" s="3"/>
-      <c r="ABQ16" s="3"/>
-      <c r="ABR16" s="3"/>
-      <c r="ABS16" s="3"/>
-      <c r="ABT16" s="3"/>
-      <c r="ABU16" s="3"/>
-      <c r="ABV16" s="3"/>
-      <c r="ABW16" s="3"/>
-      <c r="ABX16" s="3"/>
-      <c r="ABY16" s="3"/>
-      <c r="ABZ16" s="3"/>
-      <c r="ACA16" s="3"/>
-      <c r="ACB16" s="3"/>
-      <c r="ACC16" s="3"/>
-      <c r="ACD16" s="3"/>
-      <c r="ACE16" s="3"/>
-      <c r="ACF16" s="3"/>
-      <c r="ACG16" s="3"/>
-      <c r="ACH16" s="3"/>
-      <c r="ACI16" s="3"/>
-      <c r="ACJ16" s="3"/>
-      <c r="ACK16" s="3"/>
-      <c r="ACL16" s="3"/>
-      <c r="ACM16" s="3"/>
-      <c r="ACN16" s="3"/>
-      <c r="ACO16" s="3"/>
-      <c r="ACP16" s="3"/>
-      <c r="ACQ16" s="3"/>
-      <c r="ACR16" s="3"/>
-      <c r="ACS16" s="3"/>
-      <c r="ACT16" s="3"/>
-      <c r="ACU16" s="3"/>
-      <c r="ACV16" s="3"/>
-      <c r="ACW16" s="3"/>
-      <c r="ACX16" s="3"/>
-      <c r="ACY16" s="3"/>
-      <c r="ACZ16" s="3"/>
-      <c r="ADA16" s="3"/>
-      <c r="ADB16" s="3"/>
-      <c r="ADC16" s="3"/>
-      <c r="ADD16" s="3"/>
-      <c r="ADE16" s="3"/>
-      <c r="ADF16" s="3"/>
-      <c r="ADG16" s="3"/>
-      <c r="ADH16" s="3"/>
-      <c r="ADI16" s="3"/>
-      <c r="ADJ16" s="3"/>
-      <c r="ADK16" s="3"/>
-      <c r="ADL16" s="3"/>
-      <c r="ADM16" s="3"/>
-      <c r="ADN16" s="3"/>
-      <c r="ADO16" s="3"/>
-      <c r="ADP16" s="3"/>
-      <c r="ADQ16" s="3"/>
-      <c r="ADU16" s="3"/>
-    </row>
-    <row r="17" spans="1:801" s="2" customFormat="1">
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="53"/>
-      <c r="XB17" s="3"/>
-      <c r="XC17" s="3"/>
-      <c r="XD17" s="3"/>
-      <c r="XE17" s="3"/>
-      <c r="XF17" s="3"/>
-      <c r="XG17" s="3"/>
-      <c r="XH17" s="3"/>
-      <c r="XI17" s="3"/>
-      <c r="XJ17" s="3"/>
-      <c r="XK17" s="3"/>
-      <c r="XL17" s="3"/>
-      <c r="XM17" s="3"/>
-      <c r="XN17" s="3"/>
-      <c r="XO17" s="3"/>
-      <c r="XP17" s="3"/>
-      <c r="XQ17" s="3"/>
-      <c r="XR17" s="3"/>
-      <c r="XS17" s="3"/>
-      <c r="XT17" s="3"/>
-      <c r="XU17" s="3"/>
-      <c r="XV17" s="3"/>
-      <c r="XW17" s="3"/>
-      <c r="XX17" s="3"/>
-      <c r="XY17" s="3"/>
-      <c r="XZ17" s="3"/>
-      <c r="YA17" s="3"/>
-      <c r="YB17" s="3"/>
-      <c r="YC17" s="3"/>
-      <c r="YD17" s="3"/>
-      <c r="YE17" s="3"/>
-      <c r="YF17" s="3"/>
-      <c r="YG17" s="3"/>
-      <c r="YH17" s="3"/>
-      <c r="YI17" s="3"/>
-      <c r="YJ17" s="3"/>
-      <c r="YK17" s="3"/>
-      <c r="YL17" s="3"/>
-      <c r="YM17" s="3"/>
-      <c r="YN17" s="3"/>
-      <c r="YO17" s="3"/>
-      <c r="YP17" s="3"/>
-      <c r="YQ17" s="3"/>
-      <c r="YR17" s="3"/>
-      <c r="YS17" s="3"/>
-      <c r="YT17" s="3"/>
-      <c r="YU17" s="3"/>
-      <c r="YV17" s="3"/>
-      <c r="YW17" s="3"/>
-      <c r="YX17" s="3"/>
-      <c r="YY17" s="3"/>
-      <c r="YZ17" s="3"/>
-      <c r="ZA17" s="3"/>
-      <c r="ZB17" s="3"/>
-      <c r="ZC17" s="3"/>
-      <c r="ZD17" s="3"/>
-      <c r="ZE17" s="3"/>
-      <c r="ZF17" s="3"/>
-      <c r="ZG17" s="3"/>
-      <c r="ZH17" s="3"/>
-      <c r="ZI17" s="3"/>
-      <c r="ZJ17" s="3"/>
-      <c r="ZK17" s="3"/>
-      <c r="ZL17" s="3"/>
-      <c r="ZM17" s="3"/>
-      <c r="ZN17" s="3"/>
-      <c r="ZO17" s="3"/>
-      <c r="ZP17" s="3"/>
-      <c r="ZR17" s="3"/>
-      <c r="ZS17" s="3"/>
-      <c r="ZT17" s="3"/>
-      <c r="ZU17" s="3"/>
-      <c r="ZV17" s="3"/>
-      <c r="ZW17" s="3"/>
-      <c r="ZX17" s="3"/>
-      <c r="ZY17" s="3"/>
-      <c r="ZZ17" s="3"/>
-      <c r="AAA17" s="3"/>
-      <c r="AAB17" s="3"/>
-      <c r="AAC17" s="3"/>
-      <c r="AAD17" s="3"/>
-      <c r="AAE17" s="3"/>
-      <c r="AAF17" s="3"/>
-      <c r="AAG17" s="3"/>
-      <c r="AAH17" s="3"/>
-      <c r="AAI17" s="3"/>
-      <c r="AAJ17" s="3"/>
-      <c r="AAK17" s="3"/>
-      <c r="AAL17" s="3"/>
-      <c r="AAM17" s="3"/>
-      <c r="AAN17" s="3"/>
-      <c r="AAO17" s="3"/>
-      <c r="AAP17" s="3"/>
-      <c r="AAQ17" s="3"/>
-      <c r="AAR17" s="3"/>
-      <c r="AAS17" s="3"/>
-      <c r="AAT17" s="3"/>
-      <c r="AAU17" s="3"/>
-      <c r="AAV17" s="3"/>
-      <c r="AAW17" s="3"/>
-      <c r="AAX17" s="3"/>
-      <c r="ABD17" s="3"/>
-      <c r="ABE17" s="3"/>
-      <c r="ABF17" s="3"/>
-      <c r="ABG17" s="3"/>
-      <c r="ABH17" s="3"/>
-      <c r="ABI17" s="3"/>
-      <c r="ABJ17" s="3"/>
-      <c r="ABK17" s="3"/>
-      <c r="ABL17" s="3"/>
-      <c r="ABM17" s="3"/>
-      <c r="ABN17" s="3"/>
-      <c r="ABO17" s="3"/>
-      <c r="ABP17" s="3"/>
-      <c r="ABQ17" s="3"/>
-      <c r="ABR17" s="3"/>
-      <c r="ABS17" s="3"/>
-      <c r="ABT17" s="3"/>
-      <c r="ABU17" s="3"/>
-      <c r="ABV17" s="3"/>
-      <c r="ABW17" s="3"/>
-      <c r="ABX17" s="3"/>
-      <c r="ABY17" s="3"/>
-      <c r="ABZ17" s="3"/>
-      <c r="ACA17" s="3"/>
-      <c r="ACB17" s="3"/>
-      <c r="ACC17" s="3"/>
-      <c r="ACD17" s="3"/>
-      <c r="ACE17" s="3"/>
-      <c r="ACF17" s="3"/>
-      <c r="ACG17" s="3"/>
-      <c r="ACH17" s="3"/>
-      <c r="ACI17" s="3"/>
-      <c r="ACJ17" s="3"/>
-      <c r="ACK17" s="3"/>
-      <c r="ACL17" s="3"/>
-      <c r="ACM17" s="3"/>
-      <c r="ACN17" s="3"/>
-      <c r="ACO17" s="3"/>
-      <c r="ACP17" s="3"/>
-      <c r="ACQ17" s="3"/>
-      <c r="ACR17" s="3"/>
-      <c r="ACS17" s="3"/>
-      <c r="ACT17" s="3"/>
-      <c r="ACU17" s="3"/>
-      <c r="ACV17" s="3"/>
-      <c r="ACW17" s="3"/>
-      <c r="ACX17" s="3"/>
-      <c r="ACY17" s="3"/>
-      <c r="ACZ17" s="3"/>
-      <c r="ADA17" s="3"/>
-      <c r="ADB17" s="3"/>
-      <c r="ADC17" s="3"/>
-      <c r="ADD17" s="3"/>
-      <c r="ADE17" s="3"/>
-      <c r="ADF17" s="3"/>
-      <c r="ADG17" s="3"/>
-      <c r="ADH17" s="3"/>
-      <c r="ADI17" s="3"/>
-      <c r="ADJ17" s="3"/>
-      <c r="ADK17" s="3"/>
-      <c r="ADL17" s="3"/>
-      <c r="ADM17" s="3"/>
-      <c r="ADN17" s="3"/>
-      <c r="ADO17" s="3"/>
-      <c r="ADP17" s="3"/>
-      <c r="ADQ17" s="3"/>
-      <c r="ADU17" s="3"/>
-    </row>
-    <row r="18" spans="1:801" s="8" customFormat="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="45"/>
-      <c r="XB18" s="12"/>
-      <c r="XC18" s="12"/>
-      <c r="XD18" s="12"/>
-      <c r="XE18" s="12"/>
-      <c r="XF18" s="12"/>
-      <c r="XG18" s="12"/>
-      <c r="XH18" s="12"/>
-      <c r="XI18" s="12"/>
-      <c r="XJ18" s="12"/>
-      <c r="XK18" s="12"/>
-      <c r="XL18" s="12"/>
-      <c r="XM18" s="12"/>
-      <c r="XN18" s="12"/>
-      <c r="XO18" s="12"/>
-      <c r="XP18" s="12"/>
-      <c r="XQ18" s="12"/>
-      <c r="XR18" s="12"/>
-      <c r="XS18" s="12"/>
-      <c r="XT18" s="12"/>
-      <c r="XU18" s="12"/>
-      <c r="XV18" s="12"/>
-      <c r="XW18" s="12"/>
-      <c r="XX18" s="12"/>
-      <c r="XY18" s="12"/>
-      <c r="XZ18" s="12"/>
-      <c r="YA18" s="12"/>
-      <c r="YB18" s="12"/>
-      <c r="YC18" s="12"/>
-      <c r="YD18" s="12"/>
-      <c r="YE18" s="12"/>
-      <c r="YF18" s="12"/>
-      <c r="YG18" s="12"/>
-      <c r="YH18" s="12"/>
-      <c r="YI18" s="12"/>
-      <c r="YJ18" s="12"/>
-      <c r="YK18" s="12"/>
-      <c r="YL18" s="12"/>
-      <c r="YM18" s="12"/>
-      <c r="YN18" s="12"/>
-      <c r="YO18" s="12"/>
-      <c r="YP18" s="12"/>
-      <c r="YQ18" s="12"/>
-      <c r="YR18" s="12"/>
-      <c r="YS18" s="12"/>
-      <c r="YT18" s="12"/>
-      <c r="YU18" s="12"/>
-      <c r="YV18" s="12"/>
-      <c r="YW18" s="12"/>
-      <c r="YX18" s="12"/>
-      <c r="YY18" s="12"/>
-      <c r="YZ18" s="12"/>
-      <c r="ZA18" s="12"/>
-      <c r="ZB18" s="12"/>
-      <c r="ZC18" s="12"/>
-      <c r="ZD18" s="12"/>
-      <c r="ZE18" s="12"/>
-      <c r="ZF18" s="12"/>
-      <c r="ZG18" s="12"/>
-      <c r="ZH18" s="12"/>
-      <c r="ZI18" s="12"/>
-      <c r="ZJ18" s="12"/>
-      <c r="ZK18" s="12"/>
-      <c r="ZL18" s="12"/>
-      <c r="ZM18" s="12"/>
-      <c r="ZN18" s="12"/>
-      <c r="ZO18" s="12"/>
-      <c r="ZP18" s="12"/>
-      <c r="ZR18" s="12"/>
-      <c r="ZS18" s="12"/>
-      <c r="ZT18" s="12"/>
-      <c r="ZU18" s="12"/>
-      <c r="ZV18" s="12"/>
-      <c r="ZW18" s="12"/>
-      <c r="ZX18" s="12"/>
-      <c r="ZY18" s="12"/>
-      <c r="ZZ18" s="12"/>
-      <c r="AAA18" s="12"/>
-      <c r="AAB18" s="12"/>
-      <c r="AAC18" s="12"/>
-      <c r="AAD18" s="12"/>
-      <c r="AAE18" s="12"/>
-      <c r="AAF18" s="12"/>
-      <c r="AAG18" s="12"/>
-      <c r="AAH18" s="12"/>
-      <c r="AAI18" s="12"/>
-      <c r="AAJ18" s="12"/>
-      <c r="AAK18" s="12"/>
-      <c r="AAL18" s="12"/>
-      <c r="AAM18" s="12"/>
-      <c r="AAN18" s="12"/>
-      <c r="AAO18" s="12"/>
-      <c r="AAP18" s="12"/>
-      <c r="AAQ18" s="12"/>
-      <c r="AAR18" s="12"/>
-      <c r="AAS18" s="12"/>
-      <c r="AAT18" s="12"/>
-      <c r="AAU18" s="12"/>
-      <c r="AAV18" s="12"/>
-      <c r="AAW18" s="12"/>
-      <c r="AAX18" s="12"/>
-      <c r="ABD18" s="12"/>
-      <c r="ABE18" s="12"/>
-      <c r="ABF18" s="12"/>
-      <c r="ABG18" s="12"/>
-      <c r="ABH18" s="12"/>
-      <c r="ABI18" s="12"/>
-      <c r="ABJ18" s="12"/>
-      <c r="ABK18" s="12"/>
-      <c r="ABL18" s="12"/>
-      <c r="ABM18" s="12"/>
-      <c r="ABN18" s="12"/>
-      <c r="ABO18" s="12"/>
-      <c r="ABP18" s="12"/>
-      <c r="ABQ18" s="12"/>
-      <c r="ABR18" s="12"/>
-      <c r="ABS18" s="12"/>
-      <c r="ABT18" s="12"/>
-      <c r="ABU18" s="12"/>
-      <c r="ABV18" s="12"/>
-      <c r="ABW18" s="12"/>
-      <c r="ABX18" s="12"/>
-      <c r="ABY18" s="12"/>
-      <c r="ABZ18" s="12"/>
-      <c r="ACA18" s="12"/>
-      <c r="ACB18" s="12"/>
-      <c r="ACC18" s="12"/>
-      <c r="ACD18" s="12"/>
-      <c r="ACE18" s="12"/>
-      <c r="ACF18" s="12"/>
-      <c r="ACG18" s="12"/>
-      <c r="ACH18" s="12"/>
-      <c r="ACI18" s="12"/>
-      <c r="ACJ18" s="12"/>
-      <c r="ACK18" s="12"/>
-      <c r="ACL18" s="12"/>
-      <c r="ACM18" s="12"/>
-      <c r="ACN18" s="12"/>
-      <c r="ACO18" s="12"/>
-      <c r="ACP18" s="12"/>
-      <c r="ACQ18" s="12"/>
-      <c r="ACR18" s="12"/>
-      <c r="ACS18" s="12"/>
-      <c r="ACT18" s="12"/>
-      <c r="ACU18" s="12"/>
-      <c r="ACV18" s="12"/>
-      <c r="ACW18" s="12"/>
-      <c r="ACX18" s="12"/>
-      <c r="ACY18" s="12"/>
-      <c r="ACZ18" s="12"/>
-      <c r="ADA18" s="12"/>
-      <c r="ADB18" s="12"/>
-      <c r="ADC18" s="12"/>
-      <c r="ADD18" s="12"/>
-      <c r="ADE18" s="12"/>
-      <c r="ADF18" s="12"/>
-      <c r="ADG18" s="12"/>
-      <c r="ADH18" s="12"/>
-      <c r="ADI18" s="12"/>
-      <c r="ADJ18" s="12"/>
-      <c r="ADK18" s="12"/>
-      <c r="ADL18" s="12"/>
-      <c r="ADM18" s="12"/>
-      <c r="ADN18" s="12"/>
-      <c r="ADO18" s="12"/>
-      <c r="ADP18" s="12"/>
-      <c r="ADQ18" s="12"/>
-      <c r="ADU18" s="12"/>
-    </row>
-    <row r="19" spans="1:801" s="8" customFormat="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="45"/>
-      <c r="XB19" s="12"/>
-      <c r="XC19" s="12"/>
-      <c r="XD19" s="12"/>
-      <c r="XE19" s="12"/>
-      <c r="XF19" s="12"/>
-      <c r="XG19" s="12"/>
-      <c r="XH19" s="12"/>
-      <c r="XI19" s="12"/>
-      <c r="XJ19" s="12"/>
-      <c r="XK19" s="12"/>
-      <c r="XL19" s="12"/>
-      <c r="XM19" s="12"/>
-      <c r="XN19" s="12"/>
-      <c r="XO19" s="12"/>
-      <c r="XP19" s="12"/>
-      <c r="XQ19" s="12"/>
-      <c r="XR19" s="12"/>
-      <c r="XS19" s="12"/>
-      <c r="XT19" s="12"/>
-      <c r="XU19" s="12"/>
-      <c r="XV19" s="12"/>
-      <c r="XW19" s="12"/>
-      <c r="XX19" s="12"/>
-      <c r="XY19" s="12"/>
-      <c r="XZ19" s="12"/>
-      <c r="YA19" s="12"/>
-      <c r="YB19" s="12"/>
-      <c r="YC19" s="12"/>
-      <c r="YD19" s="12"/>
-      <c r="YE19" s="12"/>
-      <c r="YF19" s="12"/>
-      <c r="YG19" s="12"/>
-      <c r="YH19" s="12"/>
-      <c r="YI19" s="12"/>
-      <c r="YJ19" s="12"/>
-      <c r="YK19" s="12"/>
-      <c r="YL19" s="12"/>
-      <c r="YM19" s="12"/>
-      <c r="YN19" s="12"/>
-      <c r="YO19" s="12"/>
-      <c r="YP19" s="12"/>
-      <c r="YQ19" s="12"/>
-      <c r="YR19" s="12"/>
-      <c r="YS19" s="12"/>
-      <c r="YT19" s="12"/>
-      <c r="YU19" s="12"/>
-      <c r="YV19" s="12"/>
-      <c r="YW19" s="12"/>
-      <c r="YX19" s="12"/>
-      <c r="YY19" s="12"/>
-      <c r="YZ19" s="12"/>
-      <c r="ZA19" s="12"/>
-      <c r="ZB19" s="12"/>
-      <c r="ZC19" s="12"/>
-      <c r="ZD19" s="12"/>
-      <c r="ZE19" s="12"/>
-      <c r="ZF19" s="12"/>
-      <c r="ZG19" s="12"/>
-      <c r="ZH19" s="12"/>
-      <c r="ZI19" s="12"/>
-      <c r="ZJ19" s="12"/>
-      <c r="ZK19" s="12"/>
-      <c r="ZL19" s="12"/>
-      <c r="ZM19" s="12"/>
-      <c r="ZN19" s="12"/>
-      <c r="ZO19" s="12"/>
-      <c r="ZP19" s="12"/>
-      <c r="ZR19" s="12"/>
-      <c r="ZS19" s="12"/>
-      <c r="ZT19" s="12"/>
-      <c r="ZU19" s="12"/>
-      <c r="ZV19" s="12"/>
-      <c r="ZW19" s="12"/>
-      <c r="ZX19" s="12"/>
-      <c r="ZY19" s="12"/>
-      <c r="ZZ19" s="12"/>
-      <c r="AAA19" s="12"/>
-      <c r="AAB19" s="12"/>
-      <c r="AAC19" s="12"/>
-      <c r="AAD19" s="12"/>
-      <c r="AAE19" s="12"/>
-      <c r="AAF19" s="12"/>
-      <c r="AAG19" s="12"/>
-      <c r="AAH19" s="12"/>
-      <c r="AAI19" s="12"/>
-      <c r="AAJ19" s="12"/>
-      <c r="AAK19" s="12"/>
-      <c r="AAL19" s="12"/>
-      <c r="AAM19" s="12"/>
-      <c r="AAN19" s="12"/>
-      <c r="AAO19" s="12"/>
-      <c r="AAP19" s="12"/>
-      <c r="AAQ19" s="12"/>
-      <c r="AAR19" s="12"/>
-      <c r="AAS19" s="12"/>
-      <c r="AAT19" s="12"/>
-      <c r="AAU19" s="12"/>
-      <c r="AAV19" s="12"/>
-      <c r="AAW19" s="12"/>
-      <c r="AAX19" s="12"/>
-      <c r="ABD19" s="12"/>
-      <c r="ABE19" s="12"/>
-      <c r="ABF19" s="12"/>
-      <c r="ABG19" s="12"/>
-      <c r="ABH19" s="12"/>
-      <c r="ABI19" s="12"/>
-      <c r="ABJ19" s="12"/>
-      <c r="ABK19" s="12"/>
-      <c r="ABL19" s="12"/>
-      <c r="ABM19" s="12"/>
-      <c r="ABN19" s="12"/>
-      <c r="ABO19" s="12"/>
-      <c r="ABP19" s="12"/>
-      <c r="ABQ19" s="12"/>
-      <c r="ABR19" s="12"/>
-      <c r="ABS19" s="12"/>
-      <c r="ABT19" s="12"/>
-      <c r="ABU19" s="12"/>
-      <c r="ABV19" s="12"/>
-      <c r="ABW19" s="12"/>
-      <c r="ABX19" s="12"/>
-      <c r="ABY19" s="12"/>
-      <c r="ABZ19" s="12"/>
-      <c r="ACA19" s="12"/>
-      <c r="ACB19" s="12"/>
-      <c r="ACC19" s="12"/>
-      <c r="ACD19" s="12"/>
-      <c r="ACE19" s="12"/>
-      <c r="ACF19" s="12"/>
-      <c r="ACG19" s="12"/>
-      <c r="ACH19" s="12"/>
-      <c r="ACI19" s="12"/>
-      <c r="ACJ19" s="12"/>
-      <c r="ACK19" s="12"/>
-      <c r="ACL19" s="12"/>
-      <c r="ACM19" s="12"/>
-      <c r="ACN19" s="12"/>
-      <c r="ACO19" s="12"/>
-      <c r="ACP19" s="12"/>
-      <c r="ACQ19" s="12"/>
-      <c r="ACR19" s="12"/>
-      <c r="ACS19" s="12"/>
-      <c r="ACT19" s="12"/>
-      <c r="ACU19" s="12"/>
-      <c r="ACV19" s="12"/>
-      <c r="ACW19" s="12"/>
-      <c r="ACX19" s="12"/>
-      <c r="ACY19" s="12"/>
-      <c r="ACZ19" s="12"/>
-      <c r="ADA19" s="12"/>
-      <c r="ADB19" s="12"/>
-      <c r="ADC19" s="12"/>
-      <c r="ADD19" s="12"/>
-      <c r="ADE19" s="12"/>
-      <c r="ADF19" s="12"/>
-      <c r="ADG19" s="12"/>
-      <c r="ADH19" s="12"/>
-      <c r="ADI19" s="12"/>
-      <c r="ADJ19" s="12"/>
-      <c r="ADK19" s="12"/>
-      <c r="ADL19" s="12"/>
-      <c r="ADM19" s="12"/>
-      <c r="ADN19" s="12"/>
-      <c r="ADO19" s="12"/>
-      <c r="ADP19" s="12"/>
-      <c r="ADQ19" s="12"/>
-      <c r="ADU19" s="12"/>
-    </row>
-    <row r="20" spans="1:801">
-      <c r="A20" s="14"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="58"/>
-      <c r="M20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="62"/>
-    </row>
-    <row r="21" spans="1:801">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="62"/>
-    </row>
-    <row r="22" spans="1:801">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="62"/>
-    </row>
-    <row r="23" spans="1:801">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="62"/>
-    </row>
-    <row r="24" spans="1:801">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="62"/>
-    </row>
-    <row r="25" spans="1:801">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="62"/>
-    </row>
-    <row r="26" spans="1:801">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="62"/>
-    </row>
-    <row r="27" spans="1:801">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="62"/>
-    </row>
-    <row r="28" spans="1:801">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="62"/>
-    </row>
-    <row r="29" spans="1:801">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="N29" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="62"/>
-    </row>
-    <row r="30" spans="1:801">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="58"/>
-      <c r="M30" s="10" t="str">
-        <f t="shared" ref="M30:N42" si="2">$B30&amp;".xls"</f>
-        <v>.xls</v>
-      </c>
-      <c r="N30" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="62"/>
-    </row>
-    <row r="31" spans="1:801">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L31" s="58"/>
-      <c r="M31" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N31" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="62"/>
-    </row>
-    <row r="32" spans="1:801">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N32" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="62"/>
-    </row>
-    <row r="33" spans="2:801">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="58"/>
-      <c r="M33" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N33" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="62"/>
-    </row>
-    <row r="34" spans="2:801">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" s="58"/>
-      <c r="M34" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N34" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="62"/>
-    </row>
-    <row r="35" spans="2:801">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N35" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="62"/>
-    </row>
-    <row r="36" spans="2:801">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="58"/>
-      <c r="M36" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N36" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="62"/>
-    </row>
-    <row r="37" spans="2:801">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N37" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="62"/>
-    </row>
-    <row r="38" spans="2:801">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L38" s="58"/>
-      <c r="M38" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N38" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="62"/>
-    </row>
-    <row r="39" spans="2:801">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L39" s="58"/>
-      <c r="M39" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N39" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="62"/>
-    </row>
-    <row r="40" spans="2:801">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L40" s="58"/>
-      <c r="M40" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N40" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="62"/>
-    </row>
-    <row r="41" spans="2:801">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L41" s="58"/>
-      <c r="M41" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N41" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="62"/>
-    </row>
-    <row r="42" spans="2:801">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>.xls</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L42" s="58"/>
-      <c r="M42" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="N42" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="61"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="62"/>
-    </row>
-    <row r="43" spans="2:801">
-      <c r="G43" s="66"/>
-    </row>
-    <row r="44" spans="2:801">
-      <c r="D44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="WA44" s="14"/>
-      <c r="WB44" s="14"/>
-      <c r="WC44" s="14"/>
-      <c r="WD44" s="14"/>
-      <c r="WE44" s="14"/>
-      <c r="WF44" s="14"/>
-      <c r="WG44" s="14"/>
-      <c r="WH44" s="14"/>
-      <c r="WI44" s="14"/>
-      <c r="WJ44" s="14"/>
-      <c r="WK44" s="14"/>
-      <c r="WL44" s="14"/>
-      <c r="WM44" s="14"/>
-      <c r="WN44" s="14"/>
-      <c r="WO44" s="14"/>
-      <c r="WP44" s="14"/>
-      <c r="WQ44" s="14"/>
-      <c r="WR44" s="14"/>
-      <c r="WS44" s="14"/>
-      <c r="WT44" s="14"/>
-      <c r="WU44" s="14"/>
-      <c r="WV44" s="14"/>
-      <c r="WW44" s="14"/>
-      <c r="WX44" s="14"/>
-      <c r="WY44" s="14"/>
-      <c r="WZ44" s="14"/>
-      <c r="XA44" s="14"/>
-      <c r="YP44" s="13"/>
-      <c r="ZQ44" s="14"/>
-      <c r="ZX44" s="13"/>
-      <c r="ZY44" s="13"/>
-      <c r="ZZ44" s="13"/>
-      <c r="AAA44" s="13"/>
-      <c r="AAB44" s="13"/>
-      <c r="AAY44" s="14"/>
-      <c r="AAZ44" s="14"/>
-      <c r="ABA44" s="14"/>
-      <c r="ABB44" s="14"/>
-      <c r="ABC44" s="14"/>
-      <c r="ACQ44" s="13"/>
-      <c r="ACR44" s="13"/>
-      <c r="ACS44" s="13"/>
-      <c r="ACU44" s="13"/>
-      <c r="ACV44" s="13"/>
-      <c r="ACW44" s="13"/>
-      <c r="ACX44" s="13"/>
-      <c r="ACY44" s="13"/>
-      <c r="ACZ44" s="13"/>
-      <c r="ADA44" s="13"/>
-      <c r="ADB44" s="13"/>
-      <c r="ADC44" s="13"/>
-      <c r="ADD44" s="13"/>
-      <c r="ADE44" s="13"/>
-      <c r="ADF44" s="13"/>
-      <c r="ADG44" s="13"/>
-      <c r="ADH44" s="13"/>
-      <c r="ADI44" s="13"/>
-      <c r="ADJ44" s="13"/>
-      <c r="ADK44" s="13"/>
-      <c r="ADL44" s="13"/>
-      <c r="ADM44" s="13"/>
-      <c r="ADN44" s="13"/>
-      <c r="ADO44" s="13"/>
-      <c r="ADP44" s="13"/>
-      <c r="ADQ44" s="13"/>
-      <c r="ADU44" s="13"/>
-    </row>
-    <row r="45" spans="2:801">
-      <c r="D45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="WA45" s="14"/>
-      <c r="WB45" s="14"/>
-      <c r="WC45" s="14"/>
-      <c r="WD45" s="14"/>
-      <c r="WE45" s="14"/>
-      <c r="WF45" s="14"/>
-      <c r="WG45" s="14"/>
-      <c r="WH45" s="14"/>
-      <c r="WI45" s="14"/>
-      <c r="WJ45" s="14"/>
-      <c r="WK45" s="14"/>
-      <c r="WL45" s="14"/>
-      <c r="WM45" s="14"/>
-      <c r="WN45" s="14"/>
-      <c r="WO45" s="14"/>
-      <c r="WP45" s="14"/>
-      <c r="WQ45" s="14"/>
-      <c r="WR45" s="14"/>
-      <c r="WS45" s="14"/>
-      <c r="WT45" s="14"/>
-      <c r="WU45" s="14"/>
-      <c r="WV45" s="14"/>
-      <c r="WW45" s="14"/>
-      <c r="WX45" s="14"/>
-      <c r="WY45" s="14"/>
-      <c r="WZ45" s="14"/>
-      <c r="XA45" s="14"/>
-      <c r="YP45" s="13"/>
-      <c r="ZQ45" s="14"/>
-      <c r="ZX45" s="13"/>
-      <c r="ZY45" s="13"/>
-      <c r="ZZ45" s="13"/>
-      <c r="AAA45" s="13"/>
-      <c r="AAB45" s="13"/>
-      <c r="AAY45" s="14"/>
-      <c r="AAZ45" s="14"/>
-      <c r="ABA45" s="14"/>
-      <c r="ABB45" s="14"/>
-      <c r="ABC45" s="14"/>
-      <c r="ACQ45" s="13"/>
-      <c r="ACR45" s="13"/>
-      <c r="ACS45" s="13"/>
-      <c r="ACU45" s="13"/>
-      <c r="ACV45" s="13"/>
-      <c r="ACW45" s="13"/>
-      <c r="ACX45" s="13"/>
-      <c r="ACY45" s="13"/>
-      <c r="ACZ45" s="13"/>
-      <c r="ADA45" s="13"/>
-      <c r="ADB45" s="13"/>
-      <c r="ADC45" s="13"/>
-      <c r="ADD45" s="13"/>
-      <c r="ADE45" s="13"/>
-      <c r="ADF45" s="13"/>
-      <c r="ADG45" s="13"/>
-      <c r="ADH45" s="13"/>
-      <c r="ADI45" s="13"/>
-      <c r="ADJ45" s="13"/>
-      <c r="ADK45" s="13"/>
-      <c r="ADL45" s="13"/>
-      <c r="ADM45" s="13"/>
-      <c r="ADN45" s="13"/>
-      <c r="ADO45" s="13"/>
-      <c r="ADP45" s="13"/>
-      <c r="ADQ45" s="13"/>
-      <c r="ADU45" s="13"/>
-    </row>
-    <row r="46" spans="2:801">
-      <c r="D46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="WA46" s="14"/>
-      <c r="WB46" s="14"/>
-      <c r="WC46" s="14"/>
-      <c r="WD46" s="14"/>
-      <c r="WE46" s="14"/>
-      <c r="WF46" s="14"/>
-      <c r="WG46" s="14"/>
-      <c r="WH46" s="14"/>
-      <c r="WI46" s="14"/>
-      <c r="WJ46" s="14"/>
-      <c r="WK46" s="14"/>
-      <c r="WL46" s="14"/>
-      <c r="WM46" s="14"/>
-      <c r="WN46" s="14"/>
-      <c r="WO46" s="14"/>
-      <c r="WP46" s="14"/>
-      <c r="WQ46" s="14"/>
-      <c r="WR46" s="14"/>
-      <c r="WS46" s="14"/>
-      <c r="WT46" s="14"/>
-      <c r="WU46" s="14"/>
-      <c r="WV46" s="14"/>
-      <c r="WW46" s="14"/>
-      <c r="WX46" s="14"/>
-      <c r="WY46" s="14"/>
-      <c r="WZ46" s="14"/>
-      <c r="XA46" s="14"/>
-      <c r="YP46" s="13"/>
-      <c r="ZQ46" s="14"/>
-      <c r="ZX46" s="13"/>
-      <c r="ZY46" s="13"/>
-      <c r="ZZ46" s="13"/>
-      <c r="AAA46" s="13"/>
-      <c r="AAB46" s="13"/>
-      <c r="AAY46" s="14"/>
-      <c r="AAZ46" s="14"/>
-      <c r="ABA46" s="14"/>
-      <c r="ABB46" s="14"/>
-      <c r="ABC46" s="14"/>
-      <c r="ACQ46" s="13"/>
-      <c r="ACR46" s="13"/>
-      <c r="ACS46" s="13"/>
-      <c r="ACU46" s="13"/>
-      <c r="ACV46" s="13"/>
-      <c r="ACW46" s="13"/>
-      <c r="ACX46" s="13"/>
-      <c r="ACY46" s="13"/>
-      <c r="ACZ46" s="13"/>
-      <c r="ADA46" s="13"/>
-      <c r="ADB46" s="13"/>
-      <c r="ADC46" s="13"/>
-      <c r="ADD46" s="13"/>
-      <c r="ADE46" s="13"/>
-      <c r="ADF46" s="13"/>
-      <c r="ADG46" s="13"/>
-      <c r="ADH46" s="13"/>
-      <c r="ADI46" s="13"/>
-      <c r="ADJ46" s="13"/>
-      <c r="ADK46" s="13"/>
-      <c r="ADL46" s="13"/>
-      <c r="ADM46" s="13"/>
-      <c r="ADN46" s="13"/>
-      <c r="ADO46" s="13"/>
-      <c r="ADP46" s="13"/>
-      <c r="ADQ46" s="13"/>
-      <c r="ADU46" s="13"/>
-    </row>
-    <row r="47" spans="2:801">
-      <c r="D47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="WA47" s="14"/>
-      <c r="WB47" s="14"/>
-      <c r="WC47" s="14"/>
-      <c r="WD47" s="14"/>
-      <c r="WE47" s="14"/>
-      <c r="WF47" s="14"/>
-      <c r="WG47" s="14"/>
-      <c r="WH47" s="14"/>
-      <c r="WI47" s="14"/>
-      <c r="WJ47" s="14"/>
-      <c r="WK47" s="14"/>
-      <c r="WL47" s="14"/>
-      <c r="WM47" s="14"/>
-      <c r="WN47" s="14"/>
-      <c r="WO47" s="14"/>
-      <c r="WP47" s="14"/>
-      <c r="WQ47" s="14"/>
-      <c r="WR47" s="14"/>
-      <c r="WS47" s="14"/>
-      <c r="WT47" s="14"/>
-      <c r="WU47" s="14"/>
-      <c r="WV47" s="14"/>
-      <c r="WW47" s="14"/>
-      <c r="WX47" s="14"/>
-      <c r="WY47" s="14"/>
-      <c r="WZ47" s="14"/>
-      <c r="XA47" s="14"/>
-      <c r="YP47" s="13"/>
-      <c r="ZQ47" s="14"/>
-      <c r="ZX47" s="13"/>
-      <c r="ZY47" s="13"/>
-      <c r="ZZ47" s="13"/>
-      <c r="AAA47" s="13"/>
-      <c r="AAB47" s="13"/>
-      <c r="AAY47" s="14"/>
-      <c r="AAZ47" s="14"/>
-      <c r="ABA47" s="14"/>
-      <c r="ABB47" s="14"/>
-      <c r="ABC47" s="14"/>
-      <c r="ACQ47" s="13"/>
-      <c r="ACR47" s="13"/>
-      <c r="ACS47" s="13"/>
-      <c r="ACU47" s="13"/>
-      <c r="ACV47" s="13"/>
-      <c r="ACW47" s="13"/>
-      <c r="ACX47" s="13"/>
-      <c r="ACY47" s="13"/>
-      <c r="ACZ47" s="13"/>
-      <c r="ADA47" s="13"/>
-      <c r="ADB47" s="13"/>
-      <c r="ADC47" s="13"/>
-      <c r="ADD47" s="13"/>
-      <c r="ADE47" s="13"/>
-      <c r="ADF47" s="13"/>
-      <c r="ADG47" s="13"/>
-      <c r="ADH47" s="13"/>
-      <c r="ADI47" s="13"/>
-      <c r="ADJ47" s="13"/>
-      <c r="ADK47" s="13"/>
-      <c r="ADL47" s="13"/>
-      <c r="ADM47" s="13"/>
-      <c r="ADN47" s="13"/>
-      <c r="ADO47" s="13"/>
-      <c r="ADP47" s="13"/>
-      <c r="ADQ47" s="13"/>
-      <c r="ADU47" s="13"/>
-    </row>
-    <row r="48" spans="2:801">
-      <c r="D48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="WA48" s="14"/>
-      <c r="WB48" s="14"/>
-      <c r="WC48" s="14"/>
-      <c r="WD48" s="14"/>
-      <c r="WE48" s="14"/>
-      <c r="WF48" s="14"/>
-      <c r="WG48" s="14"/>
-      <c r="WH48" s="14"/>
-      <c r="WI48" s="14"/>
-      <c r="WJ48" s="14"/>
-      <c r="WK48" s="14"/>
-      <c r="WL48" s="14"/>
-      <c r="WM48" s="14"/>
-      <c r="WN48" s="14"/>
-      <c r="WO48" s="14"/>
-      <c r="WP48" s="14"/>
-      <c r="WQ48" s="14"/>
-      <c r="WR48" s="14"/>
-      <c r="WS48" s="14"/>
-      <c r="WT48" s="14"/>
-      <c r="WU48" s="14"/>
-      <c r="WV48" s="14"/>
-      <c r="WW48" s="14"/>
-      <c r="WX48" s="14"/>
-      <c r="WY48" s="14"/>
-      <c r="WZ48" s="14"/>
-      <c r="XA48" s="14"/>
-      <c r="YP48" s="13"/>
-      <c r="ZQ48" s="14"/>
-      <c r="ZX48" s="13"/>
-      <c r="ZY48" s="13"/>
-      <c r="ZZ48" s="13"/>
-      <c r="AAA48" s="13"/>
-      <c r="AAB48" s="13"/>
-      <c r="AAY48" s="14"/>
-      <c r="AAZ48" s="14"/>
-      <c r="ABA48" s="14"/>
-      <c r="ABB48" s="14"/>
-      <c r="ABC48" s="14"/>
-      <c r="ACQ48" s="13"/>
-      <c r="ACR48" s="13"/>
-      <c r="ACS48" s="13"/>
-      <c r="ACU48" s="13"/>
-      <c r="ACV48" s="13"/>
-      <c r="ACW48" s="13"/>
-      <c r="ACX48" s="13"/>
-      <c r="ACY48" s="13"/>
-      <c r="ACZ48" s="13"/>
-      <c r="ADA48" s="13"/>
-      <c r="ADB48" s="13"/>
-      <c r="ADC48" s="13"/>
-      <c r="ADD48" s="13"/>
-      <c r="ADE48" s="13"/>
-      <c r="ADF48" s="13"/>
-      <c r="ADG48" s="13"/>
-      <c r="ADH48" s="13"/>
-      <c r="ADI48" s="13"/>
-      <c r="ADJ48" s="13"/>
-      <c r="ADK48" s="13"/>
-      <c r="ADL48" s="13"/>
-      <c r="ADM48" s="13"/>
-      <c r="ADN48" s="13"/>
-      <c r="ADO48" s="13"/>
-      <c r="ADP48" s="13"/>
-      <c r="ADQ48" s="13"/>
-      <c r="ADU48" s="13"/>
-    </row>
-    <row r="49" spans="4:801">
-      <c r="D49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="WA49" s="14"/>
-      <c r="WB49" s="14"/>
-      <c r="WC49" s="14"/>
-      <c r="WD49" s="14"/>
-      <c r="WE49" s="14"/>
-      <c r="WF49" s="14"/>
-      <c r="WG49" s="14"/>
-      <c r="WH49" s="14"/>
-      <c r="WI49" s="14"/>
-      <c r="WJ49" s="14"/>
-      <c r="WK49" s="14"/>
-      <c r="WL49" s="14"/>
-      <c r="WM49" s="14"/>
-      <c r="WN49" s="14"/>
-      <c r="WO49" s="14"/>
-      <c r="WP49" s="14"/>
-      <c r="WQ49" s="14"/>
-      <c r="WR49" s="14"/>
-      <c r="WS49" s="14"/>
-      <c r="WT49" s="14"/>
-      <c r="WU49" s="14"/>
-      <c r="WV49" s="14"/>
-      <c r="WW49" s="14"/>
-      <c r="WX49" s="14"/>
-      <c r="WY49" s="14"/>
-      <c r="WZ49" s="14"/>
-      <c r="XA49" s="14"/>
-      <c r="YP49" s="13"/>
-      <c r="ZQ49" s="14"/>
-      <c r="ZX49" s="13"/>
-      <c r="ZY49" s="13"/>
-      <c r="ZZ49" s="13"/>
-      <c r="AAA49" s="13"/>
-      <c r="AAB49" s="13"/>
-      <c r="AAY49" s="14"/>
-      <c r="AAZ49" s="14"/>
-      <c r="ABA49" s="14"/>
-      <c r="ABB49" s="14"/>
-      <c r="ABC49" s="14"/>
-      <c r="ACQ49" s="13"/>
-      <c r="ACR49" s="13"/>
-      <c r="ACS49" s="13"/>
-      <c r="ACU49" s="13"/>
-      <c r="ACV49" s="13"/>
-      <c r="ACW49" s="13"/>
-      <c r="ACX49" s="13"/>
-      <c r="ACY49" s="13"/>
-      <c r="ACZ49" s="13"/>
-      <c r="ADA49" s="13"/>
-      <c r="ADB49" s="13"/>
-      <c r="ADC49" s="13"/>
-      <c r="ADD49" s="13"/>
-      <c r="ADE49" s="13"/>
-      <c r="ADF49" s="13"/>
-      <c r="ADG49" s="13"/>
-      <c r="ADH49" s="13"/>
-      <c r="ADI49" s="13"/>
-      <c r="ADJ49" s="13"/>
-      <c r="ADK49" s="13"/>
-      <c r="ADL49" s="13"/>
-      <c r="ADM49" s="13"/>
-      <c r="ADN49" s="13"/>
-      <c r="ADO49" s="13"/>
-      <c r="ADP49" s="13"/>
-      <c r="ADQ49" s="13"/>
-      <c r="ADU49" s="13"/>
-    </row>
-    <row r="50" spans="4:801">
-      <c r="D50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="WA50" s="14"/>
-      <c r="WB50" s="14"/>
-      <c r="WC50" s="14"/>
-      <c r="WD50" s="14"/>
-      <c r="WE50" s="14"/>
-      <c r="WF50" s="14"/>
-      <c r="WG50" s="14"/>
-      <c r="WH50" s="14"/>
-      <c r="WI50" s="14"/>
-      <c r="WJ50" s="14"/>
-      <c r="WK50" s="14"/>
-      <c r="WL50" s="14"/>
-      <c r="WM50" s="14"/>
-      <c r="WN50" s="14"/>
-      <c r="WO50" s="14"/>
-      <c r="WP50" s="14"/>
-      <c r="WQ50" s="14"/>
-      <c r="WR50" s="14"/>
-      <c r="WS50" s="14"/>
-      <c r="WT50" s="14"/>
-      <c r="WU50" s="14"/>
-      <c r="WV50" s="14"/>
-      <c r="WW50" s="14"/>
-      <c r="WX50" s="14"/>
-      <c r="WY50" s="14"/>
-      <c r="WZ50" s="14"/>
-      <c r="XA50" s="14"/>
-      <c r="YP50" s="13"/>
-      <c r="ZQ50" s="14"/>
-      <c r="ZX50" s="13"/>
-      <c r="ZY50" s="13"/>
-      <c r="ZZ50" s="13"/>
-      <c r="AAA50" s="13"/>
-      <c r="AAB50" s="13"/>
-      <c r="AAY50" s="14"/>
-      <c r="AAZ50" s="14"/>
-      <c r="ABA50" s="14"/>
-      <c r="ABB50" s="14"/>
-      <c r="ABC50" s="14"/>
-      <c r="ACQ50" s="13"/>
-      <c r="ACR50" s="13"/>
-      <c r="ACS50" s="13"/>
-      <c r="ACU50" s="13"/>
-      <c r="ACV50" s="13"/>
-      <c r="ACW50" s="13"/>
-      <c r="ACX50" s="13"/>
-      <c r="ACY50" s="13"/>
-      <c r="ACZ50" s="13"/>
-      <c r="ADA50" s="13"/>
-      <c r="ADB50" s="13"/>
-      <c r="ADC50" s="13"/>
-      <c r="ADD50" s="13"/>
-      <c r="ADE50" s="13"/>
-      <c r="ADF50" s="13"/>
-      <c r="ADG50" s="13"/>
-      <c r="ADH50" s="13"/>
-      <c r="ADI50" s="13"/>
-      <c r="ADJ50" s="13"/>
-      <c r="ADK50" s="13"/>
-      <c r="ADL50" s="13"/>
-      <c r="ADM50" s="13"/>
-      <c r="ADN50" s="13"/>
-      <c r="ADO50" s="13"/>
-      <c r="ADP50" s="13"/>
-      <c r="ADQ50" s="13"/>
-      <c r="ADU50" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="O13:O42">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"NA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O42">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>$O$7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>$O$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>$O$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>$O$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O13:O42" xr:uid="{932EF583-AA84-48C5-A8DA-87B2EF6DD625}">
-      <formula1>$O$2:$O$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K42" xr:uid="{3F0F1F57-4CC4-4FD4-BD1C-9CAA2248C2DE}">
-      <formula1>$K$2:$K$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:J42" xr:uid="{FD711099-EBB3-47C9-B1DD-11D93952AC72}">
-      <formula1>$J$2:$J$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
@@ -10934,7 +6920,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -10968,15 +6954,15 @@
       <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="94" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
@@ -10984,11 +6970,11 @@
     </row>
     <row r="3" spans="1:16" s="22" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
@@ -11008,90 +6994,129 @@
       <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="172.7" customHeight="1">
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="1:16" ht="198.7" customHeight="1">
+      <c r="B7" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="49">
+        <v>44557</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="50">
-        <v>44525</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="70" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-    </row>
-    <row r="8" spans="1:16" ht="60" customHeight="1">
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="1:16" ht="60" customHeight="1">
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1">
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+    </row>
+    <row r="8" spans="1:16" ht="161.35" customHeight="1">
+      <c r="B8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+    </row>
+    <row r="9" spans="1:16" ht="240.35" customHeight="1">
+      <c r="B9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+    </row>
+    <row r="10" spans="1:16" ht="96.7" customHeight="1">
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="60" customHeight="1">
       <c r="N11" s="31"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube_\Desktop\TCG[5.0.7]CR-0065 - 복사본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B52E8-3C84-49D6-B516-3245CBF801B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{9C7B52E8-3C84-49D6-B516-3245CBF801B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9EA3547-3F32-41DF-A0B8-BE2295FE6D55}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="2160" windowWidth="19200" windowHeight="10073" tabRatio="601" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="82">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -325,6 +325,38 @@
     <t>Nvm_MemoryErrorFlag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>DescriptionMsBND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescriptionMsEQV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Based Test among Equivalence testing of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescriptionMsFIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Injection Test among Error guessing of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescriptionMsSTA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Based Test among Development of positive of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +576,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,10 +1095,28 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,12 +1129,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,18 +1144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,6 +1181,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4560,69 +4604,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="88" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="89" t="s">
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="90" t="s">
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="78" t="s">
+      <c r="AA10" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="82" t="s">
+      <c r="AB10" s="88" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -4794,25 +4838,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78" t="s">
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="78" t="s">
+      <c r="P11" s="81" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -4827,7 +4871,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="86" t="s">
+      <c r="U11" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -4839,12 +4883,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="88" t="s">
+      <c r="Y11" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="89"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -5014,21 +5058,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -5045,7 +5089,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="87"/>
+      <c r="U12" s="91"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -5058,10 +5102,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="89"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -12591,16 +12635,6 @@
     <sortCondition ref="B6"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
@@ -12614,6 +12648,16 @@
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Z10:Z12"/>
     <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -13031,69 +13075,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="88" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="89" t="s">
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="90" t="s">
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="78" t="s">
+      <c r="AA10" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="82" t="s">
+      <c r="AB10" s="88" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -13265,25 +13309,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78" t="s">
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="78" t="s">
+      <c r="P11" s="81" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -13298,7 +13342,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="86" t="s">
+      <c r="U11" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -13310,12 +13354,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="88" t="s">
+      <c r="Y11" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="89"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -13485,21 +13529,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -13516,7 +13560,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="87"/>
+      <c r="U12" s="91"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -13529,10 +13573,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="89"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -21059,6 +21103,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
@@ -21072,16 +21126,6 @@
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -21499,69 +21543,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="88" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="89" t="s">
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="90" t="s">
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="78" t="s">
+      <c r="AA10" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="82" t="s">
+      <c r="AB10" s="88" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -21733,25 +21777,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78" t="s">
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="78" t="s">
+      <c r="P11" s="81" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -21766,7 +21810,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="86" t="s">
+      <c r="U11" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -21778,12 +21822,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="88" t="s">
+      <c r="Y11" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="89"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -21953,21 +21997,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -21984,7 +22028,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="87"/>
+      <c r="U12" s="91"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -21997,10 +22041,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="89"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -29527,6 +29571,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
@@ -29540,16 +29594,6 @@
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -29967,69 +30011,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="78" t="s">
+      <c r="N10" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="78" t="s">
+      <c r="O10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="88" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="89" t="s">
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="90" t="s">
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="78" t="s">
+      <c r="AA10" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="82" t="s">
+      <c r="AB10" s="88" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -30201,25 +30245,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78" t="s">
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="78" t="s">
+      <c r="P11" s="81" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -30234,7 +30278,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="86" t="s">
+      <c r="U11" s="90" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -30246,12 +30290,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="88" t="s">
+      <c r="Y11" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="89"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -30421,21 +30465,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -30452,7 +30496,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="87"/>
+      <c r="U12" s="91"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -30465,10 +30509,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="83"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="89"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -37995,6 +38039,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
@@ -38008,16 +38062,6 @@
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -39207,10 +39251,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD74793-907D-49E2-A808-EE8270BBBBB5}">
-  <dimension ref="B2:G78"/>
+  <dimension ref="B2:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -39223,7 +39267,7 @@
     <col min="7" max="7" width="20.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="29.7" customHeight="1">
+    <row r="2" spans="2:12" ht="29.7" customHeight="1">
       <c r="B2" s="39" t="s">
         <v>61</v>
       </c>
@@ -39237,7 +39281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:12">
       <c r="B3" s="68" t="s">
         <v>73</v>
       </c>
@@ -39249,7 +39293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:12">
       <c r="B4" s="68" t="s">
         <v>70</v>
       </c>
@@ -39258,7 +39302,7 @@
       </c>
       <c r="E4" s="68"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:12">
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="E5" s="68"/>
@@ -39266,7 +39310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:12">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="E6" s="68"/>
@@ -39274,7 +39318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:12">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="E7" s="68"/>
@@ -39282,127 +39326,191 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:12">
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:12">
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="E9" s="68"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:12">
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="E10" s="68"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:12">
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:12">
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="E13" s="68"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="G13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="G14" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="E15" s="68"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="G15" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="E16" s="68"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="E17" s="68"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="E18" s="68"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="G19" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
       <c r="E20" s="68"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:12">
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="E21" s="68"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:12">
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:12">
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:12">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:12">
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:12">
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:12">
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="E27" s="68"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:12">
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="E28" s="68"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:12">
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="E29" s="68"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:12">
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
       <c r="E30" s="68"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:12">
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
       <c r="E31" s="68"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:12">
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
       <c r="E32" s="68"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{9C7B52E8-3C84-49D6-B516-3245CBF801B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9EA3547-3F32-41DF-A0B8-BE2295FE6D55}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{9C7B52E8-3C84-49D6-B516-3245CBF801B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A76374-F90C-41D4-A57C-EC1DDAFDE527}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="87">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -326,15 +326,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DescriptionMsBND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Requirement Based Test among Analysis of boundary value of SWDDS.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DescriptionMsEQV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -342,19 +334,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DescriptionMsFIT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fault Injection Test among Error guessing of SWDDS.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DescriptionMsSTA</t>
+    <t>Requirement Based Test among Development of positive of SWDDS.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Requirement Based Test among Development of positive of SWDDS.</t>
+    <t>100% 일시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOK list 에 포함시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% 가 아닐시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boundary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equivalence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Injection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description 내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,28 +1115,16 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1137,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1158,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,11 +1208,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4490,7 +4513,7 @@
   <dimension ref="A1:ADU139"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
@@ -4604,69 +4627,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="84" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -4838,25 +4861,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="80" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -4871,7 +4894,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -4883,12 +4906,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="85"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -5058,21 +5081,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -5089,7 +5112,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="89"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -5102,10 +5125,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="85"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -12635,6 +12658,16 @@
     <sortCondition ref="B6"/>
   </sortState>
   <mergeCells count="23">
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
@@ -12648,16 +12681,6 @@
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Z10:Z12"/>
     <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -13075,69 +13098,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="84" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -13309,25 +13332,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="80" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -13342,7 +13365,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -13354,12 +13377,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="85"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -13529,21 +13552,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -13560,7 +13583,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="89"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -13573,10 +13596,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="85"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -21103,16 +21126,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
@@ -21126,6 +21139,16 @@
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -21543,69 +21566,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="84" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -21777,25 +21800,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="80" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -21810,7 +21833,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -21822,12 +21845,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="85"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -21997,21 +22020,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -22028,7 +22051,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="89"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -22041,10 +22064,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="85"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -29571,16 +29594,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
@@ -29594,6 +29607,16 @@
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -30011,69 +30034,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="84" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -30245,25 +30268,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="80" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -30278,7 +30301,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -30290,12 +30313,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="85"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -30465,21 +30488,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -30496,7 +30519,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="89"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -30509,10 +30532,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="85"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -38039,16 +38062,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AA10:AA12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
@@ -38062,6 +38075,16 @@
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
@@ -38404,16 +38427,16 @@
       <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="101" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
@@ -38421,12 +38444,12 @@
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="21"/>
@@ -39254,7 +39277,7 @@
   <dimension ref="B2:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -39345,110 +39368,118 @@
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="E11" s="68"/>
+      <c r="G11" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="E12" s="68"/>
-      <c r="G12" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
+      <c r="G12" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="E13" s="68"/>
-      <c r="G13" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
+      <c r="G13" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="G14" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
+      <c r="G14" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="G15" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
+      <c r="G15" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="G16" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="G16" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="G17" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
+      <c r="G17" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="G18" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
+      <c r="G18" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="G19" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
+      <c r="G19" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="68"/>
@@ -39459,21 +39490,43 @@
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="E21" s="68"/>
+      <c r="G21" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="109"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="E22" s="68"/>
+      <c r="G22" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="E23" s="68"/>
+      <c r="G23" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="E24" s="68"/>
+      <c r="G24" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="68"/>
@@ -39746,6 +39799,10 @@
       <c r="E78" s="68"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G21:H21"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{6E33F766-E4E7-41EE-86A2-27CBB516238E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9630C8FA-24BB-4AC8-8ED4-F23C21AD4D35}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{6E33F766-E4E7-41EE-86A2-27CBB516238E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4845092-1C2F-4F75-A538-08B7540B2E37}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
@@ -1525,6 +1525,23 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,23 +1559,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2700,16 +2700,16 @@
         <f>COUNTIF(N12:N92,"Todo")</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114" t="s">
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
       <c r="WX8" s="10"/>
       <c r="WY8" s="10"/>
       <c r="WZ8" s="10"/>
@@ -6742,16 +6742,16 @@
         <f>COUNTIF(N12:N92,"Todo")</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114" t="s">
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
       <c r="WX8" s="10"/>
       <c r="WY8" s="10"/>
       <c r="WZ8" s="10"/>
@@ -10781,16 +10781,16 @@
         <f>COUNTIF(N12:N92,"Todo")</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114" t="s">
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
       <c r="WX8" s="10"/>
       <c r="WY8" s="10"/>
       <c r="WZ8" s="10"/>
@@ -14670,7 +14670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67926AEB-EC7B-4E51-8768-1D46B6035DBC}">
   <dimension ref="B1:ADQ93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -14820,16 +14820,16 @@
         <f>COUNTIF(N12:N92,"Todo")</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="114" t="s">
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
       <c r="WX8" s="10"/>
       <c r="WY8" s="10"/>
       <c r="WZ8" s="10"/>
@@ -15623,35 +15623,35 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
-      <c r="H12" s="118" t="str">
+      <c r="H12" s="112" t="str">
         <f>B12&amp;"] Goal : "&amp;F12&amp;" among "&amp;G12&amp;" of SWDDS"</f>
         <v>] Goal :  among  of SWDDS</v>
       </c>
-      <c r="I12" s="119" t="str">
+      <c r="I12" s="113" t="str">
         <f>B12&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="J12" s="119" t="str">
+      <c r="J12" s="113" t="str">
         <f>B12&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="K12" s="119" t="str">
+      <c r="K12" s="113" t="str">
         <f>B12&amp;".xls"</f>
         <v>.xls</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="120"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="121"/>
+      <c r="P12" s="115"/>
       <c r="Q12" s="34"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
       <c r="T12" s="34"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="122"/>
+      <c r="X12" s="116"/>
     </row>
     <row r="13" spans="2:797" x14ac:dyDescent="0.65">
       <c r="B13" s="27"/>
@@ -15660,35 +15660,35 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="118" t="str">
+      <c r="H13" s="112" t="str">
         <f t="shared" ref="H13:H92" si="0">B13&amp;"] Goal : "&amp;F13&amp;" among "&amp;G13&amp;" of SWDDS"</f>
         <v>] Goal :  among  of SWDDS</v>
       </c>
-      <c r="I13" s="119" t="str">
+      <c r="I13" s="113" t="str">
         <f t="shared" ref="I13:I92" si="1">B13&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="J13" s="119" t="str">
+      <c r="J13" s="113" t="str">
         <f t="shared" ref="J13:J92" si="2">B13&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="K13" s="119" t="str">
+      <c r="K13" s="113" t="str">
         <f t="shared" ref="K13:K92" si="3">B13&amp;".xls"</f>
         <v>.xls</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="30"/>
-      <c r="N13" s="120"/>
+      <c r="N13" s="114"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="121"/>
+      <c r="P13" s="115"/>
       <c r="Q13" s="34"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
       <c r="T13" s="34"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
       <c r="W13" s="25"/>
-      <c r="X13" s="122"/>
+      <c r="X13" s="116"/>
     </row>
     <row r="14" spans="2:797" x14ac:dyDescent="0.65">
       <c r="B14" s="27"/>
@@ -15697,35 +15697,35 @@
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I14" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J14" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K14" s="119" t="str">
+      <c r="H14" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I14" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J14" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K14" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="120"/>
+      <c r="N14" s="114"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="121"/>
+      <c r="P14" s="115"/>
       <c r="Q14" s="34"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
       <c r="T14" s="34"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="122"/>
+      <c r="X14" s="116"/>
     </row>
     <row r="15" spans="2:797" x14ac:dyDescent="0.65">
       <c r="B15" s="27"/>
@@ -15734,35 +15734,35 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I15" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J15" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K15" s="119" t="str">
+      <c r="H15" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I15" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J15" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K15" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="120"/>
+      <c r="N15" s="114"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="121"/>
+      <c r="P15" s="115"/>
       <c r="Q15" s="34"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
       <c r="W15" s="25"/>
-      <c r="X15" s="122"/>
+      <c r="X15" s="116"/>
     </row>
     <row r="16" spans="2:797" x14ac:dyDescent="0.65">
       <c r="B16" s="27"/>
@@ -15771,35 +15771,35 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I16" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J16" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K16" s="119" t="str">
+      <c r="H16" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I16" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J16" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K16" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="120"/>
+      <c r="N16" s="114"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="121"/>
+      <c r="P16" s="115"/>
       <c r="Q16" s="34"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
       <c r="T16" s="34"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
       <c r="W16" s="25"/>
-      <c r="X16" s="122"/>
+      <c r="X16" s="116"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B17" s="27"/>
@@ -15808,35 +15808,35 @@
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I17" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J17" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K17" s="119" t="str">
+      <c r="H17" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I17" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J17" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K17" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="120"/>
+      <c r="N17" s="114"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="121"/>
+      <c r="P17" s="115"/>
       <c r="Q17" s="34"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
       <c r="T17" s="34"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
       <c r="W17" s="25"/>
-      <c r="X17" s="122"/>
+      <c r="X17" s="116"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B18" s="27"/>
@@ -15845,35 +15845,35 @@
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I18" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J18" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K18" s="119" t="str">
+      <c r="H18" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I18" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J18" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K18" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="120"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="121"/>
+      <c r="P18" s="115"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
       <c r="T18" s="34"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
       <c r="W18" s="25"/>
-      <c r="X18" s="122"/>
+      <c r="X18" s="116"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B19" s="27"/>
@@ -15882,35 +15882,35 @@
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I19" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J19" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K19" s="119" t="str">
+      <c r="H19" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I19" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J19" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K19" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="120"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="121"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="34"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="115"/>
       <c r="T19" s="34"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="115"/>
       <c r="W19" s="25"/>
-      <c r="X19" s="122"/>
+      <c r="X19" s="116"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B20" s="27"/>
@@ -15919,35 +15919,35 @@
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I20" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J20" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K20" s="119" t="str">
+      <c r="H20" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I20" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J20" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K20" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="120"/>
+      <c r="N20" s="114"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="121"/>
+      <c r="P20" s="115"/>
       <c r="Q20" s="34"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
       <c r="T20" s="34"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="121"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
       <c r="W20" s="25"/>
-      <c r="X20" s="122"/>
+      <c r="X20" s="116"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B21" s="27"/>
@@ -15956,35 +15956,35 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I21" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J21" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K21" s="119" t="str">
+      <c r="H21" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I21" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J21" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K21" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="120"/>
+      <c r="N21" s="114"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="121"/>
+      <c r="P21" s="115"/>
       <c r="Q21" s="34"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="115"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="115"/>
       <c r="W21" s="25"/>
-      <c r="X21" s="122"/>
+      <c r="X21" s="116"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B22" s="27"/>
@@ -15993,35 +15993,35 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I22" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J22" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K22" s="119" t="str">
+      <c r="H22" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I22" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J22" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K22" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="120"/>
+      <c r="N22" s="114"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="121"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="34"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="115"/>
       <c r="T22" s="34"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="121"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="25"/>
-      <c r="X22" s="122"/>
+      <c r="X22" s="116"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B23" s="27"/>
@@ -16030,35 +16030,35 @@
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I23" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J23" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K23" s="119" t="str">
+      <c r="H23" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I23" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J23" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K23" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="30"/>
-      <c r="N23" s="120"/>
+      <c r="N23" s="114"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="121"/>
+      <c r="P23" s="115"/>
       <c r="Q23" s="34"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
       <c r="T23" s="34"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="121"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="115"/>
       <c r="W23" s="25"/>
-      <c r="X23" s="122"/>
+      <c r="X23" s="116"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B24" s="27"/>
@@ -16067,35 +16067,35 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I24" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J24" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K24" s="119" t="str">
+      <c r="H24" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I24" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J24" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K24" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="30"/>
-      <c r="N24" s="120"/>
+      <c r="N24" s="114"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="121"/>
+      <c r="P24" s="115"/>
       <c r="Q24" s="34"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="115"/>
       <c r="T24" s="34"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
       <c r="W24" s="25"/>
-      <c r="X24" s="122"/>
+      <c r="X24" s="116"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B25" s="27"/>
@@ -16104,35 +16104,35 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I25" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J25" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K25" s="119" t="str">
+      <c r="H25" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I25" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J25" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K25" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="30"/>
-      <c r="N25" s="120"/>
+      <c r="N25" s="114"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="121"/>
+      <c r="P25" s="115"/>
       <c r="Q25" s="34"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
       <c r="T25" s="34"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
       <c r="W25" s="25"/>
-      <c r="X25" s="122"/>
+      <c r="X25" s="116"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B26" s="27"/>
@@ -16141,35 +16141,35 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I26" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J26" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K26" s="119" t="str">
+      <c r="H26" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I26" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J26" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K26" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="30"/>
-      <c r="N26" s="120"/>
+      <c r="N26" s="114"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="121"/>
+      <c r="P26" s="115"/>
       <c r="Q26" s="34"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="34"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="115"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="122"/>
+      <c r="X26" s="116"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B27" s="27"/>
@@ -16178,35 +16178,35 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I27" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J27" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K27" s="119" t="str">
+      <c r="H27" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I27" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J27" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K27" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="30"/>
-      <c r="N27" s="120"/>
+      <c r="N27" s="114"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="121"/>
+      <c r="P27" s="115"/>
       <c r="Q27" s="34"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
       <c r="T27" s="34"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="115"/>
       <c r="W27" s="25"/>
-      <c r="X27" s="122"/>
+      <c r="X27" s="116"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B28" s="27"/>
@@ -16215,35 +16215,35 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I28" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J28" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K28" s="119" t="str">
+      <c r="H28" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I28" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J28" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K28" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="30"/>
-      <c r="N28" s="120"/>
+      <c r="N28" s="114"/>
       <c r="O28" s="32"/>
-      <c r="P28" s="121"/>
+      <c r="P28" s="115"/>
       <c r="Q28" s="34"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
       <c r="T28" s="34"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
       <c r="W28" s="25"/>
-      <c r="X28" s="122"/>
+      <c r="X28" s="116"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B29" s="27"/>
@@ -16252,35 +16252,35 @@
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I29" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J29" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K29" s="119" t="str">
+      <c r="H29" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I29" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J29" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K29" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="30"/>
-      <c r="N29" s="120"/>
+      <c r="N29" s="114"/>
       <c r="O29" s="32"/>
-      <c r="P29" s="121"/>
+      <c r="P29" s="115"/>
       <c r="Q29" s="34"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="115"/>
       <c r="T29" s="34"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="122"/>
+      <c r="X29" s="116"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B30" s="27"/>
@@ -16289,35 +16289,35 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I30" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J30" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K30" s="119" t="str">
+      <c r="H30" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I30" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J30" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K30" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="30"/>
-      <c r="N30" s="120"/>
+      <c r="N30" s="114"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="121"/>
+      <c r="P30" s="115"/>
       <c r="Q30" s="34"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="115"/>
       <c r="T30" s="34"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
       <c r="W30" s="25"/>
-      <c r="X30" s="122"/>
+      <c r="X30" s="116"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B31" s="27"/>
@@ -16326,35 +16326,35 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I31" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J31" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K31" s="119" t="str">
+      <c r="H31" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I31" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J31" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K31" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="30"/>
-      <c r="N31" s="120"/>
+      <c r="N31" s="114"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="121"/>
+      <c r="P31" s="115"/>
       <c r="Q31" s="34"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
       <c r="W31" s="25"/>
-      <c r="X31" s="122"/>
+      <c r="X31" s="116"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B32" s="27"/>
@@ -16363,35 +16363,35 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I32" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J32" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K32" s="119" t="str">
+      <c r="H32" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I32" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J32" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K32" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="30"/>
-      <c r="N32" s="120"/>
+      <c r="N32" s="114"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="121"/>
+      <c r="P32" s="115"/>
       <c r="Q32" s="34"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
       <c r="T32" s="34"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
       <c r="W32" s="25"/>
-      <c r="X32" s="122"/>
+      <c r="X32" s="116"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B33" s="27"/>
@@ -16400,35 +16400,35 @@
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I33" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J33" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K33" s="119" t="str">
+      <c r="H33" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I33" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J33" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K33" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="30"/>
-      <c r="N33" s="120"/>
+      <c r="N33" s="114"/>
       <c r="O33" s="32"/>
-      <c r="P33" s="121"/>
+      <c r="P33" s="115"/>
       <c r="Q33" s="34"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
       <c r="T33" s="34"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
       <c r="W33" s="25"/>
-      <c r="X33" s="122"/>
+      <c r="X33" s="116"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B34" s="27"/>
@@ -16437,35 +16437,35 @@
       <c r="E34" s="25"/>
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I34" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J34" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K34" s="119" t="str">
+      <c r="H34" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I34" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J34" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K34" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="30"/>
-      <c r="N34" s="120"/>
+      <c r="N34" s="114"/>
       <c r="O34" s="32"/>
-      <c r="P34" s="121"/>
+      <c r="P34" s="115"/>
       <c r="Q34" s="34"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
       <c r="T34" s="34"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="122"/>
+      <c r="X34" s="116"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B35" s="27"/>
@@ -16474,35 +16474,35 @@
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
-      <c r="H35" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I35" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J35" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K35" s="119" t="str">
+      <c r="H35" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I35" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J35" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K35" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="30"/>
-      <c r="N35" s="120"/>
+      <c r="N35" s="114"/>
       <c r="O35" s="32"/>
-      <c r="P35" s="121"/>
+      <c r="P35" s="115"/>
       <c r="Q35" s="34"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
       <c r="T35" s="34"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
       <c r="W35" s="25"/>
-      <c r="X35" s="122"/>
+      <c r="X35" s="116"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B36" s="27"/>
@@ -16511,35 +16511,35 @@
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
-      <c r="H36" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I36" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J36" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K36" s="119" t="str">
+      <c r="H36" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I36" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J36" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K36" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="30"/>
-      <c r="N36" s="120"/>
+      <c r="N36" s="114"/>
       <c r="O36" s="32"/>
-      <c r="P36" s="121"/>
+      <c r="P36" s="115"/>
       <c r="Q36" s="34"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
       <c r="T36" s="34"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
       <c r="W36" s="25"/>
-      <c r="X36" s="122"/>
+      <c r="X36" s="116"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B37" s="27"/>
@@ -16548,35 +16548,35 @@
       <c r="E37" s="25"/>
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
-      <c r="H37" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I37" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J37" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K37" s="119" t="str">
+      <c r="H37" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I37" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J37" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K37" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L37" s="25"/>
       <c r="M37" s="30"/>
-      <c r="N37" s="120"/>
+      <c r="N37" s="114"/>
       <c r="O37" s="32"/>
-      <c r="P37" s="121"/>
+      <c r="P37" s="115"/>
       <c r="Q37" s="34"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="121"/>
+      <c r="R37" s="115"/>
+      <c r="S37" s="115"/>
       <c r="T37" s="34"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="121"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
       <c r="W37" s="25"/>
-      <c r="X37" s="122"/>
+      <c r="X37" s="116"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B38" s="27"/>
@@ -16585,35 +16585,35 @@
       <c r="E38" s="25"/>
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
-      <c r="H38" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I38" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J38" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K38" s="119" t="str">
+      <c r="H38" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I38" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J38" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K38" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L38" s="25"/>
       <c r="M38" s="30"/>
-      <c r="N38" s="120"/>
+      <c r="N38" s="114"/>
       <c r="O38" s="32"/>
-      <c r="P38" s="121"/>
+      <c r="P38" s="115"/>
       <c r="Q38" s="34"/>
-      <c r="R38" s="121"/>
-      <c r="S38" s="121"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
       <c r="T38" s="34"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="121"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
       <c r="W38" s="25"/>
-      <c r="X38" s="122"/>
+      <c r="X38" s="116"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B39" s="27"/>
@@ -16622,35 +16622,35 @@
       <c r="E39" s="25"/>
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
-      <c r="H39" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I39" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J39" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K39" s="119" t="str">
+      <c r="H39" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I39" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J39" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K39" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="30"/>
-      <c r="N39" s="120"/>
+      <c r="N39" s="114"/>
       <c r="O39" s="32"/>
-      <c r="P39" s="121"/>
+      <c r="P39" s="115"/>
       <c r="Q39" s="34"/>
-      <c r="R39" s="121"/>
-      <c r="S39" s="121"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
       <c r="T39" s="34"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="121"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
       <c r="W39" s="25"/>
-      <c r="X39" s="122"/>
+      <c r="X39" s="116"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B40" s="27"/>
@@ -16659,35 +16659,35 @@
       <c r="E40" s="25"/>
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
-      <c r="H40" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I40" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J40" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K40" s="119" t="str">
+      <c r="H40" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I40" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J40" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K40" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L40" s="25"/>
       <c r="M40" s="30"/>
-      <c r="N40" s="120"/>
+      <c r="N40" s="114"/>
       <c r="O40" s="32"/>
-      <c r="P40" s="121"/>
+      <c r="P40" s="115"/>
       <c r="Q40" s="34"/>
-      <c r="R40" s="121"/>
-      <c r="S40" s="121"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
       <c r="T40" s="34"/>
-      <c r="U40" s="121"/>
-      <c r="V40" s="121"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
       <c r="W40" s="25"/>
-      <c r="X40" s="122"/>
+      <c r="X40" s="116"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B41" s="27"/>
@@ -16696,35 +16696,35 @@
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
-      <c r="H41" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I41" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J41" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K41" s="119" t="str">
+      <c r="H41" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I41" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J41" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K41" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="30"/>
-      <c r="N41" s="120"/>
+      <c r="N41" s="114"/>
       <c r="O41" s="32"/>
-      <c r="P41" s="121"/>
+      <c r="P41" s="115"/>
       <c r="Q41" s="34"/>
-      <c r="R41" s="121"/>
-      <c r="S41" s="121"/>
+      <c r="R41" s="115"/>
+      <c r="S41" s="115"/>
       <c r="T41" s="34"/>
-      <c r="U41" s="121"/>
-      <c r="V41" s="121"/>
+      <c r="U41" s="115"/>
+      <c r="V41" s="115"/>
       <c r="W41" s="25"/>
-      <c r="X41" s="122"/>
+      <c r="X41" s="116"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B42" s="27"/>
@@ -16733,35 +16733,35 @@
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I42" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J42" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K42" s="119" t="str">
+      <c r="H42" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I42" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J42" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K42" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L42" s="25"/>
       <c r="M42" s="30"/>
-      <c r="N42" s="120"/>
+      <c r="N42" s="114"/>
       <c r="O42" s="32"/>
-      <c r="P42" s="121"/>
+      <c r="P42" s="115"/>
       <c r="Q42" s="34"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="115"/>
       <c r="T42" s="34"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="115"/>
       <c r="W42" s="25"/>
-      <c r="X42" s="122"/>
+      <c r="X42" s="116"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B43" s="27"/>
@@ -16770,35 +16770,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
-      <c r="H43" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I43" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J43" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K43" s="119" t="str">
+      <c r="H43" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I43" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J43" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K43" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="30"/>
-      <c r="N43" s="120"/>
+      <c r="N43" s="114"/>
       <c r="O43" s="32"/>
-      <c r="P43" s="121"/>
+      <c r="P43" s="115"/>
       <c r="Q43" s="34"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
+      <c r="R43" s="115"/>
+      <c r="S43" s="115"/>
       <c r="T43" s="34"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
+      <c r="U43" s="115"/>
+      <c r="V43" s="115"/>
       <c r="W43" s="25"/>
-      <c r="X43" s="122"/>
+      <c r="X43" s="116"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B44" s="27"/>
@@ -16807,35 +16807,35 @@
       <c r="E44" s="25"/>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
-      <c r="H44" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I44" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J44" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K44" s="119" t="str">
+      <c r="H44" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I44" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J44" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K44" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L44" s="25"/>
       <c r="M44" s="30"/>
-      <c r="N44" s="120"/>
+      <c r="N44" s="114"/>
       <c r="O44" s="32"/>
-      <c r="P44" s="121"/>
+      <c r="P44" s="115"/>
       <c r="Q44" s="34"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
+      <c r="R44" s="115"/>
+      <c r="S44" s="115"/>
       <c r="T44" s="34"/>
-      <c r="U44" s="121"/>
-      <c r="V44" s="121"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="115"/>
       <c r="W44" s="25"/>
-      <c r="X44" s="122"/>
+      <c r="X44" s="116"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B45" s="27"/>
@@ -16844,35 +16844,35 @@
       <c r="E45" s="25"/>
       <c r="F45" s="26"/>
       <c r="G45" s="27"/>
-      <c r="H45" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I45" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J45" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K45" s="119" t="str">
+      <c r="H45" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I45" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J45" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K45" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L45" s="25"/>
       <c r="M45" s="30"/>
-      <c r="N45" s="120"/>
+      <c r="N45" s="114"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="121"/>
+      <c r="P45" s="115"/>
       <c r="Q45" s="34"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
+      <c r="R45" s="115"/>
+      <c r="S45" s="115"/>
       <c r="T45" s="34"/>
-      <c r="U45" s="121"/>
-      <c r="V45" s="121"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="115"/>
       <c r="W45" s="25"/>
-      <c r="X45" s="122"/>
+      <c r="X45" s="116"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B46" s="27"/>
@@ -16881,35 +16881,35 @@
       <c r="E46" s="25"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
-      <c r="H46" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I46" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J46" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K46" s="119" t="str">
+      <c r="H46" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I46" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J46" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K46" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L46" s="25"/>
       <c r="M46" s="30"/>
-      <c r="N46" s="120"/>
+      <c r="N46" s="114"/>
       <c r="O46" s="32"/>
-      <c r="P46" s="121"/>
+      <c r="P46" s="115"/>
       <c r="Q46" s="34"/>
-      <c r="R46" s="121"/>
-      <c r="S46" s="121"/>
+      <c r="R46" s="115"/>
+      <c r="S46" s="115"/>
       <c r="T46" s="34"/>
-      <c r="U46" s="121"/>
-      <c r="V46" s="121"/>
+      <c r="U46" s="115"/>
+      <c r="V46" s="115"/>
       <c r="W46" s="25"/>
-      <c r="X46" s="122"/>
+      <c r="X46" s="116"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B47" s="27"/>
@@ -16918,35 +16918,35 @@
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
       <c r="G47" s="27"/>
-      <c r="H47" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I47" s="119" t="str">
+      <c r="H47" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I47" s="113" t="str">
         <f>B47&amp;".xls"</f>
         <v>.xls</v>
       </c>
-      <c r="J47" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K47" s="119" t="str">
+      <c r="J47" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K47" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L47" s="25"/>
       <c r="M47" s="30"/>
-      <c r="N47" s="120"/>
+      <c r="N47" s="114"/>
       <c r="O47" s="32"/>
-      <c r="P47" s="121"/>
+      <c r="P47" s="115"/>
       <c r="Q47" s="34"/>
-      <c r="R47" s="121"/>
-      <c r="S47" s="121"/>
+      <c r="R47" s="115"/>
+      <c r="S47" s="115"/>
       <c r="T47" s="34"/>
-      <c r="U47" s="121"/>
-      <c r="V47" s="121"/>
+      <c r="U47" s="115"/>
+      <c r="V47" s="115"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="122"/>
+      <c r="X47" s="116"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B48" s="27"/>
@@ -16955,35 +16955,35 @@
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
       <c r="G48" s="27"/>
-      <c r="H48" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I48" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J48" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K48" s="119" t="str">
+      <c r="H48" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I48" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J48" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K48" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L48" s="25"/>
       <c r="M48" s="30"/>
-      <c r="N48" s="120"/>
+      <c r="N48" s="114"/>
       <c r="O48" s="32"/>
-      <c r="P48" s="121"/>
+      <c r="P48" s="115"/>
       <c r="Q48" s="34"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
+      <c r="R48" s="115"/>
+      <c r="S48" s="115"/>
       <c r="T48" s="34"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="121"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="115"/>
       <c r="W48" s="25"/>
-      <c r="X48" s="122"/>
+      <c r="X48" s="116"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B49" s="27"/>
@@ -16992,35 +16992,35 @@
       <c r="E49" s="25"/>
       <c r="F49" s="26"/>
       <c r="G49" s="27"/>
-      <c r="H49" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I49" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J49" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K49" s="119" t="str">
+      <c r="H49" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I49" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J49" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K49" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L49" s="25"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="120"/>
+      <c r="N49" s="114"/>
       <c r="O49" s="32"/>
-      <c r="P49" s="121"/>
+      <c r="P49" s="115"/>
       <c r="Q49" s="34"/>
-      <c r="R49" s="121"/>
-      <c r="S49" s="121"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="115"/>
       <c r="T49" s="34"/>
-      <c r="U49" s="121"/>
-      <c r="V49" s="121"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="115"/>
       <c r="W49" s="25"/>
-      <c r="X49" s="122"/>
+      <c r="X49" s="116"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B50" s="27"/>
@@ -17029,35 +17029,35 @@
       <c r="E50" s="25"/>
       <c r="F50" s="26"/>
       <c r="G50" s="27"/>
-      <c r="H50" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I50" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J50" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K50" s="119" t="str">
+      <c r="H50" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I50" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J50" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K50" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L50" s="25"/>
       <c r="M50" s="30"/>
-      <c r="N50" s="120"/>
+      <c r="N50" s="114"/>
       <c r="O50" s="32"/>
-      <c r="P50" s="121"/>
+      <c r="P50" s="115"/>
       <c r="Q50" s="34"/>
-      <c r="R50" s="121"/>
-      <c r="S50" s="121"/>
+      <c r="R50" s="115"/>
+      <c r="S50" s="115"/>
       <c r="T50" s="34"/>
-      <c r="U50" s="121"/>
-      <c r="V50" s="121"/>
+      <c r="U50" s="115"/>
+      <c r="V50" s="115"/>
       <c r="W50" s="25"/>
-      <c r="X50" s="122"/>
+      <c r="X50" s="116"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B51" s="27"/>
@@ -17066,35 +17066,35 @@
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I51" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J51" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K51" s="119" t="str">
+      <c r="H51" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I51" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J51" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K51" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L51" s="25"/>
       <c r="M51" s="30"/>
-      <c r="N51" s="120"/>
+      <c r="N51" s="114"/>
       <c r="O51" s="32"/>
-      <c r="P51" s="121"/>
+      <c r="P51" s="115"/>
       <c r="Q51" s="34"/>
-      <c r="R51" s="121"/>
-      <c r="S51" s="121"/>
+      <c r="R51" s="115"/>
+      <c r="S51" s="115"/>
       <c r="T51" s="34"/>
-      <c r="U51" s="121"/>
-      <c r="V51" s="121"/>
+      <c r="U51" s="115"/>
+      <c r="V51" s="115"/>
       <c r="W51" s="25"/>
-      <c r="X51" s="122"/>
+      <c r="X51" s="116"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B52" s="27"/>
@@ -17103,35 +17103,35 @@
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
       <c r="G52" s="27"/>
-      <c r="H52" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I52" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J52" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K52" s="119" t="str">
+      <c r="H52" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I52" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J52" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K52" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L52" s="25"/>
       <c r="M52" s="30"/>
-      <c r="N52" s="120"/>
+      <c r="N52" s="114"/>
       <c r="O52" s="32"/>
-      <c r="P52" s="121"/>
+      <c r="P52" s="115"/>
       <c r="Q52" s="34"/>
-      <c r="R52" s="121"/>
-      <c r="S52" s="121"/>
+      <c r="R52" s="115"/>
+      <c r="S52" s="115"/>
       <c r="T52" s="34"/>
-      <c r="U52" s="121"/>
-      <c r="V52" s="121"/>
+      <c r="U52" s="115"/>
+      <c r="V52" s="115"/>
       <c r="W52" s="25"/>
-      <c r="X52" s="122"/>
+      <c r="X52" s="116"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B53" s="27"/>
@@ -17140,35 +17140,35 @@
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
       <c r="G53" s="27"/>
-      <c r="H53" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I53" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J53" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K53" s="119" t="str">
+      <c r="H53" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I53" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J53" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K53" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L53" s="25"/>
       <c r="M53" s="30"/>
-      <c r="N53" s="120"/>
+      <c r="N53" s="114"/>
       <c r="O53" s="32"/>
-      <c r="P53" s="121"/>
+      <c r="P53" s="115"/>
       <c r="Q53" s="34"/>
-      <c r="R53" s="121"/>
-      <c r="S53" s="121"/>
+      <c r="R53" s="115"/>
+      <c r="S53" s="115"/>
       <c r="T53" s="34"/>
-      <c r="U53" s="121"/>
-      <c r="V53" s="121"/>
+      <c r="U53" s="115"/>
+      <c r="V53" s="115"/>
       <c r="W53" s="25"/>
-      <c r="X53" s="122"/>
+      <c r="X53" s="116"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B54" s="27"/>
@@ -17177,35 +17177,35 @@
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
       <c r="G54" s="27"/>
-      <c r="H54" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I54" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J54" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K54" s="119" t="str">
+      <c r="H54" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I54" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J54" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K54" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L54" s="25"/>
       <c r="M54" s="30"/>
-      <c r="N54" s="120"/>
+      <c r="N54" s="114"/>
       <c r="O54" s="32"/>
-      <c r="P54" s="121"/>
+      <c r="P54" s="115"/>
       <c r="Q54" s="34"/>
-      <c r="R54" s="121"/>
-      <c r="S54" s="121"/>
+      <c r="R54" s="115"/>
+      <c r="S54" s="115"/>
       <c r="T54" s="34"/>
-      <c r="U54" s="121"/>
-      <c r="V54" s="121"/>
+      <c r="U54" s="115"/>
+      <c r="V54" s="115"/>
       <c r="W54" s="25"/>
-      <c r="X54" s="122"/>
+      <c r="X54" s="116"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B55" s="27"/>
@@ -17214,35 +17214,35 @@
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
       <c r="G55" s="27"/>
-      <c r="H55" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I55" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J55" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K55" s="119" t="str">
+      <c r="H55" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I55" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J55" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K55" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L55" s="25"/>
       <c r="M55" s="30"/>
-      <c r="N55" s="120"/>
+      <c r="N55" s="114"/>
       <c r="O55" s="32"/>
-      <c r="P55" s="121"/>
+      <c r="P55" s="115"/>
       <c r="Q55" s="34"/>
-      <c r="R55" s="121"/>
-      <c r="S55" s="121"/>
+      <c r="R55" s="115"/>
+      <c r="S55" s="115"/>
       <c r="T55" s="34"/>
-      <c r="U55" s="121"/>
-      <c r="V55" s="121"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="115"/>
       <c r="W55" s="25"/>
-      <c r="X55" s="122"/>
+      <c r="X55" s="116"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B56" s="27"/>
@@ -17251,35 +17251,35 @@
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I56" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J56" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K56" s="119" t="str">
+      <c r="H56" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I56" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J56" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K56" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L56" s="25"/>
       <c r="M56" s="30"/>
-      <c r="N56" s="120"/>
+      <c r="N56" s="114"/>
       <c r="O56" s="32"/>
-      <c r="P56" s="121"/>
+      <c r="P56" s="115"/>
       <c r="Q56" s="34"/>
-      <c r="R56" s="121"/>
-      <c r="S56" s="121"/>
+      <c r="R56" s="115"/>
+      <c r="S56" s="115"/>
       <c r="T56" s="34"/>
-      <c r="U56" s="121"/>
-      <c r="V56" s="121"/>
+      <c r="U56" s="115"/>
+      <c r="V56" s="115"/>
       <c r="W56" s="25"/>
-      <c r="X56" s="122"/>
+      <c r="X56" s="116"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B57" s="27"/>
@@ -17288,35 +17288,35 @@
       <c r="E57" s="25"/>
       <c r="F57" s="26"/>
       <c r="G57" s="27"/>
-      <c r="H57" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I57" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J57" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K57" s="119" t="str">
+      <c r="H57" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I57" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J57" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K57" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L57" s="25"/>
       <c r="M57" s="30"/>
-      <c r="N57" s="120"/>
+      <c r="N57" s="114"/>
       <c r="O57" s="32"/>
-      <c r="P57" s="121"/>
+      <c r="P57" s="115"/>
       <c r="Q57" s="34"/>
-      <c r="R57" s="121"/>
-      <c r="S57" s="121"/>
+      <c r="R57" s="115"/>
+      <c r="S57" s="115"/>
       <c r="T57" s="34"/>
-      <c r="U57" s="121"/>
-      <c r="V57" s="121"/>
+      <c r="U57" s="115"/>
+      <c r="V57" s="115"/>
       <c r="W57" s="25"/>
-      <c r="X57" s="122"/>
+      <c r="X57" s="116"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B58" s="27"/>
@@ -17325,35 +17325,35 @@
       <c r="E58" s="25"/>
       <c r="F58" s="26"/>
       <c r="G58" s="27"/>
-      <c r="H58" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I58" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J58" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K58" s="119" t="str">
+      <c r="H58" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I58" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J58" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K58" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L58" s="25"/>
       <c r="M58" s="30"/>
-      <c r="N58" s="120"/>
+      <c r="N58" s="114"/>
       <c r="O58" s="32"/>
-      <c r="P58" s="121"/>
+      <c r="P58" s="115"/>
       <c r="Q58" s="34"/>
-      <c r="R58" s="121"/>
-      <c r="S58" s="121"/>
+      <c r="R58" s="115"/>
+      <c r="S58" s="115"/>
       <c r="T58" s="34"/>
-      <c r="U58" s="121"/>
-      <c r="V58" s="121"/>
+      <c r="U58" s="115"/>
+      <c r="V58" s="115"/>
       <c r="W58" s="25"/>
-      <c r="X58" s="122"/>
+      <c r="X58" s="116"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B59" s="27"/>
@@ -17362,35 +17362,35 @@
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
       <c r="G59" s="27"/>
-      <c r="H59" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I59" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J59" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K59" s="119" t="str">
+      <c r="H59" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I59" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J59" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K59" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L59" s="25"/>
       <c r="M59" s="30"/>
-      <c r="N59" s="120"/>
+      <c r="N59" s="114"/>
       <c r="O59" s="32"/>
-      <c r="P59" s="121"/>
+      <c r="P59" s="115"/>
       <c r="Q59" s="34"/>
-      <c r="R59" s="121"/>
-      <c r="S59" s="121"/>
+      <c r="R59" s="115"/>
+      <c r="S59" s="115"/>
       <c r="T59" s="34"/>
-      <c r="U59" s="121"/>
-      <c r="V59" s="121"/>
+      <c r="U59" s="115"/>
+      <c r="V59" s="115"/>
       <c r="W59" s="25"/>
-      <c r="X59" s="122"/>
+      <c r="X59" s="116"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B60" s="27"/>
@@ -17399,35 +17399,35 @@
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
       <c r="G60" s="27"/>
-      <c r="H60" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I60" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J60" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K60" s="119" t="str">
+      <c r="H60" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I60" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J60" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K60" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L60" s="25"/>
       <c r="M60" s="30"/>
-      <c r="N60" s="120"/>
+      <c r="N60" s="114"/>
       <c r="O60" s="32"/>
-      <c r="P60" s="121"/>
+      <c r="P60" s="115"/>
       <c r="Q60" s="34"/>
-      <c r="R60" s="121"/>
-      <c r="S60" s="121"/>
+      <c r="R60" s="115"/>
+      <c r="S60" s="115"/>
       <c r="T60" s="34"/>
-      <c r="U60" s="121"/>
-      <c r="V60" s="121"/>
+      <c r="U60" s="115"/>
+      <c r="V60" s="115"/>
       <c r="W60" s="25"/>
-      <c r="X60" s="122"/>
+      <c r="X60" s="116"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B61" s="27"/>
@@ -17436,35 +17436,35 @@
       <c r="E61" s="25"/>
       <c r="F61" s="26"/>
       <c r="G61" s="27"/>
-      <c r="H61" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I61" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J61" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K61" s="119" t="str">
+      <c r="H61" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I61" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J61" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K61" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L61" s="25"/>
       <c r="M61" s="30"/>
-      <c r="N61" s="120"/>
+      <c r="N61" s="114"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="121"/>
+      <c r="P61" s="115"/>
       <c r="Q61" s="34"/>
-      <c r="R61" s="121"/>
-      <c r="S61" s="121"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="115"/>
       <c r="T61" s="34"/>
-      <c r="U61" s="121"/>
-      <c r="V61" s="121"/>
+      <c r="U61" s="115"/>
+      <c r="V61" s="115"/>
       <c r="W61" s="25"/>
-      <c r="X61" s="122"/>
+      <c r="X61" s="116"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B62" s="27"/>
@@ -17473,35 +17473,35 @@
       <c r="E62" s="25"/>
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
-      <c r="H62" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I62" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J62" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K62" s="119" t="str">
+      <c r="H62" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I62" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J62" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K62" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L62" s="25"/>
       <c r="M62" s="30"/>
-      <c r="N62" s="120"/>
+      <c r="N62" s="114"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="121"/>
+      <c r="P62" s="115"/>
       <c r="Q62" s="34"/>
-      <c r="R62" s="121"/>
-      <c r="S62" s="121"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="115"/>
       <c r="T62" s="34"/>
-      <c r="U62" s="121"/>
-      <c r="V62" s="121"/>
+      <c r="U62" s="115"/>
+      <c r="V62" s="115"/>
       <c r="W62" s="25"/>
-      <c r="X62" s="122"/>
+      <c r="X62" s="116"/>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B63" s="27"/>
@@ -17510,35 +17510,35 @@
       <c r="E63" s="25"/>
       <c r="F63" s="26"/>
       <c r="G63" s="27"/>
-      <c r="H63" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I63" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J63" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K63" s="119" t="str">
+      <c r="H63" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I63" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J63" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K63" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L63" s="25"/>
       <c r="M63" s="30"/>
-      <c r="N63" s="120"/>
+      <c r="N63" s="114"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="121"/>
+      <c r="P63" s="115"/>
       <c r="Q63" s="34"/>
-      <c r="R63" s="121"/>
-      <c r="S63" s="121"/>
+      <c r="R63" s="115"/>
+      <c r="S63" s="115"/>
       <c r="T63" s="34"/>
-      <c r="U63" s="121"/>
-      <c r="V63" s="121"/>
+      <c r="U63" s="115"/>
+      <c r="V63" s="115"/>
       <c r="W63" s="25"/>
-      <c r="X63" s="122"/>
+      <c r="X63" s="116"/>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B64" s="27"/>
@@ -17547,35 +17547,35 @@
       <c r="E64" s="25"/>
       <c r="F64" s="26"/>
       <c r="G64" s="27"/>
-      <c r="H64" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I64" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J64" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K64" s="119" t="str">
+      <c r="H64" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I64" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J64" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K64" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L64" s="25"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="120"/>
+      <c r="N64" s="114"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="121"/>
+      <c r="P64" s="115"/>
       <c r="Q64" s="34"/>
-      <c r="R64" s="121"/>
-      <c r="S64" s="121"/>
+      <c r="R64" s="115"/>
+      <c r="S64" s="115"/>
       <c r="T64" s="34"/>
-      <c r="U64" s="121"/>
-      <c r="V64" s="121"/>
+      <c r="U64" s="115"/>
+      <c r="V64" s="115"/>
       <c r="W64" s="25"/>
-      <c r="X64" s="122"/>
+      <c r="X64" s="116"/>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B65" s="27"/>
@@ -17584,35 +17584,35 @@
       <c r="E65" s="25"/>
       <c r="F65" s="26"/>
       <c r="G65" s="27"/>
-      <c r="H65" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I65" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J65" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K65" s="119" t="str">
+      <c r="H65" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I65" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J65" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K65" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L65" s="25"/>
       <c r="M65" s="30"/>
-      <c r="N65" s="120"/>
+      <c r="N65" s="114"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="121"/>
+      <c r="P65" s="115"/>
       <c r="Q65" s="34"/>
-      <c r="R65" s="121"/>
-      <c r="S65" s="121"/>
+      <c r="R65" s="115"/>
+      <c r="S65" s="115"/>
       <c r="T65" s="34"/>
-      <c r="U65" s="121"/>
-      <c r="V65" s="121"/>
+      <c r="U65" s="115"/>
+      <c r="V65" s="115"/>
       <c r="W65" s="25"/>
-      <c r="X65" s="122"/>
+      <c r="X65" s="116"/>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B66" s="27"/>
@@ -17621,35 +17621,35 @@
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
-      <c r="H66" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I66" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J66" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K66" s="119" t="str">
+      <c r="H66" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I66" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J66" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K66" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L66" s="25"/>
       <c r="M66" s="30"/>
-      <c r="N66" s="120"/>
+      <c r="N66" s="114"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="121"/>
+      <c r="P66" s="115"/>
       <c r="Q66" s="34"/>
-      <c r="R66" s="121"/>
-      <c r="S66" s="121"/>
+      <c r="R66" s="115"/>
+      <c r="S66" s="115"/>
       <c r="T66" s="34"/>
-      <c r="U66" s="121"/>
-      <c r="V66" s="121"/>
+      <c r="U66" s="115"/>
+      <c r="V66" s="115"/>
       <c r="W66" s="25"/>
-      <c r="X66" s="122"/>
+      <c r="X66" s="116"/>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B67" s="27"/>
@@ -17658,35 +17658,35 @@
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
-      <c r="H67" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I67" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J67" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K67" s="119" t="str">
+      <c r="H67" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I67" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J67" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K67" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L67" s="25"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="120"/>
+      <c r="N67" s="114"/>
       <c r="O67" s="32"/>
-      <c r="P67" s="121"/>
+      <c r="P67" s="115"/>
       <c r="Q67" s="34"/>
-      <c r="R67" s="121"/>
-      <c r="S67" s="121"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="115"/>
       <c r="T67" s="34"/>
-      <c r="U67" s="121"/>
-      <c r="V67" s="121"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="122"/>
+      <c r="X67" s="116"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B68" s="27"/>
@@ -17695,35 +17695,35 @@
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
-      <c r="H68" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I68" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J68" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K68" s="119" t="str">
+      <c r="H68" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I68" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J68" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K68" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L68" s="25"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="120"/>
+      <c r="N68" s="114"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="121"/>
+      <c r="P68" s="115"/>
       <c r="Q68" s="34"/>
-      <c r="R68" s="121"/>
-      <c r="S68" s="121"/>
+      <c r="R68" s="115"/>
+      <c r="S68" s="115"/>
       <c r="T68" s="34"/>
-      <c r="U68" s="121"/>
-      <c r="V68" s="121"/>
+      <c r="U68" s="115"/>
+      <c r="V68" s="115"/>
       <c r="W68" s="25"/>
-      <c r="X68" s="122"/>
+      <c r="X68" s="116"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B69" s="27"/>
@@ -17732,35 +17732,35 @@
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
-      <c r="H69" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I69" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J69" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K69" s="119" t="str">
+      <c r="H69" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I69" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J69" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K69" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L69" s="25"/>
       <c r="M69" s="30"/>
-      <c r="N69" s="120"/>
+      <c r="N69" s="114"/>
       <c r="O69" s="32"/>
-      <c r="P69" s="121"/>
+      <c r="P69" s="115"/>
       <c r="Q69" s="34"/>
-      <c r="R69" s="121"/>
-      <c r="S69" s="121"/>
+      <c r="R69" s="115"/>
+      <c r="S69" s="115"/>
       <c r="T69" s="34"/>
-      <c r="U69" s="121"/>
-      <c r="V69" s="121"/>
+      <c r="U69" s="115"/>
+      <c r="V69" s="115"/>
       <c r="W69" s="25"/>
-      <c r="X69" s="122"/>
+      <c r="X69" s="116"/>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B70" s="27"/>
@@ -17769,35 +17769,35 @@
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
       <c r="G70" s="27"/>
-      <c r="H70" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I70" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J70" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K70" s="119" t="str">
+      <c r="H70" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I70" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J70" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K70" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L70" s="25"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="120"/>
+      <c r="N70" s="114"/>
       <c r="O70" s="32"/>
-      <c r="P70" s="121"/>
+      <c r="P70" s="115"/>
       <c r="Q70" s="34"/>
-      <c r="R70" s="121"/>
-      <c r="S70" s="121"/>
+      <c r="R70" s="115"/>
+      <c r="S70" s="115"/>
       <c r="T70" s="34"/>
-      <c r="U70" s="121"/>
-      <c r="V70" s="121"/>
+      <c r="U70" s="115"/>
+      <c r="V70" s="115"/>
       <c r="W70" s="25"/>
-      <c r="X70" s="122"/>
+      <c r="X70" s="116"/>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B71" s="27"/>
@@ -17806,35 +17806,35 @@
       <c r="E71" s="25"/>
       <c r="F71" s="26"/>
       <c r="G71" s="27"/>
-      <c r="H71" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I71" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J71" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K71" s="119" t="str">
+      <c r="H71" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I71" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J71" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K71" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="120"/>
+      <c r="N71" s="114"/>
       <c r="O71" s="32"/>
-      <c r="P71" s="121"/>
+      <c r="P71" s="115"/>
       <c r="Q71" s="34"/>
-      <c r="R71" s="121"/>
-      <c r="S71" s="121"/>
+      <c r="R71" s="115"/>
+      <c r="S71" s="115"/>
       <c r="T71" s="34"/>
-      <c r="U71" s="121"/>
-      <c r="V71" s="121"/>
+      <c r="U71" s="115"/>
+      <c r="V71" s="115"/>
       <c r="W71" s="25"/>
-      <c r="X71" s="122"/>
+      <c r="X71" s="116"/>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B72" s="27"/>
@@ -17843,35 +17843,35 @@
       <c r="E72" s="25"/>
       <c r="F72" s="26"/>
       <c r="G72" s="27"/>
-      <c r="H72" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I72" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J72" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K72" s="119" t="str">
+      <c r="H72" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I72" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J72" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K72" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L72" s="25"/>
       <c r="M72" s="30"/>
-      <c r="N72" s="120"/>
+      <c r="N72" s="114"/>
       <c r="O72" s="32"/>
-      <c r="P72" s="121"/>
+      <c r="P72" s="115"/>
       <c r="Q72" s="34"/>
-      <c r="R72" s="121"/>
-      <c r="S72" s="121"/>
+      <c r="R72" s="115"/>
+      <c r="S72" s="115"/>
       <c r="T72" s="34"/>
-      <c r="U72" s="121"/>
-      <c r="V72" s="121"/>
+      <c r="U72" s="115"/>
+      <c r="V72" s="115"/>
       <c r="W72" s="25"/>
-      <c r="X72" s="122"/>
+      <c r="X72" s="116"/>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B73" s="27"/>
@@ -17880,35 +17880,35 @@
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
       <c r="G73" s="27"/>
-      <c r="H73" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I73" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J73" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K73" s="119" t="str">
+      <c r="H73" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I73" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J73" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K73" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L73" s="25"/>
       <c r="M73" s="30"/>
-      <c r="N73" s="120"/>
+      <c r="N73" s="114"/>
       <c r="O73" s="32"/>
-      <c r="P73" s="121"/>
+      <c r="P73" s="115"/>
       <c r="Q73" s="34"/>
-      <c r="R73" s="121"/>
-      <c r="S73" s="121"/>
+      <c r="R73" s="115"/>
+      <c r="S73" s="115"/>
       <c r="T73" s="34"/>
-      <c r="U73" s="121"/>
-      <c r="V73" s="121"/>
+      <c r="U73" s="115"/>
+      <c r="V73" s="115"/>
       <c r="W73" s="25"/>
-      <c r="X73" s="122"/>
+      <c r="X73" s="116"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B74" s="27"/>
@@ -17917,35 +17917,35 @@
       <c r="E74" s="25"/>
       <c r="F74" s="26"/>
       <c r="G74" s="27"/>
-      <c r="H74" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I74" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J74" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K74" s="119" t="str">
+      <c r="H74" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I74" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J74" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K74" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="30"/>
-      <c r="N74" s="120"/>
+      <c r="N74" s="114"/>
       <c r="O74" s="32"/>
-      <c r="P74" s="121"/>
+      <c r="P74" s="115"/>
       <c r="Q74" s="34"/>
-      <c r="R74" s="121"/>
-      <c r="S74" s="121"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="115"/>
       <c r="T74" s="34"/>
-      <c r="U74" s="121"/>
-      <c r="V74" s="121"/>
+      <c r="U74" s="115"/>
+      <c r="V74" s="115"/>
       <c r="W74" s="25"/>
-      <c r="X74" s="122"/>
+      <c r="X74" s="116"/>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B75" s="27"/>
@@ -17954,35 +17954,35 @@
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
-      <c r="H75" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I75" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J75" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K75" s="119" t="str">
+      <c r="H75" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I75" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J75" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K75" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L75" s="25"/>
       <c r="M75" s="30"/>
-      <c r="N75" s="120"/>
+      <c r="N75" s="114"/>
       <c r="O75" s="32"/>
-      <c r="P75" s="121"/>
+      <c r="P75" s="115"/>
       <c r="Q75" s="34"/>
-      <c r="R75" s="121"/>
-      <c r="S75" s="121"/>
+      <c r="R75" s="115"/>
+      <c r="S75" s="115"/>
       <c r="T75" s="34"/>
-      <c r="U75" s="121"/>
-      <c r="V75" s="121"/>
+      <c r="U75" s="115"/>
+      <c r="V75" s="115"/>
       <c r="W75" s="25"/>
-      <c r="X75" s="122"/>
+      <c r="X75" s="116"/>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B76" s="27"/>
@@ -17991,35 +17991,35 @@
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
-      <c r="H76" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I76" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J76" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K76" s="119" t="str">
+      <c r="H76" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I76" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J76" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K76" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L76" s="25"/>
       <c r="M76" s="30"/>
-      <c r="N76" s="120"/>
+      <c r="N76" s="114"/>
       <c r="O76" s="32"/>
-      <c r="P76" s="121"/>
+      <c r="P76" s="115"/>
       <c r="Q76" s="34"/>
-      <c r="R76" s="121"/>
-      <c r="S76" s="121"/>
+      <c r="R76" s="115"/>
+      <c r="S76" s="115"/>
       <c r="T76" s="34"/>
-      <c r="U76" s="121"/>
-      <c r="V76" s="121"/>
+      <c r="U76" s="115"/>
+      <c r="V76" s="115"/>
       <c r="W76" s="25"/>
-      <c r="X76" s="122"/>
+      <c r="X76" s="116"/>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B77" s="27"/>
@@ -18028,35 +18028,35 @@
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I77" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J77" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K77" s="119" t="str">
+      <c r="H77" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I77" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J77" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K77" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="30"/>
-      <c r="N77" s="120"/>
+      <c r="N77" s="114"/>
       <c r="O77" s="32"/>
-      <c r="P77" s="121"/>
+      <c r="P77" s="115"/>
       <c r="Q77" s="34"/>
-      <c r="R77" s="121"/>
-      <c r="S77" s="121"/>
+      <c r="R77" s="115"/>
+      <c r="S77" s="115"/>
       <c r="T77" s="34"/>
-      <c r="U77" s="121"/>
-      <c r="V77" s="121"/>
+      <c r="U77" s="115"/>
+      <c r="V77" s="115"/>
       <c r="W77" s="25"/>
-      <c r="X77" s="122"/>
+      <c r="X77" s="116"/>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B78" s="27"/>
@@ -18065,35 +18065,35 @@
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
-      <c r="H78" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I78" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J78" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K78" s="119" t="str">
+      <c r="H78" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I78" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J78" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K78" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="30"/>
-      <c r="N78" s="120"/>
+      <c r="N78" s="114"/>
       <c r="O78" s="32"/>
-      <c r="P78" s="121"/>
+      <c r="P78" s="115"/>
       <c r="Q78" s="34"/>
-      <c r="R78" s="121"/>
-      <c r="S78" s="121"/>
+      <c r="R78" s="115"/>
+      <c r="S78" s="115"/>
       <c r="T78" s="34"/>
-      <c r="U78" s="121"/>
-      <c r="V78" s="121"/>
+      <c r="U78" s="115"/>
+      <c r="V78" s="115"/>
       <c r="W78" s="25"/>
-      <c r="X78" s="122"/>
+      <c r="X78" s="116"/>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B79" s="27"/>
@@ -18102,35 +18102,35 @@
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
-      <c r="H79" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I79" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J79" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K79" s="119" t="str">
+      <c r="H79" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I79" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J79" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K79" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="30"/>
-      <c r="N79" s="120"/>
+      <c r="N79" s="114"/>
       <c r="O79" s="32"/>
-      <c r="P79" s="121"/>
+      <c r="P79" s="115"/>
       <c r="Q79" s="34"/>
-      <c r="R79" s="121"/>
-      <c r="S79" s="121"/>
+      <c r="R79" s="115"/>
+      <c r="S79" s="115"/>
       <c r="T79" s="34"/>
-      <c r="U79" s="121"/>
-      <c r="V79" s="121"/>
+      <c r="U79" s="115"/>
+      <c r="V79" s="115"/>
       <c r="W79" s="25"/>
-      <c r="X79" s="122"/>
+      <c r="X79" s="116"/>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B80" s="27"/>
@@ -18139,35 +18139,35 @@
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
-      <c r="H80" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I80" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J80" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K80" s="119" t="str">
+      <c r="H80" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I80" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J80" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K80" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="30"/>
-      <c r="N80" s="120"/>
+      <c r="N80" s="114"/>
       <c r="O80" s="32"/>
-      <c r="P80" s="121"/>
+      <c r="P80" s="115"/>
       <c r="Q80" s="34"/>
-      <c r="R80" s="121"/>
-      <c r="S80" s="121"/>
+      <c r="R80" s="115"/>
+      <c r="S80" s="115"/>
       <c r="T80" s="34"/>
-      <c r="U80" s="121"/>
-      <c r="V80" s="121"/>
+      <c r="U80" s="115"/>
+      <c r="V80" s="115"/>
       <c r="W80" s="25"/>
-      <c r="X80" s="122"/>
+      <c r="X80" s="116"/>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B81" s="27"/>
@@ -18176,35 +18176,35 @@
       <c r="E81" s="25"/>
       <c r="F81" s="26"/>
       <c r="G81" s="27"/>
-      <c r="H81" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I81" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J81" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K81" s="119" t="str">
+      <c r="H81" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I81" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J81" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K81" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="30"/>
-      <c r="N81" s="120"/>
+      <c r="N81" s="114"/>
       <c r="O81" s="32"/>
-      <c r="P81" s="121"/>
+      <c r="P81" s="115"/>
       <c r="Q81" s="34"/>
-      <c r="R81" s="121"/>
-      <c r="S81" s="121"/>
+      <c r="R81" s="115"/>
+      <c r="S81" s="115"/>
       <c r="T81" s="34"/>
-      <c r="U81" s="121"/>
-      <c r="V81" s="121"/>
+      <c r="U81" s="115"/>
+      <c r="V81" s="115"/>
       <c r="W81" s="25"/>
-      <c r="X81" s="122"/>
+      <c r="X81" s="116"/>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B82" s="27"/>
@@ -18213,35 +18213,35 @@
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
       <c r="G82" s="27"/>
-      <c r="H82" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I82" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J82" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K82" s="119" t="str">
+      <c r="H82" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I82" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J82" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K82" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L82" s="25"/>
       <c r="M82" s="30"/>
-      <c r="N82" s="120"/>
+      <c r="N82" s="114"/>
       <c r="O82" s="32"/>
-      <c r="P82" s="121"/>
+      <c r="P82" s="115"/>
       <c r="Q82" s="34"/>
-      <c r="R82" s="121"/>
-      <c r="S82" s="121"/>
+      <c r="R82" s="115"/>
+      <c r="S82" s="115"/>
       <c r="T82" s="34"/>
-      <c r="U82" s="121"/>
-      <c r="V82" s="121"/>
+      <c r="U82" s="115"/>
+      <c r="V82" s="115"/>
       <c r="W82" s="25"/>
-      <c r="X82" s="122"/>
+      <c r="X82" s="116"/>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B83" s="27"/>
@@ -18250,35 +18250,35 @@
       <c r="E83" s="25"/>
       <c r="F83" s="26"/>
       <c r="G83" s="27"/>
-      <c r="H83" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I83" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J83" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K83" s="119" t="str">
+      <c r="H83" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I83" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J83" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K83" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L83" s="25"/>
       <c r="M83" s="30"/>
-      <c r="N83" s="120"/>
+      <c r="N83" s="114"/>
       <c r="O83" s="32"/>
-      <c r="P83" s="121"/>
+      <c r="P83" s="115"/>
       <c r="Q83" s="34"/>
-      <c r="R83" s="121"/>
-      <c r="S83" s="121"/>
+      <c r="R83" s="115"/>
+      <c r="S83" s="115"/>
       <c r="T83" s="34"/>
-      <c r="U83" s="121"/>
-      <c r="V83" s="121"/>
+      <c r="U83" s="115"/>
+      <c r="V83" s="115"/>
       <c r="W83" s="25"/>
-      <c r="X83" s="122"/>
+      <c r="X83" s="116"/>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B84" s="27"/>
@@ -18287,35 +18287,35 @@
       <c r="E84" s="25"/>
       <c r="F84" s="26"/>
       <c r="G84" s="27"/>
-      <c r="H84" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I84" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J84" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K84" s="119" t="str">
+      <c r="H84" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I84" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J84" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K84" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L84" s="25"/>
       <c r="M84" s="30"/>
-      <c r="N84" s="120"/>
+      <c r="N84" s="114"/>
       <c r="O84" s="32"/>
-      <c r="P84" s="121"/>
+      <c r="P84" s="115"/>
       <c r="Q84" s="34"/>
-      <c r="R84" s="121"/>
-      <c r="S84" s="121"/>
+      <c r="R84" s="115"/>
+      <c r="S84" s="115"/>
       <c r="T84" s="34"/>
-      <c r="U84" s="121"/>
-      <c r="V84" s="121"/>
+      <c r="U84" s="115"/>
+      <c r="V84" s="115"/>
       <c r="W84" s="25"/>
-      <c r="X84" s="122"/>
+      <c r="X84" s="116"/>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B85" s="27"/>
@@ -18324,35 +18324,35 @@
       <c r="E85" s="25"/>
       <c r="F85" s="26"/>
       <c r="G85" s="27"/>
-      <c r="H85" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I85" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J85" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K85" s="119" t="str">
+      <c r="H85" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I85" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J85" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K85" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L85" s="25"/>
       <c r="M85" s="30"/>
-      <c r="N85" s="120"/>
+      <c r="N85" s="114"/>
       <c r="O85" s="32"/>
-      <c r="P85" s="121"/>
+      <c r="P85" s="115"/>
       <c r="Q85" s="34"/>
-      <c r="R85" s="121"/>
-      <c r="S85" s="121"/>
+      <c r="R85" s="115"/>
+      <c r="S85" s="115"/>
       <c r="T85" s="34"/>
-      <c r="U85" s="121"/>
-      <c r="V85" s="121"/>
+      <c r="U85" s="115"/>
+      <c r="V85" s="115"/>
       <c r="W85" s="25"/>
-      <c r="X85" s="122"/>
+      <c r="X85" s="116"/>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B86" s="27"/>
@@ -18361,35 +18361,35 @@
       <c r="E86" s="25"/>
       <c r="F86" s="26"/>
       <c r="G86" s="27"/>
-      <c r="H86" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I86" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J86" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K86" s="119" t="str">
+      <c r="H86" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I86" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J86" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K86" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L86" s="25"/>
       <c r="M86" s="30"/>
-      <c r="N86" s="120"/>
+      <c r="N86" s="114"/>
       <c r="O86" s="32"/>
-      <c r="P86" s="121"/>
+      <c r="P86" s="115"/>
       <c r="Q86" s="34"/>
-      <c r="R86" s="121"/>
-      <c r="S86" s="121"/>
+      <c r="R86" s="115"/>
+      <c r="S86" s="115"/>
       <c r="T86" s="34"/>
-      <c r="U86" s="121"/>
-      <c r="V86" s="121"/>
+      <c r="U86" s="115"/>
+      <c r="V86" s="115"/>
       <c r="W86" s="25"/>
-      <c r="X86" s="122"/>
+      <c r="X86" s="116"/>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B87" s="27"/>
@@ -18398,35 +18398,35 @@
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
       <c r="G87" s="27"/>
-      <c r="H87" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I87" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J87" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K87" s="119" t="str">
+      <c r="H87" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I87" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J87" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K87" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L87" s="25"/>
       <c r="M87" s="30"/>
-      <c r="N87" s="120"/>
+      <c r="N87" s="114"/>
       <c r="O87" s="32"/>
-      <c r="P87" s="121"/>
+      <c r="P87" s="115"/>
       <c r="Q87" s="34"/>
-      <c r="R87" s="121"/>
-      <c r="S87" s="121"/>
+      <c r="R87" s="115"/>
+      <c r="S87" s="115"/>
       <c r="T87" s="34"/>
-      <c r="U87" s="121"/>
-      <c r="V87" s="121"/>
+      <c r="U87" s="115"/>
+      <c r="V87" s="115"/>
       <c r="W87" s="25"/>
-      <c r="X87" s="122"/>
+      <c r="X87" s="116"/>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B88" s="27"/>
@@ -18435,35 +18435,35 @@
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
       <c r="G88" s="27"/>
-      <c r="H88" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I88" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J88" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K88" s="119" t="str">
+      <c r="H88" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I88" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J88" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K88" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L88" s="25"/>
       <c r="M88" s="30"/>
-      <c r="N88" s="120"/>
+      <c r="N88" s="114"/>
       <c r="O88" s="32"/>
-      <c r="P88" s="121"/>
+      <c r="P88" s="115"/>
       <c r="Q88" s="34"/>
-      <c r="R88" s="121"/>
-      <c r="S88" s="121"/>
+      <c r="R88" s="115"/>
+      <c r="S88" s="115"/>
       <c r="T88" s="34"/>
-      <c r="U88" s="121"/>
-      <c r="V88" s="121"/>
+      <c r="U88" s="115"/>
+      <c r="V88" s="115"/>
       <c r="W88" s="25"/>
-      <c r="X88" s="122"/>
+      <c r="X88" s="116"/>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B89" s="27"/>
@@ -18472,35 +18472,35 @@
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
       <c r="G89" s="27"/>
-      <c r="H89" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I89" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J89" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K89" s="119" t="str">
+      <c r="H89" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I89" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J89" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K89" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L89" s="25"/>
       <c r="M89" s="30"/>
-      <c r="N89" s="120"/>
+      <c r="N89" s="114"/>
       <c r="O89" s="32"/>
-      <c r="P89" s="121"/>
+      <c r="P89" s="115"/>
       <c r="Q89" s="34"/>
-      <c r="R89" s="121"/>
-      <c r="S89" s="121"/>
+      <c r="R89" s="115"/>
+      <c r="S89" s="115"/>
       <c r="T89" s="34"/>
-      <c r="U89" s="121"/>
-      <c r="V89" s="121"/>
+      <c r="U89" s="115"/>
+      <c r="V89" s="115"/>
       <c r="W89" s="25"/>
-      <c r="X89" s="122"/>
+      <c r="X89" s="116"/>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B90" s="27"/>
@@ -18509,35 +18509,35 @@
       <c r="E90" s="25"/>
       <c r="F90" s="26"/>
       <c r="G90" s="27"/>
-      <c r="H90" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I90" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J90" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K90" s="119" t="str">
+      <c r="H90" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I90" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J90" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K90" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L90" s="25"/>
       <c r="M90" s="30"/>
-      <c r="N90" s="120"/>
+      <c r="N90" s="114"/>
       <c r="O90" s="32"/>
-      <c r="P90" s="121"/>
+      <c r="P90" s="115"/>
       <c r="Q90" s="34"/>
-      <c r="R90" s="121"/>
-      <c r="S90" s="121"/>
+      <c r="R90" s="115"/>
+      <c r="S90" s="115"/>
       <c r="T90" s="34"/>
-      <c r="U90" s="121"/>
-      <c r="V90" s="121"/>
+      <c r="U90" s="115"/>
+      <c r="V90" s="115"/>
       <c r="W90" s="25"/>
-      <c r="X90" s="122"/>
+      <c r="X90" s="116"/>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B91" s="27"/>
@@ -18546,35 +18546,35 @@
       <c r="E91" s="25"/>
       <c r="F91" s="26"/>
       <c r="G91" s="27"/>
-      <c r="H91" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I91" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J91" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K91" s="119" t="str">
+      <c r="H91" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I91" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J91" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K91" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L91" s="25"/>
       <c r="M91" s="30"/>
-      <c r="N91" s="120"/>
+      <c r="N91" s="114"/>
       <c r="O91" s="32"/>
-      <c r="P91" s="121"/>
+      <c r="P91" s="115"/>
       <c r="Q91" s="34"/>
-      <c r="R91" s="121"/>
-      <c r="S91" s="121"/>
+      <c r="R91" s="115"/>
+      <c r="S91" s="115"/>
       <c r="T91" s="34"/>
-      <c r="U91" s="121"/>
-      <c r="V91" s="121"/>
+      <c r="U91" s="115"/>
+      <c r="V91" s="115"/>
       <c r="W91" s="25"/>
-      <c r="X91" s="122"/>
+      <c r="X91" s="116"/>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.65">
       <c r="B92" s="27"/>
@@ -18583,35 +18583,35 @@
       <c r="E92" s="25"/>
       <c r="F92" s="26"/>
       <c r="G92" s="27"/>
-      <c r="H92" s="118" t="str">
-        <f t="shared" si="0"/>
-        <v>] Goal :  among  of SWDDS</v>
-      </c>
-      <c r="I92" s="119" t="str">
-        <f t="shared" si="1"/>
-        <v>.xls</v>
-      </c>
-      <c r="J92" s="119" t="str">
-        <f t="shared" si="2"/>
-        <v>.xls</v>
-      </c>
-      <c r="K92" s="119" t="str">
+      <c r="H92" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>] Goal :  among  of SWDDS</v>
+      </c>
+      <c r="I92" s="113" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="J92" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="K92" s="113" t="str">
         <f t="shared" si="3"/>
         <v>.xls</v>
       </c>
       <c r="L92" s="25"/>
       <c r="M92" s="30"/>
-      <c r="N92" s="120"/>
+      <c r="N92" s="114"/>
       <c r="O92" s="32"/>
-      <c r="P92" s="121"/>
+      <c r="P92" s="115"/>
       <c r="Q92" s="34"/>
-      <c r="R92" s="121"/>
-      <c r="S92" s="121"/>
+      <c r="R92" s="115"/>
+      <c r="S92" s="115"/>
       <c r="T92" s="34"/>
-      <c r="U92" s="121"/>
-      <c r="V92" s="121"/>
+      <c r="U92" s="115"/>
+      <c r="V92" s="115"/>
       <c r="W92" s="25"/>
-      <c r="X92" s="122"/>
+      <c r="X92" s="116"/>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.65">
       <c r="H93" s="38"/>
@@ -18750,15 +18750,15 @@
       <c r="O1" s="48"/>
     </row>
     <row r="2" spans="2:16" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -20271,8 +20271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CDC67B-47AA-4616-BC17-88648D3BA6D6}">
   <dimension ref="B2:L78"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.65"/>
@@ -20392,7 +20392,9 @@
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
       <c r="E13" s="100"/>
-      <c r="G13" s="106"/>
+      <c r="G13" s="106">
+        <v>1</v>
+      </c>
       <c r="H13" s="106"/>
       <c r="I13" s="106"/>
       <c r="J13" s="106"/>
@@ -20414,7 +20416,9 @@
       <c r="B15" s="100"/>
       <c r="C15" s="100"/>
       <c r="E15" s="100"/>
-      <c r="G15" s="106"/>
+      <c r="G15" s="106">
+        <v>2</v>
+      </c>
       <c r="H15" s="106"/>
       <c r="I15" s="106"/>
       <c r="J15" s="106"/>
@@ -20436,7 +20440,9 @@
       <c r="B17" s="100"/>
       <c r="C17" s="100"/>
       <c r="E17" s="100"/>
-      <c r="G17" s="106"/>
+      <c r="G17" s="106">
+        <v>3</v>
+      </c>
       <c r="H17" s="106"/>
       <c r="I17" s="106"/>
       <c r="J17" s="106"/>
@@ -20458,7 +20464,9 @@
       <c r="B19" s="100"/>
       <c r="C19" s="100"/>
       <c r="E19" s="100"/>
-      <c r="G19" s="106"/>
+      <c r="G19" s="106">
+        <v>4</v>
+      </c>
       <c r="H19" s="106"/>
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
@@ -20474,10 +20482,10 @@
       <c r="B21" s="100"/>
       <c r="C21" s="100"/>
       <c r="E21" s="100"/>
-      <c r="G21" s="117" t="s">
+      <c r="G21" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="117"/>
+      <c r="H21" s="122"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.65">
       <c r="B22" s="100"/>
